--- a/outcome/appendix/forecast/Syphilis.xlsx
+++ b/outcome/appendix/forecast/Syphilis.xlsx
@@ -424,19 +424,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>47125.5073439079</v>
+        <v>47143.2748783623</v>
       </c>
       <c r="C2" t="n">
-        <v>44015.7761128312</v>
+        <v>44818.9340865714</v>
       </c>
       <c r="D2" t="n">
-        <v>42384.9231902257</v>
+        <v>43667.4525187969</v>
       </c>
       <c r="E2" t="n">
-        <v>50279.0109514864</v>
+        <v>50190.7615374491</v>
       </c>
       <c r="F2" t="n">
-        <v>51916.3539448264</v>
+        <v>51096.4048619188</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -445,7 +445,7 @@
         <v>39671</v>
       </c>
       <c r="I2" t="n">
-        <v>7454.50734390792</v>
+        <v>7472.27487836232</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -456,19 +456,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>43087.9378069823</v>
+        <v>42940.2621192633</v>
       </c>
       <c r="C3" t="n">
-        <v>40424.9594663435</v>
+        <v>39967.1952699314</v>
       </c>
       <c r="D3" t="n">
-        <v>38792.6274652767</v>
+        <v>38026.7628134738</v>
       </c>
       <c r="E3" t="n">
-        <v>46045.6749719531</v>
+        <v>45289.4419549162</v>
       </c>
       <c r="F3" t="n">
-        <v>47922.4539705295</v>
+        <v>46217.2305951644</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -477,7 +477,7 @@
         <v>21448</v>
       </c>
       <c r="I3" t="n">
-        <v>21639.9378069823</v>
+        <v>21492.2621192633</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -488,19 +488,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>55046.9480987036</v>
+        <v>54861.1237072733</v>
       </c>
       <c r="C4" t="n">
-        <v>51847.3703948557</v>
+        <v>51943.414644586</v>
       </c>
       <c r="D4" t="n">
-        <v>50224.7082267021</v>
+        <v>50630.5184971234</v>
       </c>
       <c r="E4" t="n">
-        <v>58262.5942839601</v>
+        <v>57333.8672168212</v>
       </c>
       <c r="F4" t="n">
-        <v>59559.193681446</v>
+        <v>58992.5860593347</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -509,7 +509,7 @@
         <v>41154</v>
       </c>
       <c r="I4" t="n">
-        <v>13892.9480987036</v>
+        <v>13707.1237072733</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -520,19 +520,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>53164.4862818462</v>
+        <v>53181.7715913509</v>
       </c>
       <c r="C5" t="n">
-        <v>49910.5582128925</v>
+        <v>50610.9293624841</v>
       </c>
       <c r="D5" t="n">
-        <v>48654.9604751045</v>
+        <v>49648.1779235624</v>
       </c>
       <c r="E5" t="n">
-        <v>56640.7056897282</v>
+        <v>56618.4062952268</v>
       </c>
       <c r="F5" t="n">
-        <v>58064.4698949237</v>
+        <v>58158.752883192</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -541,7 +541,7 @@
         <v>46728</v>
       </c>
       <c r="I5" t="n">
-        <v>6436.4862818462</v>
+        <v>6453.77159135094</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -552,19 +552,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>55535.2824890502</v>
+        <v>55417.7426364828</v>
       </c>
       <c r="C6" t="n">
-        <v>52502.9598791054</v>
+        <v>52505.8252373727</v>
       </c>
       <c r="D6" t="n">
-        <v>50665.4902818637</v>
+        <v>51454.4626175523</v>
       </c>
       <c r="E6" t="n">
-        <v>58739.5040516803</v>
+        <v>57519.9947384338</v>
       </c>
       <c r="F6" t="n">
-        <v>60652.8279983873</v>
+        <v>58566.029659516</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -573,7 +573,7 @@
         <v>46753</v>
       </c>
       <c r="I6" t="n">
-        <v>8782.28248905022</v>
+        <v>8664.74263648281</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -584,19 +584,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>54579.6768838314</v>
+        <v>53741.9375247559</v>
       </c>
       <c r="C7" t="n">
-        <v>51448.7242141647</v>
+        <v>50870.4126701829</v>
       </c>
       <c r="D7" t="n">
-        <v>49903.5420489953</v>
+        <v>47419.5342641441</v>
       </c>
       <c r="E7" t="n">
-        <v>57825.7418140127</v>
+        <v>57606.3422406621</v>
       </c>
       <c r="F7" t="n">
-        <v>59470.5568338628</v>
+        <v>58503.5620813976</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -605,7 +605,7 @@
         <v>46538</v>
       </c>
       <c r="I7" t="n">
-        <v>8041.67688383139</v>
+        <v>7203.93752475586</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -616,19 +616,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>57665.500712027</v>
+        <v>58391.6418628794</v>
       </c>
       <c r="C8" t="n">
-        <v>54339.0075331948</v>
+        <v>54652.1239046516</v>
       </c>
       <c r="D8" t="n">
-        <v>52644.9536645019</v>
+        <v>52226.8549108439</v>
       </c>
       <c r="E8" t="n">
-        <v>60976.3689884152</v>
+        <v>62395.852619482</v>
       </c>
       <c r="F8" t="n">
-        <v>62520.5119551664</v>
+        <v>64566.1965662728</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -637,7 +637,7 @@
         <v>46838</v>
       </c>
       <c r="I8" t="n">
-        <v>10827.500712027</v>
+        <v>11553.6418628794</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -648,19 +648,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>57414.99459363</v>
+        <v>57337.7679314476</v>
       </c>
       <c r="C9" t="n">
-        <v>53779.9372400861</v>
+        <v>53840.9910972355</v>
       </c>
       <c r="D9" t="n">
-        <v>52597.7800408851</v>
+        <v>52929.981048566</v>
       </c>
       <c r="E9" t="n">
-        <v>61068.0583184746</v>
+        <v>60794.9936691666</v>
       </c>
       <c r="F9" t="n">
-        <v>63010.3555632566</v>
+        <v>62806.9445729422</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -669,7 +669,7 @@
         <v>46838</v>
       </c>
       <c r="I9" t="n">
-        <v>10576.99459363</v>
+        <v>10499.7679314476</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -680,19 +680,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>55911.0628561179</v>
+        <v>55430.1696665108</v>
       </c>
       <c r="C10" t="n">
-        <v>52420.7987178212</v>
+        <v>51048.8923706948</v>
       </c>
       <c r="D10" t="n">
-        <v>50725.372033034</v>
+        <v>50019.5370171246</v>
       </c>
       <c r="E10" t="n">
-        <v>59332.0398757883</v>
+        <v>59171.1692761142</v>
       </c>
       <c r="F10" t="n">
-        <v>60953.1835721755</v>
+        <v>60763.6445811974</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -701,7 +701,7 @@
         <v>48965</v>
       </c>
       <c r="I10" t="n">
-        <v>6946.06285611791</v>
+        <v>6465.16966651083</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -712,19 +712,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>53718.0140384726</v>
+        <v>53420.860783768</v>
       </c>
       <c r="C11" t="n">
-        <v>50211.9770560916</v>
+        <v>50471.3673527706</v>
       </c>
       <c r="D11" t="n">
-        <v>48473.5374815956</v>
+        <v>49674.5833888276</v>
       </c>
       <c r="E11" t="n">
-        <v>57122.97384859</v>
+        <v>57109.7372269885</v>
       </c>
       <c r="F11" t="n">
-        <v>59331.9173347436</v>
+        <v>58118.3479083331</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -733,7 +733,7 @@
         <v>44438</v>
       </c>
       <c r="I11" t="n">
-        <v>9280.01403847263</v>
+        <v>8982.86078376798</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -744,19 +744,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>54420.8738352248</v>
+        <v>54133.7946247007</v>
       </c>
       <c r="C12" t="n">
-        <v>50874.5650486304</v>
+        <v>50501.790694116</v>
       </c>
       <c r="D12" t="n">
-        <v>49272.616325001</v>
+        <v>49080.2082698574</v>
       </c>
       <c r="E12" t="n">
-        <v>58194.4518087881</v>
+        <v>59219.737266308</v>
       </c>
       <c r="F12" t="n">
-        <v>60097.915928097</v>
+        <v>59764.3041107671</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -765,7 +765,7 @@
         <v>45305</v>
       </c>
       <c r="I12" t="n">
-        <v>9115.87383522478</v>
+        <v>8828.79462470072</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -776,19 +776,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>53774.198905588</v>
+        <v>52715.0433056594</v>
       </c>
       <c r="C13" t="n">
-        <v>49990.2422539702</v>
+        <v>48798.3448936182</v>
       </c>
       <c r="D13" t="n">
-        <v>48375.8574726097</v>
+        <v>47376.1490973872</v>
       </c>
       <c r="E13" t="n">
-        <v>57822.1466002923</v>
+        <v>56195.7449290355</v>
       </c>
       <c r="F13" t="n">
-        <v>60744.4392936623</v>
+        <v>57773.0842423374</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -797,7 +797,7 @@
         <v>44696</v>
       </c>
       <c r="I13" t="n">
-        <v>9078.19890558797</v>
+        <v>8019.04330565941</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -808,19 +808,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>51698.2591640479</v>
+        <v>51797.913464297</v>
       </c>
       <c r="C14" t="n">
-        <v>47770.9848024904</v>
+        <v>48306.119687808</v>
       </c>
       <c r="D14" t="n">
-        <v>45975.7004092941</v>
+        <v>47542.1195507375</v>
       </c>
       <c r="E14" t="n">
-        <v>55632.2885900921</v>
+        <v>55401.9971466158</v>
       </c>
       <c r="F14" t="n">
-        <v>58061.7593322603</v>
+        <v>55940.465312201</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -829,7 +829,7 @@
         <v>40079</v>
       </c>
       <c r="I14" t="n">
-        <v>11619.2591640479</v>
+        <v>11718.913464297</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -840,19 +840,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>47685.3462860478</v>
+        <v>46851.9601903618</v>
       </c>
       <c r="C15" t="n">
-        <v>43405.3643411651</v>
+        <v>42123.946971504</v>
       </c>
       <c r="D15" t="n">
-        <v>40918.728208481</v>
+        <v>41100.0112228042</v>
       </c>
       <c r="E15" t="n">
-        <v>52355.3571630356</v>
+        <v>49972.2025034353</v>
       </c>
       <c r="F15" t="n">
-        <v>55218.6971195422</v>
+        <v>51496.9464044115</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -861,7 +861,7 @@
         <v>33615</v>
       </c>
       <c r="I15" t="n">
-        <v>14070.3462860478</v>
+        <v>13236.9601903618</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -872,19 +872,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>59768.1181228369</v>
+        <v>59611.4282690003</v>
       </c>
       <c r="C16" t="n">
-        <v>55415.1090984468</v>
+        <v>55015.2159741967</v>
       </c>
       <c r="D16" t="n">
-        <v>53725.1161294619</v>
+        <v>52992.978915704</v>
       </c>
       <c r="E16" t="n">
-        <v>64457.7673656712</v>
+        <v>64298.0884812064</v>
       </c>
       <c r="F16" t="n">
-        <v>66540.6887924092</v>
+        <v>65322.9107097809</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -893,7 +893,7 @@
         <v>50682</v>
       </c>
       <c r="I16" t="n">
-        <v>9086.1181228369</v>
+        <v>8929.42826900032</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -904,19 +904,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>57828.4481678317</v>
+        <v>57267.4963287663</v>
       </c>
       <c r="C17" t="n">
-        <v>53026.4479335486</v>
+        <v>53550.9342741683</v>
       </c>
       <c r="D17" t="n">
-        <v>50803.2690123182</v>
+        <v>50419.3921056303</v>
       </c>
       <c r="E17" t="n">
-        <v>62822.6124699803</v>
+        <v>61315.1096943015</v>
       </c>
       <c r="F17" t="n">
-        <v>66009.6349334262</v>
+        <v>63579.2754169472</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -925,7 +925,7 @@
         <v>49113</v>
       </c>
       <c r="I17" t="n">
-        <v>8715.44816783172</v>
+        <v>8154.49632876626</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -936,19 +936,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>60208.5498629026</v>
+        <v>59769.7421606002</v>
       </c>
       <c r="C18" t="n">
-        <v>55567.9319886565</v>
+        <v>55607.0681404965</v>
       </c>
       <c r="D18" t="n">
-        <v>53064.8843068939</v>
+        <v>54309.0847158274</v>
       </c>
       <c r="E18" t="n">
-        <v>64485.5257438812</v>
+        <v>63862.0957375227</v>
       </c>
       <c r="F18" t="n">
-        <v>67732.09438909</v>
+        <v>66002.8062515597</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -957,7 +957,7 @@
         <v>47999</v>
       </c>
       <c r="I18" t="n">
-        <v>12209.5498629026</v>
+        <v>11770.7421606002</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -968,19 +968,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>58969.7578480562</v>
+        <v>58385.8028459665</v>
       </c>
       <c r="C19" t="n">
-        <v>54064.0283253782</v>
+        <v>54227.5460071823</v>
       </c>
       <c r="D19" t="n">
-        <v>51856.8691679573</v>
+        <v>51619.2068075145</v>
       </c>
       <c r="E19" t="n">
-        <v>64241.7836761618</v>
+        <v>62022.8622712948</v>
       </c>
       <c r="F19" t="n">
-        <v>67747.1000245208</v>
+        <v>64248.3861395099</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -989,7 +989,7 @@
         <v>47423</v>
       </c>
       <c r="I19" t="n">
-        <v>11546.7578480562</v>
+        <v>10962.8028459665</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1000,19 +1000,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>62110.7480662421</v>
+        <v>62175.6321851056</v>
       </c>
       <c r="C20" t="n">
-        <v>57105.5765095703</v>
+        <v>57123.1440162229</v>
       </c>
       <c r="D20" t="n">
-        <v>53995.8817884239</v>
+        <v>54584.771092734</v>
       </c>
       <c r="E20" t="n">
-        <v>67245.1760150766</v>
+        <v>66775.7167055541</v>
       </c>
       <c r="F20" t="n">
-        <v>71119.20765715</v>
+        <v>68329.6550864814</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1021,7 +1021,7 @@
         <v>51531</v>
       </c>
       <c r="I20" t="n">
-        <v>10579.7480662421</v>
+        <v>10644.6321851056</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1032,19 +1032,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>61971.0025339422</v>
+        <v>61454.8034260216</v>
       </c>
       <c r="C21" t="n">
-        <v>56589.1776362091</v>
+        <v>55515.1115959615</v>
       </c>
       <c r="D21" t="n">
-        <v>54001.8865026766</v>
+        <v>54285.5299184898</v>
       </c>
       <c r="E21" t="n">
-        <v>67375.7724812289</v>
+        <v>66542.9323502564</v>
       </c>
       <c r="F21" t="n">
-        <v>71159.5787417483</v>
+        <v>68378.8454056968</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1053,7 +1053,7 @@
         <v>46091</v>
       </c>
       <c r="I21" t="n">
-        <v>15880.0025339422</v>
+        <v>15363.8034260216</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1064,19 +1064,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>60367.7041626825</v>
+        <v>59702.1358288906</v>
       </c>
       <c r="C22" t="n">
-        <v>54842.1990305098</v>
+        <v>54104.820236194</v>
       </c>
       <c r="D22" t="n">
-        <v>52310.6947875922</v>
+        <v>53377.3700403796</v>
       </c>
       <c r="E22" t="n">
-        <v>66011.6192780998</v>
+        <v>64062.3745485513</v>
       </c>
       <c r="F22" t="n">
-        <v>69989.4496076467</v>
+        <v>67607.5279837647</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1085,7 +1085,7 @@
         <v>45792</v>
       </c>
       <c r="I22" t="n">
-        <v>14575.7041626825</v>
+        <v>13910.1358288906</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1096,19 +1096,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>58579.3309679121</v>
+        <v>56997.7036869611</v>
       </c>
       <c r="C23" t="n">
-        <v>53014.4503672497</v>
+        <v>51864.5654604187</v>
       </c>
       <c r="D23" t="n">
-        <v>49639.5607639931</v>
+        <v>50957.5669411212</v>
       </c>
       <c r="E23" t="n">
-        <v>63904.6445661373</v>
+        <v>62340.0486232719</v>
       </c>
       <c r="F23" t="n">
-        <v>68648.2550144967</v>
+        <v>62955.9592330943</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1117,7 +1117,7 @@
         <v>40900</v>
       </c>
       <c r="I23" t="n">
-        <v>17679.3309679121</v>
+        <v>16097.7036869611</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1128,19 +1128,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>59211.367041211</v>
+        <v>58864.9215770624</v>
       </c>
       <c r="C24" t="n">
-        <v>53647.4953438804</v>
+        <v>53684.7545250058</v>
       </c>
       <c r="D24" t="n">
-        <v>49848.6023151934</v>
+        <v>50193.8392215745</v>
       </c>
       <c r="E24" t="n">
-        <v>65322.9483715589</v>
+        <v>63796.0634108356</v>
       </c>
       <c r="F24" t="n">
-        <v>69712.0876710916</v>
+        <v>65756.6221108063</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1149,7 +1149,7 @@
         <v>42174</v>
       </c>
       <c r="I24" t="n">
-        <v>17037.367041211</v>
+        <v>16690.9215770624</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1160,19 +1160,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>58491.2710595338</v>
+        <v>57985.7513175174</v>
       </c>
       <c r="C25" t="n">
-        <v>52015.5612947524</v>
+        <v>52382.4451731936</v>
       </c>
       <c r="D25" t="n">
-        <v>49478.0228880574</v>
+        <v>50687.3818729434</v>
       </c>
       <c r="E25" t="n">
-        <v>64376.347708147</v>
+        <v>63179.6710893977</v>
       </c>
       <c r="F25" t="n">
-        <v>70742.8214645365</v>
+        <v>63703.295347942</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1181,7 +1181,7 @@
         <v>42321</v>
       </c>
       <c r="I25" t="n">
-        <v>16170.2710595338</v>
+        <v>15664.7513175174</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1192,19 +1192,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>56351.2334076551</v>
+        <v>56376.9618664806</v>
       </c>
       <c r="C26" t="n">
-        <v>50497.9251447145</v>
+        <v>50429.4811856927</v>
       </c>
       <c r="D26" t="n">
-        <v>46574.5679408042</v>
+        <v>47418.1815464452</v>
       </c>
       <c r="E26" t="n">
-        <v>62485.8033139653</v>
+        <v>62152.4262901855</v>
       </c>
       <c r="F26" t="n">
-        <v>67207.4315614725</v>
+        <v>64970.8470795324</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1213,7 +1213,7 @@
         <v>39586</v>
       </c>
       <c r="I26" t="n">
-        <v>16765.2334076551</v>
+        <v>16790.9618664806</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1224,19 +1224,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>52290.1758978992</v>
+        <v>51215.5235574808</v>
       </c>
       <c r="C27" t="n">
-        <v>46007.7254611309</v>
+        <v>44611.1123436249</v>
       </c>
       <c r="D27" t="n">
-        <v>42746.261565665</v>
+        <v>42411.0820223321</v>
       </c>
       <c r="E27" t="n">
-        <v>58818.4255407087</v>
+        <v>57170.2772543117</v>
       </c>
       <c r="F27" t="n">
-        <v>64417.4516451333</v>
+        <v>59123.5967248283</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1245,7 +1245,7 @@
         <v>34683</v>
       </c>
       <c r="I27" t="n">
-        <v>17607.1758978992</v>
+        <v>16532.5235574808</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1256,19 +1256,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>64290.9978384669</v>
+        <v>64636.1495543484</v>
       </c>
       <c r="C28" t="n">
-        <v>57882.8388777452</v>
+        <v>58698.8290197872</v>
       </c>
       <c r="D28" t="n">
-        <v>54024.9807278128</v>
+        <v>57296.2152714489</v>
       </c>
       <c r="E28" t="n">
-        <v>70683.645691345</v>
+        <v>69803.6648648537</v>
       </c>
       <c r="F28" t="n">
-        <v>76998.2657425078</v>
+        <v>73281.3999735356</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1277,7 +1277,7 @@
         <v>46978</v>
       </c>
       <c r="I28" t="n">
-        <v>17312.9978384669</v>
+        <v>17658.1495543484</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1288,19 +1288,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>62523.340651923</v>
+        <v>61425.0620229451</v>
       </c>
       <c r="C29" t="n">
-        <v>55565.1771588135</v>
+        <v>53778.7080720167</v>
       </c>
       <c r="D29" t="n">
-        <v>51508.1182827387</v>
+        <v>52392.6471580708</v>
       </c>
       <c r="E29" t="n">
-        <v>69555.2366677533</v>
+        <v>68631.8437233753</v>
       </c>
       <c r="F29" t="n">
-        <v>75513.8018511826</v>
+        <v>69696.1552550242</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1309,7 +1309,7 @@
         <v>39513</v>
       </c>
       <c r="I29" t="n">
-        <v>23010.340651923</v>
+        <v>21912.0620229451</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1320,19 +1320,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>64846.8335162714</v>
+        <v>63979.6101247088</v>
       </c>
       <c r="C30" t="n">
-        <v>57628.0543624539</v>
+        <v>57401.7130982259</v>
       </c>
       <c r="D30" t="n">
-        <v>53357.0208127866</v>
+        <v>56073.1233565057</v>
       </c>
       <c r="E30" t="n">
-        <v>71891.1521471402</v>
+        <v>69881.3506696002</v>
       </c>
       <c r="F30" t="n">
-        <v>77905.3447852735</v>
+        <v>74178.8216027181</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1341,7 +1341,7 @@
         <v>43751</v>
       </c>
       <c r="I30" t="n">
-        <v>21095.8335162714</v>
+        <v>20228.6101247088</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1352,19 +1352,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>63800.5678179396</v>
+        <v>62757.1896395702</v>
       </c>
       <c r="C31" t="n">
-        <v>56837.0188292166</v>
+        <v>54041.7456276329</v>
       </c>
       <c r="D31" t="n">
-        <v>52932.9517057206</v>
+        <v>51647.9768005687</v>
       </c>
       <c r="E31" t="n">
-        <v>70902.6671353197</v>
+        <v>68646.1739618586</v>
       </c>
       <c r="F31" t="n">
-        <v>77023.4899442223</v>
+        <v>69841.2067817475</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1373,7 +1373,7 @@
         <v>48507</v>
       </c>
       <c r="I31" t="n">
-        <v>15293.5678179396</v>
+        <v>14250.1896395702</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1384,19 +1384,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>66944.5184212298</v>
+        <v>65626.1595149324</v>
       </c>
       <c r="C32" t="n">
-        <v>59980.8028889475</v>
+        <v>58380.9297878928</v>
       </c>
       <c r="D32" t="n">
-        <v>56728.6605910483</v>
+        <v>56276.3386830404</v>
       </c>
       <c r="E32" t="n">
-        <v>74557.6016232095</v>
+        <v>71282.0935474792</v>
       </c>
       <c r="F32" t="n">
-        <v>81218.4632047434</v>
+        <v>73504.6543463225</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1405,7 +1405,7 @@
         <v>51391</v>
       </c>
       <c r="I32" t="n">
-        <v>15553.5184212298</v>
+        <v>14235.1595149324</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1416,19 +1416,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>66747.2672971729</v>
+        <v>65438.9117667282</v>
       </c>
       <c r="C33" t="n">
-        <v>59725.6432635367</v>
+        <v>58192.7246749482</v>
       </c>
       <c r="D33" t="n">
-        <v>55748.7153676222</v>
+        <v>55142.6293606125</v>
       </c>
       <c r="E33" t="n">
-        <v>74516.8232543584</v>
+        <v>72137.2900303541</v>
       </c>
       <c r="F33" t="n">
-        <v>80307.5453324656</v>
+        <v>75019.5469385603</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1437,7 +1437,7 @@
         <v>50482</v>
       </c>
       <c r="I33" t="n">
-        <v>16265.2672971729</v>
+        <v>14956.9117667282</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1448,19 +1448,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>65368.057354805</v>
+        <v>64247.2626792101</v>
       </c>
       <c r="C34" t="n">
-        <v>57729.3153807554</v>
+        <v>54437.0854802056</v>
       </c>
       <c r="D34" t="n">
-        <v>52623.0724171215</v>
+        <v>53484.5423604511</v>
       </c>
       <c r="E34" t="n">
-        <v>74357.4755772747</v>
+        <v>70944.7519512719</v>
       </c>
       <c r="F34" t="n">
-        <v>79848.1423517974</v>
+        <v>75293.4392821213</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1469,7 +1469,7 @@
         <v>44470</v>
       </c>
       <c r="I34" t="n">
-        <v>20898.057354805</v>
+        <v>19777.2626792101</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1480,19 +1480,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>63042.5754060065</v>
+        <v>61835.4267598373</v>
       </c>
       <c r="C35" t="n">
-        <v>54947.7200006737</v>
+        <v>53598.1692446618</v>
       </c>
       <c r="D35" t="n">
-        <v>51188.9514660104</v>
+        <v>51168.7284898012</v>
       </c>
       <c r="E35" t="n">
-        <v>72070.2572865047</v>
+        <v>68952.7162427454</v>
       </c>
       <c r="F35" t="n">
-        <v>77018.4380635034</v>
+        <v>72525.331544781</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1501,7 +1501,7 @@
         <v>39054</v>
       </c>
       <c r="I35" t="n">
-        <v>23988.5754060065</v>
+        <v>22781.4267598373</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1512,19 +1512,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>63827.8567532163</v>
+        <v>62995.776341946</v>
       </c>
       <c r="C36" t="n">
-        <v>55999.7983193227</v>
+        <v>53605.8613544894</v>
       </c>
       <c r="D36" t="n">
-        <v>52015.3619132517</v>
+        <v>49345.5682327524</v>
       </c>
       <c r="E36" t="n">
-        <v>73087.2133623305</v>
+        <v>69679.0068439814</v>
       </c>
       <c r="F36" t="n">
-        <v>78032.4600830666</v>
+        <v>73155.2540631899</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1533,7 +1533,7 @@
         <v>35152</v>
       </c>
       <c r="I36" t="n">
-        <v>28675.8567532163</v>
+        <v>27843.776341946</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1544,19 +1544,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>63147.706877506</v>
+        <v>61404.0182958352</v>
       </c>
       <c r="C37" t="n">
-        <v>55171.5000479712</v>
+        <v>53920.6438320482</v>
       </c>
       <c r="D37" t="n">
-        <v>49344.8802596226</v>
+        <v>52845.6837052892</v>
       </c>
       <c r="E37" t="n">
-        <v>72358.6094434192</v>
+        <v>67854.6241981887</v>
       </c>
       <c r="F37" t="n">
-        <v>79309.3522028093</v>
+        <v>70408.3215893782</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1565,7 +1565,7 @@
         <v>24367</v>
       </c>
       <c r="I37" t="n">
-        <v>38780.706877506</v>
+        <v>37037.0182958352</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1576,19 +1576,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>61139.0815126143</v>
+        <v>59512.7200783438</v>
       </c>
       <c r="C38" t="n">
-        <v>53337.3186212257</v>
+        <v>51348.2738711255</v>
       </c>
       <c r="D38" t="n">
-        <v>47970.3738629193</v>
+        <v>47941.7687529774</v>
       </c>
       <c r="E38" t="n">
-        <v>70758.4562546832</v>
+        <v>67255.7288156421</v>
       </c>
       <c r="F38" t="n">
-        <v>76893.0871259537</v>
+        <v>69954.8013996748</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1597,7 +1597,7 @@
         <v>28708</v>
       </c>
       <c r="I38" t="n">
-        <v>32431.0815126143</v>
+        <v>30804.7200783438</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1608,19 +1608,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>57119.1578398393</v>
+        <v>55729.4874851857</v>
       </c>
       <c r="C39" t="n">
-        <v>48334.8811249494</v>
+        <v>46685.1838170378</v>
       </c>
       <c r="D39" t="n">
-        <v>43447.5909689421</v>
+        <v>42193.1715190968</v>
       </c>
       <c r="E39" t="n">
-        <v>66885.9841562433</v>
+        <v>63074.9575649028</v>
       </c>
       <c r="F39" t="n">
-        <v>73904.6688256105</v>
+        <v>65477.3093841959</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1629,7 +1629,7 @@
         <v>43574</v>
       </c>
       <c r="I39" t="n">
-        <v>13545.1578398393</v>
+        <v>12155.4874851857</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1640,19 +1640,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>69082.553882996</v>
+        <v>68520.4972226168</v>
       </c>
       <c r="C40" t="n">
-        <v>60967.7090080793</v>
+        <v>60601.1212050381</v>
       </c>
       <c r="D40" t="n">
-        <v>55387.6196826235</v>
+        <v>56553.0481277505</v>
       </c>
       <c r="E40" t="n">
-        <v>79310.9630869824</v>
+        <v>75949.5393124906</v>
       </c>
       <c r="F40" t="n">
-        <v>85153.3002196389</v>
+        <v>78226.3675015751</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1661,7 +1661,7 @@
         <v>49855</v>
       </c>
       <c r="I40" t="n">
-        <v>19227.553882996</v>
+        <v>18665.4972226168</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1672,19 +1672,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>67406.250474885</v>
+        <v>65931.9415049381</v>
       </c>
       <c r="C41" t="n">
-        <v>58517.5233560232</v>
+        <v>57911.6427116093</v>
       </c>
       <c r="D41" t="n">
-        <v>55008.2794057747</v>
+        <v>50794.387974916</v>
       </c>
       <c r="E41" t="n">
-        <v>77564.822725351</v>
+        <v>74180.153369108</v>
       </c>
       <c r="F41" t="n">
-        <v>84184.9816133434</v>
+        <v>75999.7729641226</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1693,7 +1693,7 @@
         <v>48926</v>
       </c>
       <c r="I41" t="n">
-        <v>18480.250474885</v>
+        <v>17005.9415049381</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1704,19 +1704,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>69671.4671432905</v>
+        <v>68173.3422869912</v>
       </c>
       <c r="C42" t="n">
-        <v>60288.9659566099</v>
+        <v>58768.6974314474</v>
       </c>
       <c r="D42" t="n">
-        <v>55267.7444560814</v>
+        <v>54002.9792736986</v>
       </c>
       <c r="E42" t="n">
-        <v>79911.6870563921</v>
+        <v>75379.9725647397</v>
       </c>
       <c r="F42" t="n">
-        <v>87445.3475146988</v>
+        <v>80028.9919946443</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1725,7 +1725,7 @@
         <v>53258</v>
       </c>
       <c r="I42" t="n">
-        <v>16413.4671432905</v>
+        <v>14915.3422869912</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1736,19 +1736,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>68618.2611057506</v>
+        <v>67070.2528401949</v>
       </c>
       <c r="C43" t="n">
-        <v>58955.8086543501</v>
+        <v>56797.920044437</v>
       </c>
       <c r="D43" t="n">
-        <v>54131.0365727734</v>
+        <v>53138.312783324</v>
       </c>
       <c r="E43" t="n">
-        <v>79799.5512103149</v>
+        <v>75081.5966524556</v>
       </c>
       <c r="F43" t="n">
-        <v>85945.8614031292</v>
+        <v>77018.1135796574</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1757,7 +1757,7 @@
         <v>52007</v>
       </c>
       <c r="I43" t="n">
-        <v>16611.2611057506</v>
+        <v>15063.2528401949</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1768,19 +1768,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>71847.8803250848</v>
+        <v>70708.9502404295</v>
       </c>
       <c r="C44" t="n">
-        <v>62275.7519816092</v>
+        <v>60906.8206581701</v>
       </c>
       <c r="D44" t="n">
-        <v>57408.5165681528</v>
+        <v>54009.387345527</v>
       </c>
       <c r="E44" t="n">
-        <v>83286.2263112885</v>
+        <v>79810.985954341</v>
       </c>
       <c r="F44" t="n">
-        <v>90628.3555241963</v>
+        <v>82843.4730722497</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1789,7 +1789,7 @@
         <v>58247</v>
       </c>
       <c r="I44" t="n">
-        <v>13600.8803250848</v>
+        <v>12461.9502404295</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1800,19 +1800,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>71581.9973086669</v>
+        <v>70076.5915395027</v>
       </c>
       <c r="C45" t="n">
-        <v>61455.2989450285</v>
+        <v>60685.5702808744</v>
       </c>
       <c r="D45" t="n">
-        <v>57065.1852288876</v>
+        <v>55365.164200281</v>
       </c>
       <c r="E45" t="n">
-        <v>83989.1693491074</v>
+        <v>78338.4397514802</v>
       </c>
       <c r="F45" t="n">
-        <v>90153.859314001</v>
+        <v>83188.0527296889</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1821,7 +1821,7 @@
         <v>61068</v>
       </c>
       <c r="I45" t="n">
-        <v>10513.9973086669</v>
+        <v>9008.59153950265</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1832,19 +1832,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>69968.9560629405</v>
+        <v>68200.9247248644</v>
       </c>
       <c r="C46" t="n">
-        <v>59677.6865351521</v>
+        <v>58017.4570766371</v>
       </c>
       <c r="D46" t="n">
-        <v>54266.1829926792</v>
+        <v>51660.6623544388</v>
       </c>
       <c r="E46" t="n">
-        <v>82073.4681382088</v>
+        <v>76298.1339184852</v>
       </c>
       <c r="F46" t="n">
-        <v>87558.9360293078</v>
+        <v>80828.4951146364</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1853,7 +1853,7 @@
         <v>55767</v>
       </c>
       <c r="I46" t="n">
-        <v>14201.9560629405</v>
+        <v>12433.9247248644</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1864,19 +1864,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>67808.2414939498</v>
+        <v>65951.7513096793</v>
       </c>
       <c r="C47" t="n">
-        <v>57572.5373076383</v>
+        <v>54942.0992111998</v>
       </c>
       <c r="D47" t="n">
-        <v>51298.1242597131</v>
+        <v>49939.0780881458</v>
       </c>
       <c r="E47" t="n">
-        <v>80714.9086793039</v>
+        <v>75586.461076095</v>
       </c>
       <c r="F47" t="n">
-        <v>87270.9338132662</v>
+        <v>77776.7133993538</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1885,7 +1885,7 @@
         <v>56981</v>
       </c>
       <c r="I47" t="n">
-        <v>10827.2414939498</v>
+        <v>8970.75130967933</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1896,19 +1896,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>68575.6693350517</v>
+        <v>67340.919689205</v>
       </c>
       <c r="C48" t="n">
-        <v>58363.015056462</v>
+        <v>56654.6747757448</v>
       </c>
       <c r="D48" t="n">
-        <v>53361.0717421576</v>
+        <v>49635.6177823888</v>
       </c>
       <c r="E48" t="n">
-        <v>81755.8720042599</v>
+        <v>77377.3936187335</v>
       </c>
       <c r="F48" t="n">
-        <v>87788.143528305</v>
+        <v>81921.6502727962</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1917,7 +1917,7 @@
         <v>57719</v>
       </c>
       <c r="I48" t="n">
-        <v>10856.6693350517</v>
+        <v>9621.91968920498</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1928,19 +1928,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>67784.6895545489</v>
+        <v>66270.9563831681</v>
       </c>
       <c r="C49" t="n">
-        <v>56792.2104632542</v>
+        <v>55403.1378346677</v>
       </c>
       <c r="D49" t="n">
-        <v>51234.0360113622</v>
+        <v>49822.7381626024</v>
       </c>
       <c r="E49" t="n">
-        <v>80787.2632193002</v>
+        <v>74792.6405542769</v>
       </c>
       <c r="F49" t="n">
-        <v>88555.930429235</v>
+        <v>78001.6137341935</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1949,7 +1949,7 @@
         <v>50823</v>
       </c>
       <c r="I49" t="n">
-        <v>16961.6895545489</v>
+        <v>15447.9563831681</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/Syphilis.xlsx
+++ b/outcome/appendix/forecast/Syphilis.xlsx
@@ -424,19 +424,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>47143.2748783623</v>
+        <v>46607.3571681185</v>
       </c>
       <c r="C2" t="n">
-        <v>44818.9340865714</v>
+        <v>41818.6623182063</v>
       </c>
       <c r="D2" t="n">
-        <v>43667.4525187969</v>
+        <v>40194.5247681668</v>
       </c>
       <c r="E2" t="n">
-        <v>50190.7615374491</v>
+        <v>51257.7192143554</v>
       </c>
       <c r="F2" t="n">
-        <v>51096.4048619188</v>
+        <v>53758.0178141269</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -445,7 +445,7 @@
         <v>39671</v>
       </c>
       <c r="I2" t="n">
-        <v>7472.27487836232</v>
+        <v>6936.35716811845</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -456,19 +456,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>42940.2621192633</v>
+        <v>40970.9014998307</v>
       </c>
       <c r="C3" t="n">
-        <v>39967.1952699314</v>
+        <v>35741.1807140564</v>
       </c>
       <c r="D3" t="n">
-        <v>38026.7628134738</v>
+        <v>34067.774898438</v>
       </c>
       <c r="E3" t="n">
-        <v>45289.4419549162</v>
+        <v>45461.8541393762</v>
       </c>
       <c r="F3" t="n">
-        <v>46217.2305951644</v>
+        <v>47067.808592536</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -477,7 +477,7 @@
         <v>21448</v>
       </c>
       <c r="I3" t="n">
-        <v>21492.2621192633</v>
+        <v>19522.9014998307</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -488,19 +488,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>54861.1237072733</v>
+        <v>54984.2784900136</v>
       </c>
       <c r="C4" t="n">
-        <v>51943.414644586</v>
+        <v>48019.6550510103</v>
       </c>
       <c r="D4" t="n">
-        <v>50630.5184971234</v>
+        <v>46082.0823237526</v>
       </c>
       <c r="E4" t="n">
-        <v>57333.8672168212</v>
+        <v>60193.6133037065</v>
       </c>
       <c r="F4" t="n">
-        <v>58992.5860593347</v>
+        <v>62183.7645658037</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -509,7 +509,7 @@
         <v>41154</v>
       </c>
       <c r="I4" t="n">
-        <v>13707.1237072733</v>
+        <v>13830.2784900136</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -520,19 +520,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>53181.7715913509</v>
+        <v>53207.2537237027</v>
       </c>
       <c r="C5" t="n">
-        <v>50610.9293624841</v>
+        <v>47577.5103895335</v>
       </c>
       <c r="D5" t="n">
-        <v>49648.1779235624</v>
+        <v>45590.0140242675</v>
       </c>
       <c r="E5" t="n">
-        <v>56618.4062952268</v>
+        <v>57955.9300789496</v>
       </c>
       <c r="F5" t="n">
-        <v>58158.752883192</v>
+        <v>60023.1310768873</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -541,7 +541,7 @@
         <v>46728</v>
       </c>
       <c r="I5" t="n">
-        <v>6453.77159135094</v>
+        <v>6479.25372370268</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -552,19 +552,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>55417.7426364828</v>
+        <v>55370.7945219147</v>
       </c>
       <c r="C6" t="n">
-        <v>52505.8252373727</v>
+        <v>49002.4675599027</v>
       </c>
       <c r="D6" t="n">
-        <v>51454.4626175523</v>
+        <v>46519.362990503</v>
       </c>
       <c r="E6" t="n">
-        <v>57519.9947384338</v>
+        <v>60802.5866876494</v>
       </c>
       <c r="F6" t="n">
-        <v>58566.029659516</v>
+        <v>63036.4020154089</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -573,7 +573,7 @@
         <v>46753</v>
       </c>
       <c r="I6" t="n">
-        <v>8664.74263648281</v>
+        <v>8617.79452191472</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -584,19 +584,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>53741.9375247559</v>
+        <v>54116.5398399992</v>
       </c>
       <c r="C7" t="n">
-        <v>50870.4126701829</v>
+        <v>47365.809629369</v>
       </c>
       <c r="D7" t="n">
-        <v>47419.5342641441</v>
+        <v>45077.2499447985</v>
       </c>
       <c r="E7" t="n">
-        <v>57606.3422406621</v>
+        <v>60074.3960198284</v>
       </c>
       <c r="F7" t="n">
-        <v>58503.5620813976</v>
+        <v>62401.3635608595</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -605,7 +605,7 @@
         <v>46538</v>
       </c>
       <c r="I7" t="n">
-        <v>7203.93752475586</v>
+        <v>7578.53983999924</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -616,19 +616,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>58391.6418628794</v>
+        <v>57736.6911365784</v>
       </c>
       <c r="C8" t="n">
-        <v>54652.1239046516</v>
+        <v>51474.8703910175</v>
       </c>
       <c r="D8" t="n">
-        <v>52226.8549108439</v>
+        <v>49579.9738511402</v>
       </c>
       <c r="E8" t="n">
-        <v>62395.852619482</v>
+        <v>63179.2359659769</v>
       </c>
       <c r="F8" t="n">
-        <v>64566.1965662728</v>
+        <v>65674.6898247476</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -637,7 +637,7 @@
         <v>46838</v>
       </c>
       <c r="I8" t="n">
-        <v>11553.6418628794</v>
+        <v>10898.6911365784</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -648,19 +648,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>57337.7679314476</v>
+        <v>57373.3571665567</v>
       </c>
       <c r="C9" t="n">
-        <v>53840.9910972355</v>
+        <v>51168.9955265782</v>
       </c>
       <c r="D9" t="n">
-        <v>52929.981048566</v>
+        <v>48744.8622607084</v>
       </c>
       <c r="E9" t="n">
-        <v>60794.9936691666</v>
+        <v>62975.8556605989</v>
       </c>
       <c r="F9" t="n">
-        <v>62806.9445729422</v>
+        <v>65568.2433333425</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -669,7 +669,7 @@
         <v>46838</v>
       </c>
       <c r="I9" t="n">
-        <v>10499.7679314476</v>
+        <v>10535.3571665567</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -680,19 +680,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>55430.1696665108</v>
+        <v>55804.1659422907</v>
       </c>
       <c r="C10" t="n">
-        <v>51048.8923706948</v>
+        <v>50979.0388590592</v>
       </c>
       <c r="D10" t="n">
-        <v>50019.5370171246</v>
+        <v>48432.2176261255</v>
       </c>
       <c r="E10" t="n">
-        <v>59171.1692761142</v>
+        <v>61174.5869480688</v>
       </c>
       <c r="F10" t="n">
-        <v>60763.6445811974</v>
+        <v>63823.480960014</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -701,7 +701,7 @@
         <v>48965</v>
       </c>
       <c r="I10" t="n">
-        <v>6465.16966651083</v>
+        <v>6839.1659422907</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -712,19 +712,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>53420.860783768</v>
+        <v>53488.3610217756</v>
       </c>
       <c r="C11" t="n">
-        <v>50471.3673527706</v>
+        <v>48429.5189713469</v>
       </c>
       <c r="D11" t="n">
-        <v>49674.5833888276</v>
+        <v>46082.1223157025</v>
       </c>
       <c r="E11" t="n">
-        <v>57109.7372269885</v>
+        <v>59792.2373819944</v>
       </c>
       <c r="F11" t="n">
-        <v>58118.3479083331</v>
+        <v>62462.1617473843</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -733,7 +733,7 @@
         <v>44438</v>
       </c>
       <c r="I11" t="n">
-        <v>8982.86078376798</v>
+        <v>9050.36102177559</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -744,19 +744,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>54133.7946247007</v>
+        <v>53823.6203828322</v>
       </c>
       <c r="C12" t="n">
-        <v>50501.790694116</v>
+        <v>48824.2608354331</v>
       </c>
       <c r="D12" t="n">
-        <v>49080.2082698574</v>
+        <v>46523.8519046809</v>
       </c>
       <c r="E12" t="n">
-        <v>59219.737266308</v>
+        <v>59072.3867456214</v>
       </c>
       <c r="F12" t="n">
-        <v>59764.3041107671</v>
+        <v>61614.1018627104</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -765,7 +765,7 @@
         <v>45305</v>
       </c>
       <c r="I12" t="n">
-        <v>8828.79462470072</v>
+        <v>8518.62038283217</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -776,19 +776,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>52715.0433056594</v>
+        <v>53103.9449684156</v>
       </c>
       <c r="C13" t="n">
-        <v>48798.3448936182</v>
+        <v>48229.4492736501</v>
       </c>
       <c r="D13" t="n">
-        <v>47376.1490973872</v>
+        <v>45727.4580018238</v>
       </c>
       <c r="E13" t="n">
-        <v>56195.7449290355</v>
+        <v>58328.4689775514</v>
       </c>
       <c r="F13" t="n">
-        <v>57773.0842423374</v>
+        <v>61173.723484887</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -797,7 +797,7 @@
         <v>44696</v>
       </c>
       <c r="I13" t="n">
-        <v>8019.04330565941</v>
+        <v>8407.9449684156</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -808,19 +808,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>51797.913464297</v>
+        <v>50383.1108249028</v>
       </c>
       <c r="C14" t="n">
-        <v>48306.119687808</v>
+        <v>44552.7520433622</v>
       </c>
       <c r="D14" t="n">
-        <v>47542.1195507375</v>
+        <v>42299.4651063399</v>
       </c>
       <c r="E14" t="n">
-        <v>55401.9971466158</v>
+        <v>57108.326069106</v>
       </c>
       <c r="F14" t="n">
-        <v>55940.465312201</v>
+        <v>60342.4632191659</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -829,7 +829,7 @@
         <v>40079</v>
       </c>
       <c r="I14" t="n">
-        <v>11718.913464297</v>
+        <v>10304.1108249028</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -840,19 +840,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>46851.9601903618</v>
+        <v>45012.2558222886</v>
       </c>
       <c r="C15" t="n">
-        <v>42123.946971504</v>
+        <v>40099.177493934</v>
       </c>
       <c r="D15" t="n">
-        <v>41100.0112228042</v>
+        <v>37360.7690407304</v>
       </c>
       <c r="E15" t="n">
-        <v>49972.2025034353</v>
+        <v>51052.165275975</v>
       </c>
       <c r="F15" t="n">
-        <v>51496.9464044115</v>
+        <v>53727.7390817551</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -861,7 +861,7 @@
         <v>33615</v>
       </c>
       <c r="I15" t="n">
-        <v>13236.9601903618</v>
+        <v>11397.2558222886</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -872,19 +872,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>59611.4282690003</v>
+        <v>58904.6836559073</v>
       </c>
       <c r="C16" t="n">
-        <v>55015.2159741967</v>
+        <v>49615.6062188475</v>
       </c>
       <c r="D16" t="n">
-        <v>52992.978915704</v>
+        <v>46703.5816932849</v>
       </c>
       <c r="E16" t="n">
-        <v>64298.0884812064</v>
+        <v>66532.1843046805</v>
       </c>
       <c r="F16" t="n">
-        <v>65322.9107097809</v>
+        <v>69372.1860639582</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -893,7 +893,7 @@
         <v>50682</v>
       </c>
       <c r="I16" t="n">
-        <v>8929.42826900032</v>
+        <v>8222.68365590731</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -904,19 +904,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>57267.4963287663</v>
+        <v>56943.4837200163</v>
       </c>
       <c r="C17" t="n">
-        <v>53550.9342741683</v>
+        <v>48671.6878631703</v>
       </c>
       <c r="D17" t="n">
-        <v>50419.3921056303</v>
+        <v>46092.002221464</v>
       </c>
       <c r="E17" t="n">
-        <v>61315.1096943015</v>
+        <v>64384.2199971817</v>
       </c>
       <c r="F17" t="n">
-        <v>63579.2754169472</v>
+        <v>67289.2844608362</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -925,7 +925,7 @@
         <v>49113</v>
       </c>
       <c r="I17" t="n">
-        <v>8154.49632876626</v>
+        <v>7830.4837200163</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -936,19 +936,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>59769.7421606002</v>
+        <v>59138.4303532929</v>
       </c>
       <c r="C18" t="n">
-        <v>55607.0681404965</v>
+        <v>50112.0189396141</v>
       </c>
       <c r="D18" t="n">
-        <v>54309.0847158274</v>
+        <v>47764.8307735758</v>
       </c>
       <c r="E18" t="n">
-        <v>63862.0957375227</v>
+        <v>67617.9095646332</v>
       </c>
       <c r="F18" t="n">
-        <v>66002.8062515597</v>
+        <v>70722.2759068064</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -957,7 +957,7 @@
         <v>47999</v>
       </c>
       <c r="I18" t="n">
-        <v>11770.7421606002</v>
+        <v>11139.4303532929</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -968,19 +968,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>58385.8028459665</v>
+        <v>57867.6260108384</v>
       </c>
       <c r="C19" t="n">
-        <v>54227.5460071823</v>
+        <v>49280.9054770777</v>
       </c>
       <c r="D19" t="n">
-        <v>51619.2068075145</v>
+        <v>47068.2953133337</v>
       </c>
       <c r="E19" t="n">
-        <v>62022.8622712948</v>
+        <v>66198.4710972764</v>
       </c>
       <c r="F19" t="n">
-        <v>64248.3861395099</v>
+        <v>69395.6327274118</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -989,7 +989,7 @@
         <v>47423</v>
       </c>
       <c r="I19" t="n">
-        <v>10962.8028459665</v>
+        <v>10444.6260108384</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1000,19 +1000,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>62175.6321851056</v>
+        <v>61198.8821994888</v>
       </c>
       <c r="C20" t="n">
-        <v>57123.1440162229</v>
+        <v>52024.1895863021</v>
       </c>
       <c r="D20" t="n">
-        <v>54584.771092734</v>
+        <v>49592.5351782335</v>
       </c>
       <c r="E20" t="n">
-        <v>66775.7167055541</v>
+        <v>70733.0145551571</v>
       </c>
       <c r="F20" t="n">
-        <v>68329.6550864814</v>
+        <v>74181.8673376721</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1021,7 +1021,7 @@
         <v>51531</v>
       </c>
       <c r="I20" t="n">
-        <v>10644.6321851056</v>
+        <v>9667.88219948883</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1032,19 +1032,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>61454.8034260216</v>
+        <v>60799.4203142423</v>
       </c>
       <c r="C21" t="n">
-        <v>55515.1115959615</v>
+        <v>51878.1624252014</v>
       </c>
       <c r="D21" t="n">
-        <v>54285.5299184898</v>
+        <v>49589.841750977</v>
       </c>
       <c r="E21" t="n">
-        <v>66542.9323502564</v>
+        <v>70924.6690226764</v>
       </c>
       <c r="F21" t="n">
-        <v>68378.8454056968</v>
+        <v>74521.9442618236</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1053,7 +1053,7 @@
         <v>46091</v>
       </c>
       <c r="I21" t="n">
-        <v>15363.8034260216</v>
+        <v>14708.4203142423</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1064,19 +1064,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>59702.1358288906</v>
+        <v>59319.6603692688</v>
       </c>
       <c r="C22" t="n">
-        <v>54104.820236194</v>
+        <v>51692.9310962873</v>
       </c>
       <c r="D22" t="n">
-        <v>53377.3700403796</v>
+        <v>49447.9041658959</v>
       </c>
       <c r="E22" t="n">
-        <v>64062.3745485513</v>
+        <v>69199.4319986054</v>
       </c>
       <c r="F22" t="n">
-        <v>67607.5279837647</v>
+        <v>72897.1796295932</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1085,7 +1085,7 @@
         <v>45792</v>
       </c>
       <c r="I22" t="n">
-        <v>13910.1358288906</v>
+        <v>13527.6603692688</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1096,19 +1096,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>56997.7036869611</v>
+        <v>56991.0727018303</v>
       </c>
       <c r="C23" t="n">
-        <v>51864.5654604187</v>
+        <v>49699.7484244802</v>
       </c>
       <c r="D23" t="n">
-        <v>50957.5669411212</v>
+        <v>46461.9987785019</v>
       </c>
       <c r="E23" t="n">
-        <v>62340.0486232719</v>
+        <v>66411.0508076562</v>
       </c>
       <c r="F23" t="n">
-        <v>62955.9592330943</v>
+        <v>70178.2457379866</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1117,7 +1117,7 @@
         <v>40900</v>
       </c>
       <c r="I23" t="n">
-        <v>16097.7036869611</v>
+        <v>16091.0727018303</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1128,19 +1128,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>58864.9215770624</v>
+        <v>57383.819421751</v>
       </c>
       <c r="C24" t="n">
-        <v>53684.7545250058</v>
+        <v>49950.2989302681</v>
       </c>
       <c r="D24" t="n">
-        <v>50193.8392215745</v>
+        <v>46597.5632871553</v>
       </c>
       <c r="E24" t="n">
-        <v>63796.0634108356</v>
+        <v>67682.3363491791</v>
       </c>
       <c r="F24" t="n">
-        <v>65756.6221108063</v>
+        <v>71642.6732811993</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1149,7 +1149,7 @@
         <v>42174</v>
       </c>
       <c r="I24" t="n">
-        <v>16690.9215770624</v>
+        <v>15209.819421751</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1160,19 +1160,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>57985.7513175174</v>
+        <v>56716.7775750402</v>
       </c>
       <c r="C25" t="n">
-        <v>52382.4451731936</v>
+        <v>49637.2578398367</v>
       </c>
       <c r="D25" t="n">
-        <v>50687.3818729434</v>
+        <v>46269.5844964626</v>
       </c>
       <c r="E25" t="n">
-        <v>63179.6710893977</v>
+        <v>66636.8301614546</v>
       </c>
       <c r="F25" t="n">
-        <v>63703.295347942</v>
+        <v>70723.4999274084</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1181,7 +1181,7 @@
         <v>42321</v>
       </c>
       <c r="I25" t="n">
-        <v>15664.7513175174</v>
+        <v>14395.7775750402</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1192,19 +1192,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>56376.9618664806</v>
+        <v>54072.270387305</v>
       </c>
       <c r="C26" t="n">
-        <v>50429.4811856927</v>
+        <v>45361.0920067404</v>
       </c>
       <c r="D26" t="n">
-        <v>47418.1815464452</v>
+        <v>41973.6881379315</v>
       </c>
       <c r="E26" t="n">
-        <v>62152.4262901855</v>
+        <v>64397.9655722207</v>
       </c>
       <c r="F26" t="n">
-        <v>64970.8470795324</v>
+        <v>68572.0905084228</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1213,7 +1213,7 @@
         <v>39586</v>
       </c>
       <c r="I26" t="n">
-        <v>16790.9618664806</v>
+        <v>14486.270387305</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1224,19 +1224,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>51215.5235574808</v>
+        <v>49148.1644206254</v>
       </c>
       <c r="C27" t="n">
-        <v>44611.1123436249</v>
+        <v>41553.0617260608</v>
       </c>
       <c r="D27" t="n">
-        <v>42411.0820223321</v>
+        <v>38223.7809652314</v>
       </c>
       <c r="E27" t="n">
-        <v>57170.2772543117</v>
+        <v>58028.390920861</v>
       </c>
       <c r="F27" t="n">
-        <v>59123.5967248283</v>
+        <v>62135.887159155</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1245,7 +1245,7 @@
         <v>34683</v>
       </c>
       <c r="I27" t="n">
-        <v>16532.5235574808</v>
+        <v>14465.1644206254</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1256,19 +1256,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>64636.1495543484</v>
+        <v>62483.1885861445</v>
       </c>
       <c r="C28" t="n">
-        <v>58698.8290197872</v>
+        <v>51709.3751052797</v>
       </c>
       <c r="D28" t="n">
-        <v>57296.2152714489</v>
+        <v>48114.994476242</v>
       </c>
       <c r="E28" t="n">
-        <v>69803.6648648537</v>
+        <v>76192.8652084955</v>
       </c>
       <c r="F28" t="n">
-        <v>73281.3999735356</v>
+        <v>81118.0064550965</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1277,7 +1277,7 @@
         <v>46978</v>
       </c>
       <c r="I28" t="n">
-        <v>17658.1495543484</v>
+        <v>15505.1885861445</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1288,19 +1288,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>61425.0620229451</v>
+        <v>60423.7224188947</v>
       </c>
       <c r="C29" t="n">
-        <v>53778.7080720167</v>
+        <v>49992.3486629688</v>
       </c>
       <c r="D29" t="n">
-        <v>52392.6471580708</v>
+        <v>47241.8699225194</v>
       </c>
       <c r="E29" t="n">
-        <v>68631.8437233753</v>
+        <v>73995.010460374</v>
       </c>
       <c r="F29" t="n">
-        <v>69696.1552550242</v>
+        <v>79030.8154569252</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1309,7 +1309,7 @@
         <v>39513</v>
       </c>
       <c r="I29" t="n">
-        <v>21912.0620229451</v>
+        <v>20910.7224188947</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1320,19 +1320,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>63979.6101247088</v>
+        <v>62661.9189129264</v>
       </c>
       <c r="C30" t="n">
-        <v>57401.7130982259</v>
+        <v>51887.8523291478</v>
       </c>
       <c r="D30" t="n">
-        <v>56073.1233565057</v>
+        <v>48950.8068734791</v>
       </c>
       <c r="E30" t="n">
-        <v>69881.3506696002</v>
+        <v>77586.8841735568</v>
       </c>
       <c r="F30" t="n">
-        <v>74178.8216027181</v>
+        <v>82944.9403287666</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1341,7 +1341,7 @@
         <v>43751</v>
       </c>
       <c r="I30" t="n">
-        <v>20228.6101247088</v>
+        <v>18910.9189129264</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1352,19 +1352,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>62757.1896395702</v>
+        <v>61403.9751740702</v>
       </c>
       <c r="C31" t="n">
-        <v>54041.7456276329</v>
+        <v>51160.5073446228</v>
       </c>
       <c r="D31" t="n">
-        <v>51647.9768005687</v>
+        <v>48382.8533527661</v>
       </c>
       <c r="E31" t="n">
-        <v>68646.1739618586</v>
+        <v>76164.944312686</v>
       </c>
       <c r="F31" t="n">
-        <v>69841.2067817475</v>
+        <v>81668.5047354044</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1373,7 +1373,7 @@
         <v>48507</v>
       </c>
       <c r="I31" t="n">
-        <v>14250.1896395702</v>
+        <v>12896.9751740702</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1384,19 +1384,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>65626.1595149324</v>
+        <v>64556.1317847466</v>
       </c>
       <c r="C32" t="n">
-        <v>58380.9297878928</v>
+        <v>52924.7076204606</v>
       </c>
       <c r="D32" t="n">
-        <v>56276.3386830404</v>
+        <v>50281.3548254648</v>
       </c>
       <c r="E32" t="n">
-        <v>71282.0935474792</v>
+        <v>81153.0563826827</v>
       </c>
       <c r="F32" t="n">
-        <v>73504.6543463225</v>
+        <v>87051.589111872</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1405,7 +1405,7 @@
         <v>51391</v>
       </c>
       <c r="I32" t="n">
-        <v>14235.1595149324</v>
+        <v>13165.1317847466</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1416,19 +1416,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>65438.9117667282</v>
+        <v>64118.2960962417</v>
       </c>
       <c r="C33" t="n">
-        <v>58192.7246749482</v>
+        <v>52623.0913547308</v>
       </c>
       <c r="D33" t="n">
-        <v>55142.6293606125</v>
+        <v>49751.5363247156</v>
       </c>
       <c r="E33" t="n">
-        <v>72137.2900303541</v>
+        <v>81461.9155220833</v>
       </c>
       <c r="F33" t="n">
-        <v>75019.5469385603</v>
+        <v>87585.087659377</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1437,7 +1437,7 @@
         <v>50482</v>
       </c>
       <c r="I33" t="n">
-        <v>14956.9117667282</v>
+        <v>13636.2960962417</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1448,19 +1448,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>64247.2626792101</v>
+        <v>62631.175889085</v>
       </c>
       <c r="C34" t="n">
-        <v>54437.0854802056</v>
+        <v>52703.9426700667</v>
       </c>
       <c r="D34" t="n">
-        <v>53484.5423604511</v>
+        <v>48283.2720274896</v>
       </c>
       <c r="E34" t="n">
-        <v>70944.7519512719</v>
+        <v>79701.3478142424</v>
       </c>
       <c r="F34" t="n">
-        <v>75293.4392821213</v>
+        <v>85969.1289843024</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1469,7 +1469,7 @@
         <v>44470</v>
       </c>
       <c r="I34" t="n">
-        <v>19777.2626792101</v>
+        <v>18161.175889085</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1480,19 +1480,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>61835.4267598373</v>
+        <v>60211.1198376411</v>
       </c>
       <c r="C35" t="n">
-        <v>53598.1692446618</v>
+        <v>49598.1732429746</v>
       </c>
       <c r="D35" t="n">
-        <v>51168.7284898012</v>
+        <v>45019.7786971212</v>
       </c>
       <c r="E35" t="n">
-        <v>68952.7162427454</v>
+        <v>76785.0847146106</v>
       </c>
       <c r="F35" t="n">
-        <v>72525.331544781</v>
+        <v>83145.708184578</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1501,7 +1501,7 @@
         <v>39054</v>
       </c>
       <c r="I35" t="n">
-        <v>22781.4267598373</v>
+        <v>21157.1198376411</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1512,19 +1512,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>62995.776341946</v>
+        <v>60670.7468975421</v>
       </c>
       <c r="C36" t="n">
-        <v>53605.8613544894</v>
+        <v>49765.8472690127</v>
       </c>
       <c r="D36" t="n">
-        <v>49345.5682327524</v>
+        <v>45062.2016133501</v>
       </c>
       <c r="E36" t="n">
-        <v>69679.0068439814</v>
+        <v>78249.4308820337</v>
       </c>
       <c r="F36" t="n">
-        <v>73155.2540631899</v>
+        <v>84893.667292842</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1533,7 +1533,7 @@
         <v>35152</v>
       </c>
       <c r="I36" t="n">
-        <v>27843.776341946</v>
+        <v>25518.7468975421</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1544,19 +1544,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>61404.0182958352</v>
+        <v>60036.5779787897</v>
       </c>
       <c r="C37" t="n">
-        <v>53920.6438320482</v>
+        <v>49458.8663957655</v>
       </c>
       <c r="D37" t="n">
-        <v>52845.6837052892</v>
+        <v>44654.4130213247</v>
       </c>
       <c r="E37" t="n">
-        <v>67854.6241981887</v>
+        <v>77206.9059800026</v>
       </c>
       <c r="F37" t="n">
-        <v>70408.3215893782</v>
+        <v>84027.0856256906</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1565,7 +1565,7 @@
         <v>24367</v>
       </c>
       <c r="I37" t="n">
-        <v>37037.0182958352</v>
+        <v>35669.5779787897</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1576,19 +1576,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>59512.7200783438</v>
+        <v>57360.3233198923</v>
       </c>
       <c r="C38" t="n">
-        <v>51348.2738711255</v>
+        <v>45039.7566473363</v>
       </c>
       <c r="D38" t="n">
-        <v>47941.7687529774</v>
+        <v>40364.3034138314</v>
       </c>
       <c r="E38" t="n">
-        <v>67255.7288156421</v>
+        <v>74866.9265783355</v>
       </c>
       <c r="F38" t="n">
-        <v>69954.8013996748</v>
+        <v>81800.6797485562</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1597,7 +1597,7 @@
         <v>28708</v>
       </c>
       <c r="I38" t="n">
-        <v>30804.7200783438</v>
+        <v>28652.3233198923</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1608,19 +1608,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>55729.4874851857</v>
+        <v>52807.8534724924</v>
       </c>
       <c r="C39" t="n">
-        <v>46685.1838170378</v>
+        <v>41181.4758393076</v>
       </c>
       <c r="D39" t="n">
-        <v>42193.1715190968</v>
+        <v>36624.4596982016</v>
       </c>
       <c r="E39" t="n">
-        <v>63074.9575649028</v>
+        <v>68027.5834158847</v>
       </c>
       <c r="F39" t="n">
-        <v>65477.3093841959</v>
+        <v>74837.7633073652</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1629,7 +1629,7 @@
         <v>43574</v>
       </c>
       <c r="I39" t="n">
-        <v>12155.4874851857</v>
+        <v>9233.85347249242</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1640,19 +1640,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>68520.4972226168</v>
+        <v>65731.9987426974</v>
       </c>
       <c r="C40" t="n">
-        <v>60601.1212050381</v>
+        <v>52460.5059972868</v>
       </c>
       <c r="D40" t="n">
-        <v>56553.0481277505</v>
+        <v>48906.0606449462</v>
       </c>
       <c r="E40" t="n">
-        <v>75949.5393124906</v>
+        <v>87786.4499537087</v>
       </c>
       <c r="F40" t="n">
-        <v>78226.3675015751</v>
+        <v>95818.0701467872</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1661,7 +1661,7 @@
         <v>49855</v>
       </c>
       <c r="I40" t="n">
-        <v>18665.4972226168</v>
+        <v>15876.9987426974</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1672,19 +1672,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>65931.9415049381</v>
+        <v>63664.060446629</v>
       </c>
       <c r="C41" t="n">
-        <v>57911.6427116093</v>
+        <v>51929.7796698681</v>
       </c>
       <c r="D41" t="n">
-        <v>50794.387974916</v>
+        <v>46513.8093175268</v>
       </c>
       <c r="E41" t="n">
-        <v>74180.153369108</v>
+        <v>85497.342252305</v>
       </c>
       <c r="F41" t="n">
-        <v>75999.7729641226</v>
+        <v>93668.2903664858</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1693,7 +1693,7 @@
         <v>48926</v>
       </c>
       <c r="I41" t="n">
-        <v>17005.9415049381</v>
+        <v>14738.060446629</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1704,19 +1704,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>68173.3422869912</v>
+        <v>65924.3395494983</v>
       </c>
       <c r="C42" t="n">
-        <v>58768.6974314474</v>
+        <v>52975.810142563</v>
       </c>
       <c r="D42" t="n">
-        <v>54002.9792736986</v>
+        <v>48119.7414270635</v>
       </c>
       <c r="E42" t="n">
-        <v>75379.9725647397</v>
+        <v>89457.1218025269</v>
       </c>
       <c r="F42" t="n">
-        <v>80028.9919946443</v>
+        <v>98083.2084149966</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1725,7 +1725,7 @@
         <v>53258</v>
       </c>
       <c r="I42" t="n">
-        <v>14915.3422869912</v>
+        <v>12666.3395494983</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1736,19 +1736,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>67070.2528401949</v>
+        <v>64695.8608698189</v>
       </c>
       <c r="C43" t="n">
-        <v>56797.920044437</v>
+        <v>52453.1266963323</v>
       </c>
       <c r="D43" t="n">
-        <v>53138.312783324</v>
+        <v>46764.7123524945</v>
       </c>
       <c r="E43" t="n">
-        <v>75081.5966524556</v>
+        <v>88002.3292030155</v>
       </c>
       <c r="F43" t="n">
-        <v>77018.1135796574</v>
+        <v>96815.5116079089</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1757,7 +1757,7 @@
         <v>52007</v>
       </c>
       <c r="I43" t="n">
-        <v>15063.2528401949</v>
+        <v>12688.8608698189</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1768,19 +1768,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>70708.9502404295</v>
+        <v>67799.4006089762</v>
       </c>
       <c r="C44" t="n">
-        <v>60906.8206581701</v>
+        <v>53184.1226719238</v>
       </c>
       <c r="D44" t="n">
-        <v>54009.387345527</v>
+        <v>49358.7644875962</v>
       </c>
       <c r="E44" t="n">
-        <v>79810.985954341</v>
+        <v>93465.7090168147</v>
       </c>
       <c r="F44" t="n">
-        <v>82843.4730722497</v>
+        <v>102833.440743596</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1789,7 +1789,7 @@
         <v>58247</v>
       </c>
       <c r="I44" t="n">
-        <v>12461.9502404295</v>
+        <v>9552.40060897617</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1800,19 +1800,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>70076.5915395027</v>
+        <v>67347.0120356339</v>
       </c>
       <c r="C45" t="n">
-        <v>60685.5702808744</v>
+        <v>53406.9479659313</v>
       </c>
       <c r="D45" t="n">
-        <v>55365.164200281</v>
+        <v>48200.8365547368</v>
       </c>
       <c r="E45" t="n">
-        <v>78338.4397514802</v>
+        <v>93877.9901201155</v>
       </c>
       <c r="F45" t="n">
-        <v>83188.0527296889</v>
+        <v>103544.217940602</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1821,7 +1821,7 @@
         <v>61068</v>
       </c>
       <c r="I45" t="n">
-        <v>9008.59153950265</v>
+        <v>6279.0120356339</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1832,19 +1832,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>68200.9247248644</v>
+        <v>65807.3720092397</v>
       </c>
       <c r="C46" t="n">
-        <v>58017.4570766371</v>
+        <v>52048.556326278</v>
       </c>
       <c r="D46" t="n">
-        <v>51660.6623544388</v>
+        <v>46022.4164396268</v>
       </c>
       <c r="E46" t="n">
-        <v>76298.1339184852</v>
+        <v>92054.7827216535</v>
       </c>
       <c r="F46" t="n">
-        <v>80828.4951146364</v>
+        <v>101900.281321278</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1853,7 +1853,7 @@
         <v>55767</v>
       </c>
       <c r="I46" t="n">
-        <v>12433.9247248644</v>
+        <v>10040.3720092397</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1864,19 +1864,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>65951.7513096793</v>
+        <v>63298.4855779253</v>
       </c>
       <c r="C47" t="n">
-        <v>54942.0992111998</v>
+        <v>48720.3124778242</v>
       </c>
       <c r="D47" t="n">
-        <v>49939.0780881458</v>
+        <v>42793.3445869959</v>
       </c>
       <c r="E47" t="n">
-        <v>75586.461076095</v>
+        <v>88976.853942866</v>
       </c>
       <c r="F47" t="n">
-        <v>77776.7133993538</v>
+        <v>98925.7086720422</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1885,7 +1885,7 @@
         <v>56981</v>
       </c>
       <c r="I47" t="n">
-        <v>8970.75130967933</v>
+        <v>6317.48557792527</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1896,19 +1896,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>67340.919689205</v>
+        <v>63797.2068007507</v>
       </c>
       <c r="C48" t="n">
-        <v>56654.6747757448</v>
+        <v>48838.3729652722</v>
       </c>
       <c r="D48" t="n">
-        <v>49635.6177823888</v>
+        <v>42787.605301755</v>
       </c>
       <c r="E48" t="n">
-        <v>77377.3936187335</v>
+        <v>90633.8221753967</v>
       </c>
       <c r="F48" t="n">
-        <v>81921.6502727962</v>
+        <v>100961.470288141</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1917,7 +1917,7 @@
         <v>57719</v>
       </c>
       <c r="I48" t="n">
-        <v>9621.91968920498</v>
+        <v>6078.2068007507</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1928,19 +1928,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>66270.9563831681</v>
+        <v>63160.6494476351</v>
       </c>
       <c r="C49" t="n">
-        <v>55403.1378346677</v>
+        <v>48488.6113361646</v>
       </c>
       <c r="D49" t="n">
-        <v>49822.7381626024</v>
+        <v>42346.5455957823</v>
       </c>
       <c r="E49" t="n">
-        <v>74792.6405542769</v>
+        <v>89577.1965605468</v>
       </c>
       <c r="F49" t="n">
-        <v>78001.6137341935</v>
+        <v>100126.341869301</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1949,7 +1949,7 @@
         <v>50823</v>
       </c>
       <c r="I49" t="n">
-        <v>15447.9563831681</v>
+        <v>12337.6494476351</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/Syphilis.xlsx
+++ b/outcome/appendix/forecast/Syphilis.xlsx
@@ -424,7 +424,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>46607.3571681185</v>
+        <v>46594.4583181672</v>
       </c>
       <c r="C2" t="n">
         <v>41818.6623182063</v>
@@ -433,10 +433,10 @@
         <v>40194.5247681668</v>
       </c>
       <c r="E2" t="n">
-        <v>51257.7192143554</v>
+        <v>51195.6418289354</v>
       </c>
       <c r="F2" t="n">
-        <v>53758.0178141269</v>
+        <v>53689.3549707518</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -445,7 +445,7 @@
         <v>39671</v>
       </c>
       <c r="I2" t="n">
-        <v>6936.35716811845</v>
+        <v>6923.45831816716</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -456,13 +456,13 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>40970.9014998307</v>
+        <v>40963.4122349453</v>
       </c>
       <c r="C3" t="n">
-        <v>35741.1807140564</v>
+        <v>35781.1412097616</v>
       </c>
       <c r="D3" t="n">
-        <v>34067.774898438</v>
+        <v>34104.377549322</v>
       </c>
       <c r="E3" t="n">
         <v>45461.8541393762</v>
@@ -477,7 +477,7 @@
         <v>21448</v>
       </c>
       <c r="I3" t="n">
-        <v>19522.9014998307</v>
+        <v>19515.4122349453</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -488,13 +488,13 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>54984.2784900136</v>
+        <v>55030.6403619823</v>
       </c>
       <c r="C4" t="n">
-        <v>48019.6550510103</v>
+        <v>48090.828031664</v>
       </c>
       <c r="D4" t="n">
-        <v>46082.0823237526</v>
+        <v>46016.5425442498</v>
       </c>
       <c r="E4" t="n">
         <v>60193.6133037065</v>
@@ -509,7 +509,7 @@
         <v>41154</v>
       </c>
       <c r="I4" t="n">
-        <v>13830.2784900136</v>
+        <v>13876.6403619823</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -520,13 +520,13 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>53207.2537237027</v>
+        <v>53229.7533746662</v>
       </c>
       <c r="C5" t="n">
-        <v>47577.5103895335</v>
+        <v>47704.0199363603</v>
       </c>
       <c r="D5" t="n">
-        <v>45590.0140242675</v>
+        <v>45719.0464903625</v>
       </c>
       <c r="E5" t="n">
         <v>57955.9300789496</v>
@@ -541,7 +541,7 @@
         <v>46728</v>
       </c>
       <c r="I5" t="n">
-        <v>6479.25372370268</v>
+        <v>6501.75337466622</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -552,13 +552,13 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>55370.7945219147</v>
+        <v>55405.4471689228</v>
       </c>
       <c r="C6" t="n">
-        <v>49002.4675599027</v>
+        <v>49142.9848633701</v>
       </c>
       <c r="D6" t="n">
-        <v>46519.362990503</v>
+        <v>46711.5848194543</v>
       </c>
       <c r="E6" t="n">
         <v>60802.5866876494</v>
@@ -573,7 +573,7 @@
         <v>46753</v>
       </c>
       <c r="I6" t="n">
-        <v>8617.79452191472</v>
+        <v>8652.44716892279</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -584,13 +584,13 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>54116.5398399992</v>
+        <v>54121.9883305329</v>
       </c>
       <c r="C7" t="n">
-        <v>47365.809629369</v>
+        <v>47473.9464002559</v>
       </c>
       <c r="D7" t="n">
-        <v>45077.2499447985</v>
+        <v>45108.3924563557</v>
       </c>
       <c r="E7" t="n">
         <v>60074.3960198284</v>
@@ -605,7 +605,7 @@
         <v>46538</v>
       </c>
       <c r="I7" t="n">
-        <v>7578.53983999924</v>
+        <v>7583.98833053285</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -616,13 +616,13 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>57736.6911365784</v>
+        <v>57783.622478278</v>
       </c>
       <c r="C8" t="n">
-        <v>51474.8703910175</v>
+        <v>51613.3175271674</v>
       </c>
       <c r="D8" t="n">
-        <v>49579.9738511402</v>
+        <v>49726.7167398529</v>
       </c>
       <c r="E8" t="n">
         <v>63179.2359659769</v>
@@ -637,7 +637,7 @@
         <v>46838</v>
       </c>
       <c r="I8" t="n">
-        <v>10898.6911365784</v>
+        <v>10945.622478278</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -648,13 +648,13 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>57373.3571665567</v>
+        <v>57382.6309248972</v>
       </c>
       <c r="C9" t="n">
-        <v>51168.9955265782</v>
+        <v>51219.9062238202</v>
       </c>
       <c r="D9" t="n">
-        <v>48744.8622607084</v>
+        <v>48798.2656152392</v>
       </c>
       <c r="E9" t="n">
         <v>62975.8556605989</v>
@@ -669,7 +669,7 @@
         <v>46838</v>
       </c>
       <c r="I9" t="n">
-        <v>10535.3571665567</v>
+        <v>10544.6309248972</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -680,13 +680,13 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>55804.1659422907</v>
+        <v>55803.1991806217</v>
       </c>
       <c r="C10" t="n">
-        <v>50979.0388590592</v>
+        <v>51049.4077238591</v>
       </c>
       <c r="D10" t="n">
-        <v>48432.2176261255</v>
+        <v>48542.8427140859</v>
       </c>
       <c r="E10" t="n">
         <v>61174.5869480688</v>
@@ -701,7 +701,7 @@
         <v>48965</v>
       </c>
       <c r="I10" t="n">
-        <v>6839.1659422907</v>
+        <v>6838.19918062173</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -712,7 +712,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>53488.3610217756</v>
+        <v>53483.7819275115</v>
       </c>
       <c r="C11" t="n">
         <v>48429.5189713469</v>
@@ -721,10 +721,10 @@
         <v>46082.1223157025</v>
       </c>
       <c r="E11" t="n">
-        <v>59792.2373819944</v>
+        <v>59889.3602301461</v>
       </c>
       <c r="F11" t="n">
-        <v>62462.1617473843</v>
+        <v>62400.611716038</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -733,7 +733,7 @@
         <v>44438</v>
       </c>
       <c r="I11" t="n">
-        <v>9050.36102177559</v>
+        <v>9045.78192751148</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -744,7 +744,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>53823.6203828322</v>
+        <v>53810.4734542399</v>
       </c>
       <c r="C12" t="n">
         <v>48824.2608354331</v>
@@ -765,7 +765,7 @@
         <v>45305</v>
       </c>
       <c r="I12" t="n">
-        <v>8518.62038283217</v>
+        <v>8505.47345423993</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -776,7 +776,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>53103.9449684156</v>
+        <v>53088.367083323</v>
       </c>
       <c r="C13" t="n">
         <v>48229.4492736501</v>
@@ -797,7 +797,7 @@
         <v>44696</v>
       </c>
       <c r="I13" t="n">
-        <v>8407.9449684156</v>
+        <v>8392.36708332301</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -808,7 +808,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>50383.1108249028</v>
+        <v>50357.414431917</v>
       </c>
       <c r="C14" t="n">
         <v>44552.7520433622</v>
@@ -817,10 +817,10 @@
         <v>42299.4651063399</v>
       </c>
       <c r="E14" t="n">
-        <v>57108.326069106</v>
+        <v>57110.7580892624</v>
       </c>
       <c r="F14" t="n">
-        <v>60342.4632191659</v>
+        <v>60203.3502927919</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -829,7 +829,7 @@
         <v>40079</v>
       </c>
       <c r="I14" t="n">
-        <v>10304.1108249028</v>
+        <v>10278.414431917</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -840,19 +840,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>45012.2558222886</v>
+        <v>44987.7060061212</v>
       </c>
       <c r="C15" t="n">
-        <v>40099.177493934</v>
+        <v>40109.0107071541</v>
       </c>
       <c r="D15" t="n">
-        <v>37360.7690407304</v>
+        <v>37215.3062050397</v>
       </c>
       <c r="E15" t="n">
-        <v>51052.165275975</v>
+        <v>50883.8122119177</v>
       </c>
       <c r="F15" t="n">
-        <v>53727.7390817551</v>
+        <v>53412.5514685131</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -861,7 +861,7 @@
         <v>33615</v>
       </c>
       <c r="I15" t="n">
-        <v>11397.2558222886</v>
+        <v>11372.7060061212</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -872,13 +872,13 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>58904.6836559073</v>
+        <v>59001.4706799518</v>
       </c>
       <c r="C16" t="n">
-        <v>49615.6062188475</v>
+        <v>49794.6593195035</v>
       </c>
       <c r="D16" t="n">
-        <v>46703.5816932849</v>
+        <v>46642.4770281913</v>
       </c>
       <c r="E16" t="n">
         <v>66532.1843046805</v>
@@ -893,7 +893,7 @@
         <v>50682</v>
       </c>
       <c r="I16" t="n">
-        <v>8222.68365590731</v>
+        <v>8319.47067995181</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -904,13 +904,13 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>56943.4837200163</v>
+        <v>56995.7399326532</v>
       </c>
       <c r="C17" t="n">
-        <v>48671.6878631703</v>
+        <v>48754.9657962342</v>
       </c>
       <c r="D17" t="n">
-        <v>46092.002221464</v>
+        <v>46340.0548981927</v>
       </c>
       <c r="E17" t="n">
         <v>64384.2199971817</v>
@@ -925,7 +925,7 @@
         <v>49113</v>
       </c>
       <c r="I17" t="n">
-        <v>7830.4837200163</v>
+        <v>7882.73993265318</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -936,13 +936,13 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>59138.4303532929</v>
+        <v>59182.9659609409</v>
       </c>
       <c r="C18" t="n">
-        <v>50112.0189396141</v>
+        <v>50275.992745793</v>
       </c>
       <c r="D18" t="n">
-        <v>47764.8307735758</v>
+        <v>47950.9134512476</v>
       </c>
       <c r="E18" t="n">
         <v>67617.9095646332</v>
@@ -957,7 +957,7 @@
         <v>47999</v>
       </c>
       <c r="I18" t="n">
-        <v>11139.4303532929</v>
+        <v>11183.9659609409</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -968,13 +968,13 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>57867.6260108384</v>
+        <v>57873.9334537816</v>
       </c>
       <c r="C19" t="n">
-        <v>49280.9054770777</v>
+        <v>49313.9740484322</v>
       </c>
       <c r="D19" t="n">
-        <v>47068.2953133337</v>
+        <v>47257.483155954</v>
       </c>
       <c r="E19" t="n">
         <v>66198.4710972764</v>
@@ -989,7 +989,7 @@
         <v>47423</v>
       </c>
       <c r="I19" t="n">
-        <v>10444.6260108384</v>
+        <v>10450.9334537816</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1000,13 +1000,13 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>61198.8821994888</v>
+        <v>61253.9628355162</v>
       </c>
       <c r="C20" t="n">
-        <v>52024.1895863021</v>
+        <v>52189.1432586728</v>
       </c>
       <c r="D20" t="n">
-        <v>49592.5351782335</v>
+        <v>49579.6121437197</v>
       </c>
       <c r="E20" t="n">
         <v>70733.0145551571</v>
@@ -1021,7 +1021,7 @@
         <v>51531</v>
       </c>
       <c r="I20" t="n">
-        <v>9667.88219948883</v>
+        <v>9722.96283551615</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1032,13 +1032,13 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>60799.4203142423</v>
+        <v>60798.843755685</v>
       </c>
       <c r="C21" t="n">
-        <v>51878.1624252014</v>
+        <v>51986.4430106353</v>
       </c>
       <c r="D21" t="n">
-        <v>49589.841750977</v>
+        <v>49590.6680903535</v>
       </c>
       <c r="E21" t="n">
         <v>70924.6690226764</v>
@@ -1053,7 +1053,7 @@
         <v>46091</v>
       </c>
       <c r="I21" t="n">
-        <v>14708.4203142423</v>
+        <v>14707.843755685</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1064,13 +1064,13 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>59319.6603692688</v>
+        <v>59319.5112787108</v>
       </c>
       <c r="C22" t="n">
-        <v>51692.9310962873</v>
+        <v>51791.6002604188</v>
       </c>
       <c r="D22" t="n">
-        <v>49447.9041658959</v>
+        <v>49609.85048724</v>
       </c>
       <c r="E22" t="n">
         <v>69199.4319986054</v>
@@ -1085,7 +1085,7 @@
         <v>45792</v>
       </c>
       <c r="I22" t="n">
-        <v>13527.6603692688</v>
+        <v>13527.5112787108</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1096,7 +1096,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>56991.0727018303</v>
+        <v>56979.691836963</v>
       </c>
       <c r="C23" t="n">
         <v>49699.7484244802</v>
@@ -1117,7 +1117,7 @@
         <v>40900</v>
       </c>
       <c r="I23" t="n">
-        <v>16091.0727018303</v>
+        <v>16079.691836963</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1128,7 +1128,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>57383.819421751</v>
+        <v>57364.8443871592</v>
       </c>
       <c r="C24" t="n">
         <v>49950.2989302681</v>
@@ -1149,7 +1149,7 @@
         <v>42174</v>
       </c>
       <c r="I24" t="n">
-        <v>15209.819421751</v>
+        <v>15190.8443871592</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1160,7 +1160,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>56716.7775750402</v>
+        <v>56694.0032561187</v>
       </c>
       <c r="C25" t="n">
         <v>49637.2578398367</v>
@@ -1181,7 +1181,7 @@
         <v>42321</v>
       </c>
       <c r="I25" t="n">
-        <v>14395.7775750402</v>
+        <v>14373.0032561187</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1192,7 +1192,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>54072.270387305</v>
+        <v>54041.4722932974</v>
       </c>
       <c r="C26" t="n">
         <v>45361.0920067404</v>
@@ -1213,7 +1213,7 @@
         <v>39586</v>
       </c>
       <c r="I26" t="n">
-        <v>14486.270387305</v>
+        <v>14455.4722932974</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1224,7 +1224,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>49148.1644206254</v>
+        <v>49106.2780234168</v>
       </c>
       <c r="C27" t="n">
         <v>41553.0617260608</v>
@@ -1245,7 +1245,7 @@
         <v>34683</v>
       </c>
       <c r="I27" t="n">
-        <v>14465.1644206254</v>
+        <v>14423.2780234168</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1256,13 +1256,13 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>62483.1885861445</v>
+        <v>62633.1271664431</v>
       </c>
       <c r="C28" t="n">
-        <v>51709.3751052797</v>
+        <v>51758.585670421</v>
       </c>
       <c r="D28" t="n">
-        <v>48114.994476242</v>
+        <v>48000.6757073943</v>
       </c>
       <c r="E28" t="n">
         <v>76192.8652084955</v>
@@ -1277,7 +1277,7 @@
         <v>46978</v>
       </c>
       <c r="I28" t="n">
-        <v>15505.1885861445</v>
+        <v>15655.1271664431</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1288,13 +1288,13 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>60423.7224188947</v>
+        <v>60507.4467751205</v>
       </c>
       <c r="C29" t="n">
-        <v>49992.3486629688</v>
+        <v>50070.208893789</v>
       </c>
       <c r="D29" t="n">
-        <v>47241.8699225194</v>
+        <v>47608.9548603028</v>
       </c>
       <c r="E29" t="n">
         <v>73995.010460374</v>
@@ -1309,7 +1309,7 @@
         <v>39513</v>
       </c>
       <c r="I29" t="n">
-        <v>20910.7224188947</v>
+        <v>20994.4467751205</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1320,13 +1320,13 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>62661.9189129264</v>
+        <v>62723.4521208134</v>
       </c>
       <c r="C30" t="n">
-        <v>51887.8523291478</v>
+        <v>51972.1437596468</v>
       </c>
       <c r="D30" t="n">
-        <v>48950.8068734791</v>
+        <v>49119.149641174</v>
       </c>
       <c r="E30" t="n">
         <v>77586.8841735568</v>
@@ -1341,7 +1341,7 @@
         <v>43751</v>
       </c>
       <c r="I30" t="n">
-        <v>18910.9189129264</v>
+        <v>18972.4521208134</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1352,13 +1352,13 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>61403.9751740702</v>
+        <v>61414.8912375131</v>
       </c>
       <c r="C31" t="n">
-        <v>51160.5073446228</v>
+        <v>51271.4056697296</v>
       </c>
       <c r="D31" t="n">
-        <v>48382.8533527661</v>
+        <v>48525.7324722195</v>
       </c>
       <c r="E31" t="n">
         <v>76164.944312686</v>
@@ -1373,7 +1373,7 @@
         <v>48507</v>
       </c>
       <c r="I31" t="n">
-        <v>12896.9751740702</v>
+        <v>12907.8912375131</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1384,13 +1384,13 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>64556.1317847466</v>
+        <v>64612.9450016815</v>
       </c>
       <c r="C32" t="n">
-        <v>52924.7076204606</v>
+        <v>53146.2940829215</v>
       </c>
       <c r="D32" t="n">
-        <v>50281.3548254648</v>
+        <v>50361.486517917</v>
       </c>
       <c r="E32" t="n">
         <v>81153.0563826827</v>
@@ -1405,7 +1405,7 @@
         <v>51391</v>
       </c>
       <c r="I32" t="n">
-        <v>13165.1317847466</v>
+        <v>13221.9450016815</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1416,13 +1416,13 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>64118.2960962417</v>
+        <v>64108.846078026</v>
       </c>
       <c r="C33" t="n">
-        <v>52623.0913547308</v>
+        <v>52789.8394041067</v>
       </c>
       <c r="D33" t="n">
-        <v>49751.5363247156</v>
+        <v>49921.1852348977</v>
       </c>
       <c r="E33" t="n">
         <v>81461.9155220833</v>
@@ -1437,7 +1437,7 @@
         <v>50482</v>
       </c>
       <c r="I33" t="n">
-        <v>13636.2960962417</v>
+        <v>13626.846078026</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1448,10 +1448,10 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>62631.175889085</v>
+        <v>62637.9784520456</v>
       </c>
       <c r="C34" t="n">
-        <v>52703.9426700667</v>
+        <v>52871.2844720708</v>
       </c>
       <c r="D34" t="n">
         <v>48283.2720274896</v>
@@ -1469,7 +1469,7 @@
         <v>44470</v>
       </c>
       <c r="I34" t="n">
-        <v>18161.175889085</v>
+        <v>18167.9784520456</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1480,7 +1480,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>60211.1198376411</v>
+        <v>60193.6609525188</v>
       </c>
       <c r="C35" t="n">
         <v>49598.1732429746</v>
@@ -1501,7 +1501,7 @@
         <v>39054</v>
       </c>
       <c r="I35" t="n">
-        <v>21157.1198376411</v>
+        <v>21139.6609525188</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1512,7 +1512,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>60670.7468975421</v>
+        <v>60653.1068976225</v>
       </c>
       <c r="C36" t="n">
         <v>49765.8472690127</v>
@@ -1533,7 +1533,7 @@
         <v>35152</v>
       </c>
       <c r="I36" t="n">
-        <v>25518.7468975421</v>
+        <v>25501.1068976225</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1544,7 +1544,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>60036.5779787897</v>
+        <v>60011.3627591091</v>
       </c>
       <c r="C37" t="n">
         <v>49458.8663957655</v>
@@ -1565,7 +1565,7 @@
         <v>24367</v>
       </c>
       <c r="I37" t="n">
-        <v>35669.5779787897</v>
+        <v>35644.3627591091</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1576,7 +1576,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>57360.3233198923</v>
+        <v>57330.1448621323</v>
       </c>
       <c r="C38" t="n">
         <v>45039.7566473363</v>
@@ -1597,7 +1597,7 @@
         <v>28708</v>
       </c>
       <c r="I38" t="n">
-        <v>28652.3233198923</v>
+        <v>28622.1448621323</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1608,7 +1608,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>52807.8534724924</v>
+        <v>52762.0189442643</v>
       </c>
       <c r="C39" t="n">
         <v>41181.4758393076</v>
@@ -1629,7 +1629,7 @@
         <v>43574</v>
       </c>
       <c r="I39" t="n">
-        <v>9233.85347249242</v>
+        <v>9188.01894426429</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1640,10 +1640,10 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>65731.9987426974</v>
+        <v>65863.4563335257</v>
       </c>
       <c r="C40" t="n">
-        <v>52460.5059972868</v>
+        <v>52555.1427721779</v>
       </c>
       <c r="D40" t="n">
         <v>48906.0606449462</v>
@@ -1661,7 +1661,7 @@
         <v>49855</v>
       </c>
       <c r="I40" t="n">
-        <v>15876.9987426974</v>
+        <v>16008.4563335257</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1672,7 +1672,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>63664.060446629</v>
+        <v>63733.0508239726</v>
       </c>
       <c r="C41" t="n">
         <v>51929.7796698681</v>
@@ -1693,7 +1693,7 @@
         <v>48926</v>
       </c>
       <c r="I41" t="n">
-        <v>14738.060446629</v>
+        <v>14807.0508239726</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1704,10 +1704,10 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>65924.3395494983</v>
+        <v>65989.6534345626</v>
       </c>
       <c r="C42" t="n">
-        <v>52975.810142563</v>
+        <v>53047.2937315806</v>
       </c>
       <c r="D42" t="n">
         <v>48119.7414270635</v>
@@ -1725,7 +1725,7 @@
         <v>53258</v>
       </c>
       <c r="I42" t="n">
-        <v>12666.3395494983</v>
+        <v>12731.6534345626</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1736,7 +1736,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>64695.8608698189</v>
+        <v>64704.1880392358</v>
       </c>
       <c r="C43" t="n">
         <v>52453.1266963323</v>
@@ -1757,7 +1757,7 @@
         <v>52007</v>
       </c>
       <c r="I43" t="n">
-        <v>12688.8608698189</v>
+        <v>12697.1880392358</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1768,10 +1768,10 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>67799.4006089762</v>
+        <v>67850.4304606734</v>
       </c>
       <c r="C44" t="n">
-        <v>53184.1226719238</v>
+        <v>53376.8191447006</v>
       </c>
       <c r="D44" t="n">
         <v>49358.7644875962</v>
@@ -1789,7 +1789,7 @@
         <v>58247</v>
       </c>
       <c r="I44" t="n">
-        <v>9552.40060897617</v>
+        <v>9603.43046067336</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1800,10 +1800,10 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>67347.0120356339</v>
+        <v>67332.463216341</v>
       </c>
       <c r="C45" t="n">
-        <v>53406.9479659313</v>
+        <v>53618.8300655382</v>
       </c>
       <c r="D45" t="n">
         <v>48200.8365547368</v>
@@ -1821,7 +1821,7 @@
         <v>61068</v>
       </c>
       <c r="I45" t="n">
-        <v>6279.0120356339</v>
+        <v>6264.46321634097</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1832,7 +1832,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>65807.3720092397</v>
+        <v>65819.969084813</v>
       </c>
       <c r="C46" t="n">
         <v>52048.556326278</v>
@@ -1853,7 +1853,7 @@
         <v>55767</v>
       </c>
       <c r="I46" t="n">
-        <v>10040.3720092397</v>
+        <v>10052.969084813</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1864,7 +1864,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>63298.4855779253</v>
+        <v>63276.9550409783</v>
       </c>
       <c r="C47" t="n">
         <v>48720.3124778242</v>
@@ -1885,7 +1885,7 @@
         <v>56981</v>
       </c>
       <c r="I47" t="n">
-        <v>6317.48557792527</v>
+        <v>6295.95504097828</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1896,7 +1896,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>63797.2068007507</v>
+        <v>63784.2188621669</v>
       </c>
       <c r="C48" t="n">
         <v>48838.3729652722</v>
@@ -1917,7 +1917,7 @@
         <v>57719</v>
       </c>
       <c r="I48" t="n">
-        <v>6078.2068007507</v>
+        <v>6065.21886216692</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1928,7 +1928,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>63160.6494476351</v>
+        <v>63134.5711815639</v>
       </c>
       <c r="C49" t="n">
         <v>48488.6113361646</v>
@@ -1949,7 +1949,7 @@
         <v>50823</v>
       </c>
       <c r="I49" t="n">
-        <v>12337.6494476351</v>
+        <v>12311.5711815639</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/Syphilis.xlsx
+++ b/outcome/appendix/forecast/Syphilis.xlsx
@@ -424,7 +424,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>46594.4583181672</v>
+        <v>46587.3723067849</v>
       </c>
       <c r="C2" t="n">
         <v>41818.6623182063</v>
@@ -433,10 +433,10 @@
         <v>40194.5247681668</v>
       </c>
       <c r="E2" t="n">
-        <v>51195.6418289354</v>
+        <v>51196.1892930378</v>
       </c>
       <c r="F2" t="n">
-        <v>53689.3549707518</v>
+        <v>53708.3527843201</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -445,7 +445,7 @@
         <v>39671</v>
       </c>
       <c r="I2" t="n">
-        <v>6923.45831816716</v>
+        <v>6916.3723067849</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -456,13 +456,13 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>40963.4122349453</v>
+        <v>40880.0398238708</v>
       </c>
       <c r="C3" t="n">
-        <v>35781.1412097616</v>
+        <v>35398.2597798799</v>
       </c>
       <c r="D3" t="n">
-        <v>34104.377549322</v>
+        <v>33753.3437526218</v>
       </c>
       <c r="E3" t="n">
         <v>45461.8541393762</v>
@@ -477,7 +477,7 @@
         <v>21448</v>
       </c>
       <c r="I3" t="n">
-        <v>19515.4122349453</v>
+        <v>19432.0398238708</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -488,13 +488,13 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>55030.6403619823</v>
+        <v>54961.0256676177</v>
       </c>
       <c r="C4" t="n">
-        <v>48090.828031664</v>
+        <v>48019.6394282117</v>
       </c>
       <c r="D4" t="n">
-        <v>46016.5425442498</v>
+        <v>46041.6316924572</v>
       </c>
       <c r="E4" t="n">
         <v>60193.6133037065</v>
@@ -509,7 +509,7 @@
         <v>41154</v>
       </c>
       <c r="I4" t="n">
-        <v>13876.6403619823</v>
+        <v>13807.0256676177</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -520,13 +520,13 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>53229.7533746662</v>
+        <v>53208.8556693793</v>
       </c>
       <c r="C5" t="n">
-        <v>47704.0199363603</v>
+        <v>47627.8956849143</v>
       </c>
       <c r="D5" t="n">
-        <v>45719.0464903625</v>
+        <v>45702.5029661378</v>
       </c>
       <c r="E5" t="n">
         <v>57955.9300789496</v>
@@ -541,7 +541,7 @@
         <v>46728</v>
       </c>
       <c r="I5" t="n">
-        <v>6501.75337466622</v>
+        <v>6480.85566937931</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -552,13 +552,13 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>55405.4471689228</v>
+        <v>55380.1398370414</v>
       </c>
       <c r="C6" t="n">
-        <v>49142.9848633701</v>
+        <v>49221.533962318</v>
       </c>
       <c r="D6" t="n">
-        <v>46711.5848194543</v>
+        <v>46762.9630901841</v>
       </c>
       <c r="E6" t="n">
         <v>60802.5866876494</v>
@@ -573,7 +573,7 @@
         <v>46753</v>
       </c>
       <c r="I6" t="n">
-        <v>8652.44716892279</v>
+        <v>8627.13983704143</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -584,13 +584,13 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>54121.9883305329</v>
+        <v>54132.1549147528</v>
       </c>
       <c r="C7" t="n">
-        <v>47473.9464002559</v>
+        <v>47326.3808502299</v>
       </c>
       <c r="D7" t="n">
-        <v>45108.3924563557</v>
+        <v>45042.5042915925</v>
       </c>
       <c r="E7" t="n">
         <v>60074.3960198284</v>
@@ -605,7 +605,7 @@
         <v>46538</v>
       </c>
       <c r="I7" t="n">
-        <v>7583.98833053285</v>
+        <v>7594.15491475281</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -616,13 +616,13 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>57783.622478278</v>
+        <v>57788.9304815289</v>
       </c>
       <c r="C8" t="n">
-        <v>51613.3175271674</v>
+        <v>51550.2617191523</v>
       </c>
       <c r="D8" t="n">
-        <v>49726.7167398529</v>
+        <v>49648.3170404454</v>
       </c>
       <c r="E8" t="n">
         <v>63179.2359659769</v>
@@ -637,7 +637,7 @@
         <v>46838</v>
       </c>
       <c r="I8" t="n">
-        <v>10945.622478278</v>
+        <v>10950.9304815289</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -648,13 +648,13 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>57382.6309248972</v>
+        <v>57336.3867463526</v>
       </c>
       <c r="C9" t="n">
-        <v>51219.9062238202</v>
+        <v>51043.3584047773</v>
       </c>
       <c r="D9" t="n">
-        <v>48798.2656152392</v>
+        <v>48617.7999808013</v>
       </c>
       <c r="E9" t="n">
         <v>62975.8556605989</v>
@@ -669,7 +669,7 @@
         <v>46838</v>
       </c>
       <c r="I9" t="n">
-        <v>10544.6309248972</v>
+        <v>10498.3867463526</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -680,13 +680,13 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>55803.1991806217</v>
+        <v>55811.7721773807</v>
       </c>
       <c r="C10" t="n">
-        <v>51049.4077238591</v>
+        <v>50993.9086660262</v>
       </c>
       <c r="D10" t="n">
-        <v>48542.8427140859</v>
+        <v>48528.0208235751</v>
       </c>
       <c r="E10" t="n">
         <v>61174.5869480688</v>
@@ -701,7 +701,7 @@
         <v>48965</v>
       </c>
       <c r="I10" t="n">
-        <v>6838.19918062173</v>
+        <v>6846.77217738073</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -712,7 +712,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>53483.7819275115</v>
+        <v>53490.5662733249</v>
       </c>
       <c r="C11" t="n">
         <v>48429.5189713469</v>
@@ -721,10 +721,10 @@
         <v>46082.1223157025</v>
       </c>
       <c r="E11" t="n">
-        <v>59889.3602301461</v>
+        <v>59806.6295152657</v>
       </c>
       <c r="F11" t="n">
-        <v>62400.611716038</v>
+        <v>62607.8348206132</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -733,7 +733,7 @@
         <v>44438</v>
       </c>
       <c r="I11" t="n">
-        <v>9045.78192751148</v>
+        <v>9052.56627332485</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -744,7 +744,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>53810.4734542399</v>
+        <v>53831.9317275381</v>
       </c>
       <c r="C12" t="n">
         <v>48824.2608354331</v>
@@ -765,7 +765,7 @@
         <v>45305</v>
       </c>
       <c r="I12" t="n">
-        <v>8505.47345423993</v>
+        <v>8526.93172753807</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -776,7 +776,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>53088.367083323</v>
+        <v>53116.2908240343</v>
       </c>
       <c r="C13" t="n">
         <v>48229.4492736501</v>
@@ -797,7 +797,7 @@
         <v>44696</v>
       </c>
       <c r="I13" t="n">
-        <v>8392.36708332301</v>
+        <v>8420.29082403432</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -808,7 +808,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>50357.414431917</v>
+        <v>50375.1737232324</v>
       </c>
       <c r="C14" t="n">
         <v>44552.7520433622</v>
@@ -817,10 +817,10 @@
         <v>42299.4651063399</v>
       </c>
       <c r="E14" t="n">
-        <v>57110.7580892624</v>
+        <v>57033.6725959699</v>
       </c>
       <c r="F14" t="n">
-        <v>60203.3502927919</v>
+        <v>60406.8508024676</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -829,7 +829,7 @@
         <v>40079</v>
       </c>
       <c r="I14" t="n">
-        <v>10278.414431917</v>
+        <v>10296.1737232324</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -840,19 +840,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>44987.7060061212</v>
+        <v>44877.0415480318</v>
       </c>
       <c r="C15" t="n">
-        <v>40109.0107071541</v>
+        <v>39493.7625990074</v>
       </c>
       <c r="D15" t="n">
-        <v>37215.3062050397</v>
+        <v>36620.7555123896</v>
       </c>
       <c r="E15" t="n">
-        <v>50883.8122119177</v>
+        <v>50538.1119257871</v>
       </c>
       <c r="F15" t="n">
-        <v>53412.5514685131</v>
+        <v>53076.3055806049</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -861,7 +861,7 @@
         <v>33615</v>
       </c>
       <c r="I15" t="n">
-        <v>11372.7060061212</v>
+        <v>11262.0415480318</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -872,13 +872,13 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>59001.4706799518</v>
+        <v>58919.2553935056</v>
       </c>
       <c r="C16" t="n">
-        <v>49794.6593195035</v>
+        <v>49638.4110313454</v>
       </c>
       <c r="D16" t="n">
-        <v>46642.4770281913</v>
+        <v>46608.2517880631</v>
       </c>
       <c r="E16" t="n">
         <v>66532.1843046805</v>
@@ -893,7 +893,7 @@
         <v>50682</v>
       </c>
       <c r="I16" t="n">
-        <v>8319.47067995181</v>
+        <v>8237.25539350563</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -904,13 +904,13 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>56995.7399326532</v>
+        <v>56864.8590570676</v>
       </c>
       <c r="C17" t="n">
-        <v>48754.9657962342</v>
+        <v>48512.9752276283</v>
       </c>
       <c r="D17" t="n">
-        <v>46340.0548981927</v>
+        <v>45926.8012163</v>
       </c>
       <c r="E17" t="n">
         <v>64384.2199971817</v>
@@ -925,7 +925,7 @@
         <v>49113</v>
       </c>
       <c r="I17" t="n">
-        <v>7882.73993265318</v>
+        <v>7751.85905706759</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -936,13 +936,13 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>59182.9659609409</v>
+        <v>59123.4642480049</v>
       </c>
       <c r="C18" t="n">
-        <v>50275.992745793</v>
+        <v>50097.5266750737</v>
       </c>
       <c r="D18" t="n">
-        <v>47950.9134512476</v>
+        <v>48019.1181431368</v>
       </c>
       <c r="E18" t="n">
         <v>67617.9095646332</v>
@@ -957,7 +957,7 @@
         <v>47999</v>
       </c>
       <c r="I18" t="n">
-        <v>11183.9659609409</v>
+        <v>11124.4642480049</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -968,13 +968,13 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>57873.9334537816</v>
+        <v>57865.9146749818</v>
       </c>
       <c r="C19" t="n">
-        <v>49313.9740484322</v>
+        <v>49130.6985454978</v>
       </c>
       <c r="D19" t="n">
-        <v>47257.483155954</v>
+        <v>46975.9889889691</v>
       </c>
       <c r="E19" t="n">
         <v>66198.4710972764</v>
@@ -989,7 +989,7 @@
         <v>47423</v>
       </c>
       <c r="I19" t="n">
-        <v>10450.9334537816</v>
+        <v>10442.9146749818</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1000,13 +1000,13 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>61253.9628355162</v>
+        <v>61241.0936174398</v>
       </c>
       <c r="C20" t="n">
-        <v>52189.1432586728</v>
+        <v>52184.0019221491</v>
       </c>
       <c r="D20" t="n">
-        <v>49579.6121437197</v>
+        <v>49391.0500648189</v>
       </c>
       <c r="E20" t="n">
         <v>70733.0145551571</v>
@@ -1021,7 +1021,7 @@
         <v>51531</v>
       </c>
       <c r="I20" t="n">
-        <v>9722.96283551615</v>
+        <v>9710.09361743976</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1032,13 +1032,13 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>60798.843755685</v>
+        <v>60759.6737059826</v>
       </c>
       <c r="C21" t="n">
-        <v>51986.4430106353</v>
+        <v>51787.4509278864</v>
       </c>
       <c r="D21" t="n">
-        <v>49590.6680903535</v>
+        <v>49464.8868088423</v>
       </c>
       <c r="E21" t="n">
         <v>70924.6690226764</v>
@@ -1053,7 +1053,7 @@
         <v>46091</v>
       </c>
       <c r="I21" t="n">
-        <v>14707.843755685</v>
+        <v>14668.6737059826</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1064,13 +1064,13 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>59319.5112787108</v>
+        <v>59334.1815641534</v>
       </c>
       <c r="C22" t="n">
-        <v>51791.6002604188</v>
+        <v>51770.1963604418</v>
       </c>
       <c r="D22" t="n">
-        <v>49609.85048724</v>
+        <v>49524.175585873</v>
       </c>
       <c r="E22" t="n">
         <v>69199.4319986054</v>
@@ -1085,7 +1085,7 @@
         <v>45792</v>
       </c>
       <c r="I22" t="n">
-        <v>13527.5112787108</v>
+        <v>13542.1815641534</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1096,7 +1096,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>56979.691836963</v>
+        <v>56981.3524785629</v>
       </c>
       <c r="C23" t="n">
         <v>49699.7484244802</v>
@@ -1117,7 +1117,7 @@
         <v>40900</v>
       </c>
       <c r="I23" t="n">
-        <v>16079.691836963</v>
+        <v>16081.3524785629</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1128,7 +1128,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>57364.8443871592</v>
+        <v>57393.7477228114</v>
       </c>
       <c r="C24" t="n">
         <v>49950.2989302681</v>
@@ -1149,7 +1149,7 @@
         <v>42174</v>
       </c>
       <c r="I24" t="n">
-        <v>15190.8443871592</v>
+        <v>15219.7477228114</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1160,7 +1160,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>56694.0032561187</v>
+        <v>56727.6052436585</v>
       </c>
       <c r="C25" t="n">
         <v>49637.2578398367</v>
@@ -1181,7 +1181,7 @@
         <v>42321</v>
       </c>
       <c r="I25" t="n">
-        <v>14373.0032561187</v>
+        <v>14406.6052436585</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1192,7 +1192,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>54041.4722932974</v>
+        <v>54078.3799783448</v>
       </c>
       <c r="C26" t="n">
         <v>45361.0920067404</v>
@@ -1213,7 +1213,7 @@
         <v>39586</v>
       </c>
       <c r="I26" t="n">
-        <v>14455.4722932974</v>
+        <v>14492.3799783448</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1224,7 +1224,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>49106.2780234168</v>
+        <v>49036.3748764608</v>
       </c>
       <c r="C27" t="n">
         <v>41553.0617260608</v>
@@ -1245,7 +1245,7 @@
         <v>34683</v>
       </c>
       <c r="I27" t="n">
-        <v>14423.2780234168</v>
+        <v>14353.3748764608</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1256,13 +1256,13 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>62633.1271664431</v>
+        <v>62578.6187859992</v>
       </c>
       <c r="C28" t="n">
-        <v>51758.585670421</v>
+        <v>51629.3006580522</v>
       </c>
       <c r="D28" t="n">
-        <v>48000.6757073943</v>
+        <v>47959.7473417696</v>
       </c>
       <c r="E28" t="n">
         <v>76192.8652084955</v>
@@ -1277,7 +1277,7 @@
         <v>46978</v>
       </c>
       <c r="I28" t="n">
-        <v>15655.1271664431</v>
+        <v>15600.6187859992</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1288,13 +1288,13 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>60507.4467751205</v>
+        <v>60342.3392906831</v>
       </c>
       <c r="C29" t="n">
-        <v>50070.208893789</v>
+        <v>49693.4992795452</v>
       </c>
       <c r="D29" t="n">
-        <v>47608.9548603028</v>
+        <v>46890.4675071195</v>
       </c>
       <c r="E29" t="n">
         <v>73995.010460374</v>
@@ -1309,7 +1309,7 @@
         <v>39513</v>
       </c>
       <c r="I29" t="n">
-        <v>20994.4467751205</v>
+        <v>20829.3392906831</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1320,13 +1320,13 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>62723.4521208134</v>
+        <v>62677.9537925539</v>
       </c>
       <c r="C30" t="n">
-        <v>51972.1437596468</v>
+        <v>51865.9066446398</v>
       </c>
       <c r="D30" t="n">
-        <v>49119.149641174</v>
+        <v>48928.8678881641</v>
       </c>
       <c r="E30" t="n">
         <v>77586.8841735568</v>
@@ -1341,7 +1341,7 @@
         <v>43751</v>
       </c>
       <c r="I30" t="n">
-        <v>18972.4521208134</v>
+        <v>18926.9537925539</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1352,13 +1352,13 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>61414.8912375131</v>
+        <v>61381.4170032993</v>
       </c>
       <c r="C31" t="n">
-        <v>51271.4056697296</v>
+        <v>50966.4554825506</v>
       </c>
       <c r="D31" t="n">
-        <v>48525.7324722195</v>
+        <v>48302.1117238534</v>
       </c>
       <c r="E31" t="n">
         <v>76164.944312686</v>
@@ -1373,7 +1373,7 @@
         <v>48507</v>
       </c>
       <c r="I31" t="n">
-        <v>12907.8912375131</v>
+        <v>12874.4170032993</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1384,13 +1384,13 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>64612.9450016815</v>
+        <v>64593.458062834</v>
       </c>
       <c r="C32" t="n">
-        <v>53146.2940829215</v>
+        <v>52900.4000173944</v>
       </c>
       <c r="D32" t="n">
-        <v>50361.486517917</v>
+        <v>50222.9814298912</v>
       </c>
       <c r="E32" t="n">
         <v>81153.0563826827</v>
@@ -1405,7 +1405,7 @@
         <v>51391</v>
       </c>
       <c r="I32" t="n">
-        <v>13221.9450016815</v>
+        <v>13202.458062834</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1416,13 +1416,13 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>64108.846078026</v>
+        <v>64075.3928887673</v>
       </c>
       <c r="C33" t="n">
-        <v>52789.8394041067</v>
+        <v>52482.2806734703</v>
       </c>
       <c r="D33" t="n">
-        <v>49921.1852348977</v>
+        <v>49734.6384747389</v>
       </c>
       <c r="E33" t="n">
         <v>81461.9155220833</v>
@@ -1437,7 +1437,7 @@
         <v>50482</v>
       </c>
       <c r="I33" t="n">
-        <v>13626.846078026</v>
+        <v>13593.3928887673</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1448,10 +1448,10 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>62637.9784520456</v>
+        <v>62648.126492201</v>
       </c>
       <c r="C34" t="n">
-        <v>52871.2844720708</v>
+        <v>52671.7780907208</v>
       </c>
       <c r="D34" t="n">
         <v>48283.2720274896</v>
@@ -1469,7 +1469,7 @@
         <v>44470</v>
       </c>
       <c r="I34" t="n">
-        <v>18167.9784520456</v>
+        <v>18178.126492201</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1480,7 +1480,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>60193.6609525188</v>
+        <v>60184.6026306049</v>
       </c>
       <c r="C35" t="n">
         <v>49598.1732429746</v>
@@ -1501,7 +1501,7 @@
         <v>39054</v>
       </c>
       <c r="I35" t="n">
-        <v>21139.6609525188</v>
+        <v>21130.6026306049</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1512,7 +1512,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>60653.1068976225</v>
+        <v>60675.5428037335</v>
       </c>
       <c r="C36" t="n">
         <v>49765.8472690127</v>
@@ -1533,7 +1533,7 @@
         <v>35152</v>
       </c>
       <c r="I36" t="n">
-        <v>25501.1068976225</v>
+        <v>25523.5428037335</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1544,7 +1544,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>60011.3627591091</v>
+        <v>60031.1910642567</v>
       </c>
       <c r="C37" t="n">
         <v>49458.8663957655</v>
@@ -1565,7 +1565,7 @@
         <v>24367</v>
       </c>
       <c r="I37" t="n">
-        <v>35644.3627591091</v>
+        <v>35664.1910642567</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1576,7 +1576,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>57330.1448621323</v>
+        <v>57364.020579266</v>
       </c>
       <c r="C38" t="n">
         <v>45039.7566473363</v>
@@ -1597,7 +1597,7 @@
         <v>28708</v>
       </c>
       <c r="I38" t="n">
-        <v>28622.1448621323</v>
+        <v>28656.020579266</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1608,7 +1608,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>52762.0189442643</v>
+        <v>52752.3143768248</v>
       </c>
       <c r="C39" t="n">
         <v>41181.4758393076</v>
@@ -1629,7 +1629,7 @@
         <v>43574</v>
       </c>
       <c r="I39" t="n">
-        <v>9188.01894426429</v>
+        <v>9178.31437682476</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1640,10 +1640,10 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>65863.4563335257</v>
+        <v>65834.2323540432</v>
       </c>
       <c r="C40" t="n">
-        <v>52555.1427721779</v>
+        <v>52324.9025529785</v>
       </c>
       <c r="D40" t="n">
         <v>48906.0606449462</v>
@@ -1661,7 +1661,7 @@
         <v>49855</v>
       </c>
       <c r="I40" t="n">
-        <v>16008.4563335257</v>
+        <v>15979.2323540432</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1672,10 +1672,10 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>63733.0508239726</v>
+        <v>63602.059682333</v>
       </c>
       <c r="C41" t="n">
-        <v>51929.7796698681</v>
+        <v>51647.036593035</v>
       </c>
       <c r="D41" t="n">
         <v>46513.8093175268</v>
@@ -1693,7 +1693,7 @@
         <v>48926</v>
       </c>
       <c r="I41" t="n">
-        <v>14807.0508239726</v>
+        <v>14676.059682333</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1704,10 +1704,10 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>65989.6534345626</v>
+        <v>65976.4073627165</v>
       </c>
       <c r="C42" t="n">
-        <v>53047.2937315806</v>
+        <v>52870.6715846101</v>
       </c>
       <c r="D42" t="n">
         <v>48119.7414270635</v>
@@ -1725,7 +1725,7 @@
         <v>53258</v>
       </c>
       <c r="I42" t="n">
-        <v>12731.6534345626</v>
+        <v>12718.4073627165</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1736,10 +1736,10 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>64704.1880392358</v>
+        <v>64658.089745557</v>
       </c>
       <c r="C43" t="n">
-        <v>52453.1266963323</v>
+        <v>52308.4488349807</v>
       </c>
       <c r="D43" t="n">
         <v>46764.7123524945</v>
@@ -1757,7 +1757,7 @@
         <v>52007</v>
       </c>
       <c r="I43" t="n">
-        <v>12697.1880392358</v>
+        <v>12651.089745557</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1768,10 +1768,10 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>67850.4304606734</v>
+        <v>67838.3330456273</v>
       </c>
       <c r="C44" t="n">
-        <v>53376.8191447006</v>
+        <v>53060.7347435344</v>
       </c>
       <c r="D44" t="n">
         <v>49358.7644875962</v>
@@ -1789,7 +1789,7 @@
         <v>58247</v>
       </c>
       <c r="I44" t="n">
-        <v>9603.43046067336</v>
+        <v>9591.33304562733</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1800,10 +1800,10 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>67332.463216341</v>
+        <v>67298.3204880051</v>
       </c>
       <c r="C45" t="n">
-        <v>53618.8300655382</v>
+        <v>53128.2230178537</v>
       </c>
       <c r="D45" t="n">
         <v>48200.8365547368</v>
@@ -1821,7 +1821,7 @@
         <v>61068</v>
       </c>
       <c r="I45" t="n">
-        <v>6264.46321634097</v>
+        <v>6230.32048800515</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1832,7 +1832,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>65819.969084813</v>
+        <v>65823.2641768403</v>
       </c>
       <c r="C46" t="n">
         <v>52048.556326278</v>
@@ -1853,7 +1853,7 @@
         <v>55767</v>
       </c>
       <c r="I46" t="n">
-        <v>10052.969084813</v>
+        <v>10056.2641768403</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1864,7 +1864,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>63276.9550409783</v>
+        <v>63257.3249657043</v>
       </c>
       <c r="C47" t="n">
         <v>48720.3124778242</v>
@@ -1885,7 +1885,7 @@
         <v>56981</v>
       </c>
       <c r="I47" t="n">
-        <v>6295.95504097828</v>
+        <v>6276.32496570428</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1896,7 +1896,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>63784.2188621669</v>
+        <v>63795.5800737923</v>
       </c>
       <c r="C48" t="n">
         <v>48838.3729652722</v>
@@ -1917,7 +1917,7 @@
         <v>57719</v>
       </c>
       <c r="I48" t="n">
-        <v>6065.21886216692</v>
+        <v>6076.58007379228</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1928,7 +1928,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>63134.5711815639</v>
+        <v>63135.8908141192</v>
       </c>
       <c r="C49" t="n">
         <v>48488.6113361646</v>
@@ -1949,7 +1949,7 @@
         <v>50823</v>
       </c>
       <c r="I49" t="n">
-        <v>12311.5711815639</v>
+        <v>12312.8908141192</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/Syphilis.xlsx
+++ b/outcome/appendix/forecast/Syphilis.xlsx
@@ -424,7 +424,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>46587.3723067849</v>
+        <v>46649.1624204744</v>
       </c>
       <c r="C2" t="n">
         <v>41818.6623182063</v>
@@ -433,10 +433,10 @@
         <v>40194.5247681668</v>
       </c>
       <c r="E2" t="n">
-        <v>51196.1892930378</v>
+        <v>51445.2250966457</v>
       </c>
       <c r="F2" t="n">
-        <v>53708.3527843201</v>
+        <v>53958.1517477369</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -445,7 +445,7 @@
         <v>39671</v>
       </c>
       <c r="I2" t="n">
-        <v>6916.3723067849</v>
+        <v>6978.16242047436</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -456,13 +456,13 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>40880.0398238708</v>
+        <v>41024.1673566663</v>
       </c>
       <c r="C3" t="n">
-        <v>35398.2597798799</v>
+        <v>35850.5148174316</v>
       </c>
       <c r="D3" t="n">
-        <v>33753.3437526218</v>
+        <v>34190.9419471408</v>
       </c>
       <c r="E3" t="n">
         <v>45461.8541393762</v>
@@ -477,7 +477,7 @@
         <v>21448</v>
       </c>
       <c r="I3" t="n">
-        <v>19432.0398238708</v>
+        <v>19576.1673566663</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -488,13 +488,13 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>54961.0256676177</v>
+        <v>54988.4709930327</v>
       </c>
       <c r="C4" t="n">
-        <v>48019.6394282117</v>
+        <v>47950.3404474335</v>
       </c>
       <c r="D4" t="n">
-        <v>46041.6316924572</v>
+        <v>46142.8420779734</v>
       </c>
       <c r="E4" t="n">
         <v>60193.6133037065</v>
@@ -509,7 +509,7 @@
         <v>41154</v>
       </c>
       <c r="I4" t="n">
-        <v>13807.0256676177</v>
+        <v>13834.4709930327</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -520,13 +520,13 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>53208.8556693793</v>
+        <v>53263.123141972</v>
       </c>
       <c r="C5" t="n">
-        <v>47627.8956849143</v>
+        <v>47566.6549984256</v>
       </c>
       <c r="D5" t="n">
-        <v>45702.5029661378</v>
+        <v>45530.8522285033</v>
       </c>
       <c r="E5" t="n">
         <v>57955.9300789496</v>
@@ -541,7 +541,7 @@
         <v>46728</v>
       </c>
       <c r="I5" t="n">
-        <v>6480.85566937931</v>
+        <v>6535.12314197204</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -552,13 +552,13 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>55380.1398370414</v>
+        <v>55431.350149374</v>
       </c>
       <c r="C6" t="n">
-        <v>49221.533962318</v>
+        <v>48949.5038819658</v>
       </c>
       <c r="D6" t="n">
-        <v>46762.9630901841</v>
+        <v>46603.3655912602</v>
       </c>
       <c r="E6" t="n">
         <v>60802.5866876494</v>
@@ -573,7 +573,7 @@
         <v>46753</v>
       </c>
       <c r="I6" t="n">
-        <v>8627.13983704143</v>
+        <v>8678.35014937395</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -584,13 +584,13 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>54132.1549147528</v>
+        <v>54153.2448277687</v>
       </c>
       <c r="C7" t="n">
-        <v>47326.3808502299</v>
+        <v>47426.394781037</v>
       </c>
       <c r="D7" t="n">
-        <v>45042.5042915925</v>
+        <v>45175.4338193836</v>
       </c>
       <c r="E7" t="n">
         <v>60074.3960198284</v>
@@ -605,7 +605,7 @@
         <v>46538</v>
       </c>
       <c r="I7" t="n">
-        <v>7594.15491475281</v>
+        <v>7615.24482776872</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -616,13 +616,13 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>57788.9304815289</v>
+        <v>57784.1672495928</v>
       </c>
       <c r="C8" t="n">
-        <v>51550.2617191523</v>
+        <v>51717.9770923236</v>
       </c>
       <c r="D8" t="n">
-        <v>49648.3170404454</v>
+        <v>49807.1668908026</v>
       </c>
       <c r="E8" t="n">
         <v>63179.2359659769</v>
@@ -637,7 +637,7 @@
         <v>46838</v>
       </c>
       <c r="I8" t="n">
-        <v>10950.9304815289</v>
+        <v>10946.1672495928</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -648,13 +648,13 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>57336.3867463526</v>
+        <v>57516.4052016237</v>
       </c>
       <c r="C9" t="n">
-        <v>51043.3584047773</v>
+        <v>51628.3300863825</v>
       </c>
       <c r="D9" t="n">
-        <v>48617.7999808013</v>
+        <v>49093.1446565781</v>
       </c>
       <c r="E9" t="n">
         <v>62975.8556605989</v>
@@ -669,7 +669,7 @@
         <v>46838</v>
       </c>
       <c r="I9" t="n">
-        <v>10498.3867463526</v>
+        <v>10678.4052016237</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -680,13 +680,13 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>55811.7721773807</v>
+        <v>55916.3280829103</v>
       </c>
       <c r="C10" t="n">
-        <v>50993.9086660262</v>
+        <v>50898.239109095</v>
       </c>
       <c r="D10" t="n">
-        <v>48528.0208235751</v>
+        <v>48691.4725085667</v>
       </c>
       <c r="E10" t="n">
         <v>61174.5869480688</v>
@@ -701,7 +701,7 @@
         <v>48965</v>
       </c>
       <c r="I10" t="n">
-        <v>6846.77217738073</v>
+        <v>6951.32808291035</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -712,7 +712,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>53490.5662733249</v>
+        <v>53563.8407685408</v>
       </c>
       <c r="C11" t="n">
         <v>48429.5189713469</v>
@@ -721,10 +721,10 @@
         <v>46082.1223157025</v>
       </c>
       <c r="E11" t="n">
-        <v>59806.6295152657</v>
+        <v>60093.2702271684</v>
       </c>
       <c r="F11" t="n">
-        <v>62607.8348206132</v>
+        <v>62656.3480668785</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -733,7 +733,7 @@
         <v>44438</v>
       </c>
       <c r="I11" t="n">
-        <v>9052.56627332485</v>
+        <v>9125.84076854081</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -744,7 +744,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>53831.9317275381</v>
+        <v>53908.1742367864</v>
       </c>
       <c r="C12" t="n">
         <v>48824.2608354331</v>
@@ -765,7 +765,7 @@
         <v>45305</v>
       </c>
       <c r="I12" t="n">
-        <v>8526.93172753807</v>
+        <v>8603.17423678641</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -776,7 +776,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>53116.2908240343</v>
+        <v>53156.6407484443</v>
       </c>
       <c r="C13" t="n">
         <v>48229.4492736501</v>
@@ -797,7 +797,7 @@
         <v>44696</v>
       </c>
       <c r="I13" t="n">
-        <v>8420.29082403432</v>
+        <v>8460.64074844428</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -808,7 +808,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>50375.1737232324</v>
+        <v>50465.8000428524</v>
       </c>
       <c r="C14" t="n">
         <v>44552.7520433622</v>
@@ -817,10 +817,10 @@
         <v>42299.4651063399</v>
       </c>
       <c r="E14" t="n">
-        <v>57033.6725959699</v>
+        <v>57223.1510253981</v>
       </c>
       <c r="F14" t="n">
-        <v>60406.8508024676</v>
+        <v>60323.4246857017</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -829,7 +829,7 @@
         <v>40079</v>
       </c>
       <c r="I14" t="n">
-        <v>10296.1737232324</v>
+        <v>10386.8000428524</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -840,19 +840,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>44877.0415480318</v>
+        <v>45109.2965104059</v>
       </c>
       <c r="C15" t="n">
-        <v>39493.7625990074</v>
+        <v>40086.4830886189</v>
       </c>
       <c r="D15" t="n">
-        <v>36620.7555123896</v>
+        <v>37493.7934811689</v>
       </c>
       <c r="E15" t="n">
-        <v>50538.1119257871</v>
+        <v>50874.637404929</v>
       </c>
       <c r="F15" t="n">
-        <v>53076.3055806049</v>
+        <v>53387.7708924639</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -861,7 +861,7 @@
         <v>33615</v>
       </c>
       <c r="I15" t="n">
-        <v>11262.0415480318</v>
+        <v>11494.2965104059</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -872,13 +872,13 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>58919.2553935056</v>
+        <v>58860.0160737982</v>
       </c>
       <c r="C16" t="n">
-        <v>49638.4110313454</v>
+        <v>49887.7791649911</v>
       </c>
       <c r="D16" t="n">
-        <v>46608.2517880631</v>
+        <v>46784.7819113103</v>
       </c>
       <c r="E16" t="n">
         <v>66532.1843046805</v>
@@ -893,7 +893,7 @@
         <v>50682</v>
       </c>
       <c r="I16" t="n">
-        <v>8237.25539350563</v>
+        <v>8178.01607379819</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -904,13 +904,13 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>56864.8590570676</v>
+        <v>57033.3039588021</v>
       </c>
       <c r="C17" t="n">
-        <v>48512.9752276283</v>
+        <v>48759.157742888</v>
       </c>
       <c r="D17" t="n">
-        <v>45926.8012163</v>
+        <v>46138.5727773376</v>
       </c>
       <c r="E17" t="n">
         <v>64384.2199971817</v>
@@ -925,7 +925,7 @@
         <v>49113</v>
       </c>
       <c r="I17" t="n">
-        <v>7751.85905706759</v>
+        <v>7920.30395880213</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -936,13 +936,13 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>59123.4642480049</v>
+        <v>59284.9270899967</v>
       </c>
       <c r="C18" t="n">
-        <v>50097.5266750737</v>
+        <v>50182.6198700056</v>
       </c>
       <c r="D18" t="n">
-        <v>48019.1181431368</v>
+        <v>47720.544980106</v>
       </c>
       <c r="E18" t="n">
         <v>67617.9095646332</v>
@@ -957,7 +957,7 @@
         <v>47999</v>
       </c>
       <c r="I18" t="n">
-        <v>11124.4642480049</v>
+        <v>11285.9270899967</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -968,13 +968,13 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>57865.9146749818</v>
+        <v>57971.5643787989</v>
       </c>
       <c r="C19" t="n">
-        <v>49130.6985454978</v>
+        <v>49470.219544965</v>
       </c>
       <c r="D19" t="n">
-        <v>46975.9889889691</v>
+        <v>47269.0524939381</v>
       </c>
       <c r="E19" t="n">
         <v>66198.4710972764</v>
@@ -989,7 +989,7 @@
         <v>47423</v>
       </c>
       <c r="I19" t="n">
-        <v>10442.9146749818</v>
+        <v>10548.5643787989</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1000,13 +1000,13 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>61241.0936174398</v>
+        <v>61312.7233508724</v>
       </c>
       <c r="C20" t="n">
-        <v>52184.0019221491</v>
+        <v>52180.6505389934</v>
       </c>
       <c r="D20" t="n">
-        <v>49391.0500648189</v>
+        <v>49675.9275699048</v>
       </c>
       <c r="E20" t="n">
         <v>70733.0145551571</v>
@@ -1021,7 +1021,7 @@
         <v>51531</v>
       </c>
       <c r="I20" t="n">
-        <v>9710.09361743976</v>
+        <v>9781.72335087244</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1032,13 +1032,13 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>60759.6737059826</v>
+        <v>61023.4626535763</v>
       </c>
       <c r="C21" t="n">
-        <v>51787.4509278864</v>
+        <v>52535.2394231769</v>
       </c>
       <c r="D21" t="n">
-        <v>49464.8868088423</v>
+        <v>49974.7143224059</v>
       </c>
       <c r="E21" t="n">
         <v>70924.6690226764</v>
@@ -1053,7 +1053,7 @@
         <v>46091</v>
       </c>
       <c r="I21" t="n">
-        <v>14668.6737059826</v>
+        <v>14932.4626535763</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1064,13 +1064,13 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>59334.1815641534</v>
+        <v>59513.5138841581</v>
       </c>
       <c r="C22" t="n">
-        <v>51770.1963604418</v>
+        <v>51957.696180435</v>
       </c>
       <c r="D22" t="n">
-        <v>49524.175585873</v>
+        <v>49678.9100225075</v>
       </c>
       <c r="E22" t="n">
         <v>69199.4319986054</v>
@@ -1085,7 +1085,7 @@
         <v>45792</v>
       </c>
       <c r="I22" t="n">
-        <v>13542.1815641534</v>
+        <v>13721.5138841581</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1096,7 +1096,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>56981.3524785629</v>
+        <v>57157.4005655262</v>
       </c>
       <c r="C23" t="n">
         <v>49699.7484244802</v>
@@ -1117,7 +1117,7 @@
         <v>40900</v>
       </c>
       <c r="I23" t="n">
-        <v>16081.3524785629</v>
+        <v>16257.4005655262</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1128,7 +1128,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>57393.7477228114</v>
+        <v>57548.0697364212</v>
       </c>
       <c r="C24" t="n">
         <v>49950.2989302681</v>
@@ -1149,7 +1149,7 @@
         <v>42174</v>
       </c>
       <c r="I24" t="n">
-        <v>15219.7477228114</v>
+        <v>15374.0697364212</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1160,7 +1160,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>56727.6052436585</v>
+        <v>56847.3139091566</v>
       </c>
       <c r="C25" t="n">
         <v>49637.2578398367</v>
@@ -1181,7 +1181,7 @@
         <v>42321</v>
       </c>
       <c r="I25" t="n">
-        <v>14406.6052436585</v>
+        <v>14526.3139091566</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1192,7 +1192,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>54078.3799783448</v>
+        <v>54211.8743772871</v>
       </c>
       <c r="C26" t="n">
         <v>45361.0920067404</v>
@@ -1213,7 +1213,7 @@
         <v>39586</v>
       </c>
       <c r="I26" t="n">
-        <v>14492.3799783448</v>
+        <v>14625.8743772871</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1224,7 +1224,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>49036.3748764608</v>
+        <v>49269.517726622</v>
       </c>
       <c r="C27" t="n">
         <v>41553.0617260608</v>
@@ -1245,7 +1245,7 @@
         <v>34683</v>
       </c>
       <c r="I27" t="n">
-        <v>14353.3748764608</v>
+        <v>14586.517726622</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1256,13 +1256,13 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>62578.6187859992</v>
+        <v>62483.4057875622</v>
       </c>
       <c r="C28" t="n">
-        <v>51629.3006580522</v>
+        <v>51996.089213864</v>
       </c>
       <c r="D28" t="n">
-        <v>47959.7473417696</v>
+        <v>48053.9115355766</v>
       </c>
       <c r="E28" t="n">
         <v>76192.8652084955</v>
@@ -1277,7 +1277,7 @@
         <v>46978</v>
       </c>
       <c r="I28" t="n">
-        <v>15600.6187859992</v>
+        <v>15505.4057875622</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1288,13 +1288,13 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>60342.3392906831</v>
+        <v>60571.2109620281</v>
       </c>
       <c r="C29" t="n">
-        <v>49693.4992795452</v>
+        <v>50169.9119788652</v>
       </c>
       <c r="D29" t="n">
-        <v>46890.4675071195</v>
+        <v>47473.7012500342</v>
       </c>
       <c r="E29" t="n">
         <v>73995.010460374</v>
@@ -1309,7 +1309,7 @@
         <v>39513</v>
       </c>
       <c r="I29" t="n">
-        <v>20829.3392906831</v>
+        <v>21058.2109620281</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1320,13 +1320,13 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>62677.9537925539</v>
+        <v>62880.9157796444</v>
       </c>
       <c r="C30" t="n">
-        <v>51865.9066446398</v>
+        <v>52055.0751142071</v>
       </c>
       <c r="D30" t="n">
-        <v>48928.8678881641</v>
+        <v>49206.3335521717</v>
       </c>
       <c r="E30" t="n">
         <v>77586.8841735568</v>
@@ -1341,7 +1341,7 @@
         <v>43751</v>
       </c>
       <c r="I30" t="n">
-        <v>18926.9537925539</v>
+        <v>19129.9157796444</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1352,13 +1352,13 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>61381.4170032993</v>
+        <v>61587.7460867421</v>
       </c>
       <c r="C31" t="n">
-        <v>50966.4554825506</v>
+        <v>51622.9064852889</v>
       </c>
       <c r="D31" t="n">
-        <v>48302.1117238534</v>
+        <v>48603.7991409992</v>
       </c>
       <c r="E31" t="n">
         <v>76164.944312686</v>
@@ -1373,7 +1373,7 @@
         <v>48507</v>
       </c>
       <c r="I31" t="n">
-        <v>12874.4170032993</v>
+        <v>13080.7460867421</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1384,13 +1384,13 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>64593.458062834</v>
+        <v>64732.2886840289</v>
       </c>
       <c r="C32" t="n">
-        <v>52900.4000173944</v>
+        <v>53261.4220517634</v>
       </c>
       <c r="D32" t="n">
-        <v>50222.9814298912</v>
+        <v>50463.8347102922</v>
       </c>
       <c r="E32" t="n">
         <v>81153.0563826827</v>
@@ -1405,7 +1405,7 @@
         <v>51391</v>
       </c>
       <c r="I32" t="n">
-        <v>13202.458062834</v>
+        <v>13341.2886840289</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1416,13 +1416,13 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>64075.3928887673</v>
+        <v>64393.0203422955</v>
       </c>
       <c r="C33" t="n">
-        <v>52482.2806734703</v>
+        <v>53404.6292136298</v>
       </c>
       <c r="D33" t="n">
-        <v>49734.6384747389</v>
+        <v>50117.1070681487</v>
       </c>
       <c r="E33" t="n">
         <v>81461.9155220833</v>
@@ -1437,7 +1437,7 @@
         <v>50482</v>
       </c>
       <c r="I33" t="n">
-        <v>13593.3928887673</v>
+        <v>13911.0203422955</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1448,10 +1448,10 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>62648.126492201</v>
+        <v>62873.9521806226</v>
       </c>
       <c r="C34" t="n">
-        <v>52671.7780907208</v>
+        <v>52905.550318871</v>
       </c>
       <c r="D34" t="n">
         <v>48283.2720274896</v>
@@ -1469,7 +1469,7 @@
         <v>44470</v>
       </c>
       <c r="I34" t="n">
-        <v>18178.126492201</v>
+        <v>18403.9521806226</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1480,7 +1480,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>60184.6026306049</v>
+        <v>60453.1305579744</v>
       </c>
       <c r="C35" t="n">
         <v>49598.1732429746</v>
@@ -1501,7 +1501,7 @@
         <v>39054</v>
       </c>
       <c r="I35" t="n">
-        <v>21130.6026306049</v>
+        <v>21399.1305579744</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1512,7 +1512,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>60675.5428037335</v>
+        <v>60900.7170163572</v>
       </c>
       <c r="C36" t="n">
         <v>49765.8472690127</v>
@@ -1533,7 +1533,7 @@
         <v>35152</v>
       </c>
       <c r="I36" t="n">
-        <v>25523.5428037335</v>
+        <v>25748.7170163572</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1544,7 +1544,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>60031.1910642567</v>
+        <v>60243.7285478673</v>
       </c>
       <c r="C37" t="n">
         <v>49458.8663957655</v>
@@ -1565,7 +1565,7 @@
         <v>24367</v>
       </c>
       <c r="I37" t="n">
-        <v>35664.1910642567</v>
+        <v>35876.7285478673</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1576,7 +1576,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>57364.020579266</v>
+        <v>57564.4543609717</v>
       </c>
       <c r="C38" t="n">
         <v>45039.7566473363</v>
@@ -1597,7 +1597,7 @@
         <v>28708</v>
       </c>
       <c r="I38" t="n">
-        <v>28656.020579266</v>
+        <v>28856.4543609717</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1608,7 +1608,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>52752.3143768248</v>
+        <v>52966.1967117177</v>
       </c>
       <c r="C39" t="n">
         <v>41181.4758393076</v>
@@ -1629,7 +1629,7 @@
         <v>43574</v>
       </c>
       <c r="I39" t="n">
-        <v>9178.31437682476</v>
+        <v>9392.19671171766</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1640,10 +1640,10 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>65834.2323540432</v>
+        <v>65831.5774268439</v>
       </c>
       <c r="C40" t="n">
-        <v>52324.9025529785</v>
+        <v>53058.5569678464</v>
       </c>
       <c r="D40" t="n">
         <v>48906.0606449462</v>
@@ -1661,7 +1661,7 @@
         <v>49855</v>
       </c>
       <c r="I40" t="n">
-        <v>15979.2323540432</v>
+        <v>15976.5774268439</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1672,10 +1672,10 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>63602.059682333</v>
+        <v>63889.4288247075</v>
       </c>
       <c r="C41" t="n">
-        <v>51647.036593035</v>
+        <v>51929.7796698681</v>
       </c>
       <c r="D41" t="n">
         <v>46513.8093175268</v>
@@ -1693,7 +1693,7 @@
         <v>48926</v>
       </c>
       <c r="I41" t="n">
-        <v>14676.059682333</v>
+        <v>14963.4288247075</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1704,10 +1704,10 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>65976.4073627165</v>
+        <v>66172.8034590741</v>
       </c>
       <c r="C42" t="n">
-        <v>52870.6715846101</v>
+        <v>53481.6023752737</v>
       </c>
       <c r="D42" t="n">
         <v>48119.7414270635</v>
@@ -1725,7 +1725,7 @@
         <v>53258</v>
       </c>
       <c r="I42" t="n">
-        <v>12718.4073627165</v>
+        <v>12914.8034590741</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1736,10 +1736,10 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>64658.089745557</v>
+        <v>64949.5050701624</v>
       </c>
       <c r="C43" t="n">
-        <v>52308.4488349807</v>
+        <v>52453.1266963323</v>
       </c>
       <c r="D43" t="n">
         <v>46764.7123524945</v>
@@ -1757,7 +1757,7 @@
         <v>52007</v>
       </c>
       <c r="I43" t="n">
-        <v>12651.089745557</v>
+        <v>12942.5050701624</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1768,10 +1768,10 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>67838.3330456273</v>
+        <v>68030.544605018</v>
       </c>
       <c r="C44" t="n">
-        <v>53060.7347435344</v>
+        <v>53922.1034220889</v>
       </c>
       <c r="D44" t="n">
         <v>49358.7644875962</v>
@@ -1789,7 +1789,7 @@
         <v>58247</v>
       </c>
       <c r="I44" t="n">
-        <v>9591.33304562733</v>
+        <v>9783.54460501796</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1800,10 +1800,10 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>67298.3204880051</v>
+        <v>67657.908422898</v>
       </c>
       <c r="C45" t="n">
-        <v>53128.2230178537</v>
+        <v>54062.4859667061</v>
       </c>
       <c r="D45" t="n">
         <v>48200.8365547368</v>
@@ -1821,7 +1821,7 @@
         <v>61068</v>
       </c>
       <c r="I45" t="n">
-        <v>6230.32048800515</v>
+        <v>6589.90842289804</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1832,7 +1832,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>65823.2641768403</v>
+        <v>66086.1944633341</v>
       </c>
       <c r="C46" t="n">
         <v>52048.556326278</v>
@@ -1853,7 +1853,7 @@
         <v>55767</v>
       </c>
       <c r="I46" t="n">
-        <v>10056.2641768403</v>
+        <v>10319.1944633341</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1864,7 +1864,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>63257.3249657043</v>
+        <v>63594.206915328</v>
       </c>
       <c r="C47" t="n">
         <v>48720.3124778242</v>
@@ -1885,7 +1885,7 @@
         <v>56981</v>
       </c>
       <c r="I47" t="n">
-        <v>6276.32496570428</v>
+        <v>6613.20691532803</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1896,7 +1896,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>63795.5800737923</v>
+        <v>64076.8035180231</v>
       </c>
       <c r="C48" t="n">
         <v>48838.3729652722</v>
@@ -1917,7 +1917,7 @@
         <v>57719</v>
       </c>
       <c r="I48" t="n">
-        <v>6076.58007379228</v>
+        <v>6357.80351802315</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1928,7 +1928,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>63135.8908141192</v>
+        <v>63429.5279724667</v>
       </c>
       <c r="C49" t="n">
         <v>48488.6113361646</v>
@@ -1949,7 +1949,7 @@
         <v>50823</v>
       </c>
       <c r="I49" t="n">
-        <v>12312.8908141192</v>
+        <v>12606.5279724667</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/Syphilis.xlsx
+++ b/outcome/appendix/forecast/Syphilis.xlsx
@@ -424,19 +424,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>46649.1624204744</v>
+        <v>47143.2748783615</v>
       </c>
       <c r="C2" t="n">
-        <v>41818.6623182063</v>
+        <v>44818.9340865679</v>
       </c>
       <c r="D2" t="n">
-        <v>40194.5247681668</v>
+        <v>43667.452518793</v>
       </c>
       <c r="E2" t="n">
-        <v>51445.2250966457</v>
+        <v>50190.7615374523</v>
       </c>
       <c r="F2" t="n">
-        <v>53958.1517477369</v>
+        <v>51096.4048619116</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -445,7 +445,7 @@
         <v>39671</v>
       </c>
       <c r="I2" t="n">
-        <v>6978.16242047436</v>
+        <v>7472.27487836148</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -456,19 +456,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>41024.1673566663</v>
+        <v>42940.2621192623</v>
       </c>
       <c r="C3" t="n">
-        <v>35850.5148174316</v>
+        <v>39967.1952699325</v>
       </c>
       <c r="D3" t="n">
-        <v>34190.9419471408</v>
+        <v>38026.7628134699</v>
       </c>
       <c r="E3" t="n">
-        <v>45461.8541393762</v>
+        <v>45289.4419549169</v>
       </c>
       <c r="F3" t="n">
-        <v>47067.808592536</v>
+        <v>46217.2305951615</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -477,7 +477,7 @@
         <v>21448</v>
       </c>
       <c r="I3" t="n">
-        <v>19576.1673566663</v>
+        <v>21492.2621192623</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -488,19 +488,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>54988.4709930327</v>
+        <v>54861.1237072725</v>
       </c>
       <c r="C4" t="n">
-        <v>47950.3404474335</v>
+        <v>51943.4146445864</v>
       </c>
       <c r="D4" t="n">
-        <v>46142.8420779734</v>
+        <v>50630.5184971274</v>
       </c>
       <c r="E4" t="n">
-        <v>60193.6133037065</v>
+        <v>57333.8672168224</v>
       </c>
       <c r="F4" t="n">
-        <v>62183.7645658037</v>
+        <v>58992.5860593265</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -509,7 +509,7 @@
         <v>41154</v>
       </c>
       <c r="I4" t="n">
-        <v>13834.4709930327</v>
+        <v>13707.1237072725</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -520,19 +520,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>53263.123141972</v>
+        <v>53181.7715913501</v>
       </c>
       <c r="C5" t="n">
-        <v>47566.6549984256</v>
+        <v>50610.9293624822</v>
       </c>
       <c r="D5" t="n">
-        <v>45530.8522285033</v>
+        <v>49648.1779235662</v>
       </c>
       <c r="E5" t="n">
-        <v>57955.9300789496</v>
+        <v>56618.4062952229</v>
       </c>
       <c r="F5" t="n">
-        <v>60023.1310768873</v>
+        <v>58158.7528831849</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -541,7 +541,7 @@
         <v>46728</v>
       </c>
       <c r="I5" t="n">
-        <v>6535.12314197204</v>
+        <v>6453.77159135009</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -552,19 +552,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>55431.350149374</v>
+        <v>55417.7426364819</v>
       </c>
       <c r="C6" t="n">
-        <v>48949.5038819658</v>
+        <v>52505.8252373762</v>
       </c>
       <c r="D6" t="n">
-        <v>46603.3655912602</v>
+        <v>51454.4626175543</v>
       </c>
       <c r="E6" t="n">
-        <v>60802.5866876494</v>
+        <v>57519.9947384308</v>
       </c>
       <c r="F6" t="n">
-        <v>63036.4020154089</v>
+        <v>58566.0296595081</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -573,7 +573,7 @@
         <v>46753</v>
       </c>
       <c r="I6" t="n">
-        <v>8678.35014937395</v>
+        <v>8664.74263648193</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -584,19 +584,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>54153.2448277687</v>
+        <v>53741.9375247549</v>
       </c>
       <c r="C7" t="n">
-        <v>47426.394781037</v>
+        <v>50870.4126701781</v>
       </c>
       <c r="D7" t="n">
-        <v>45175.4338193836</v>
+        <v>47419.534264146</v>
       </c>
       <c r="E7" t="n">
-        <v>60074.3960198284</v>
+        <v>57606.3422406618</v>
       </c>
       <c r="F7" t="n">
-        <v>62401.3635608595</v>
+        <v>58503.5620813961</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -605,7 +605,7 @@
         <v>46538</v>
       </c>
       <c r="I7" t="n">
-        <v>7615.24482776872</v>
+        <v>7203.9375247549</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -616,19 +616,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>57784.1672495928</v>
+        <v>58391.6418628785</v>
       </c>
       <c r="C8" t="n">
-        <v>51717.9770923236</v>
+        <v>54652.1239046486</v>
       </c>
       <c r="D8" t="n">
-        <v>49807.1668908026</v>
+        <v>52226.8549108466</v>
       </c>
       <c r="E8" t="n">
-        <v>63179.2359659769</v>
+        <v>62395.8526194804</v>
       </c>
       <c r="F8" t="n">
-        <v>65674.6898247476</v>
+        <v>64566.1965662715</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -637,7 +637,7 @@
         <v>46838</v>
       </c>
       <c r="I8" t="n">
-        <v>10946.1672495928</v>
+        <v>11553.6418628785</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -648,19 +648,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>57516.4052016237</v>
+        <v>57337.7679314467</v>
       </c>
       <c r="C9" t="n">
-        <v>51628.3300863825</v>
+        <v>53840.9910972349</v>
       </c>
       <c r="D9" t="n">
-        <v>49093.1446565781</v>
+        <v>52929.981048569</v>
       </c>
       <c r="E9" t="n">
-        <v>62975.8556605989</v>
+        <v>60794.99366916</v>
       </c>
       <c r="F9" t="n">
-        <v>65568.2433333425</v>
+        <v>62806.9445729411</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -669,7 +669,7 @@
         <v>46838</v>
       </c>
       <c r="I9" t="n">
-        <v>10678.4052016237</v>
+        <v>10499.7679314467</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -680,19 +680,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>55916.3280829103</v>
+        <v>55430.1696665099</v>
       </c>
       <c r="C10" t="n">
-        <v>50898.239109095</v>
+        <v>51048.8923706936</v>
       </c>
       <c r="D10" t="n">
-        <v>48691.4725085667</v>
+        <v>50019.5370171268</v>
       </c>
       <c r="E10" t="n">
-        <v>61174.5869480688</v>
+        <v>59171.1692761111</v>
       </c>
       <c r="F10" t="n">
-        <v>63823.480960014</v>
+        <v>60763.6445811895</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -701,7 +701,7 @@
         <v>48965</v>
       </c>
       <c r="I10" t="n">
-        <v>6951.32808291035</v>
+        <v>6465.16966650993</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -712,19 +712,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>53563.8407685408</v>
+        <v>53420.8607837671</v>
       </c>
       <c r="C11" t="n">
-        <v>48429.5189713469</v>
+        <v>50471.3673527707</v>
       </c>
       <c r="D11" t="n">
-        <v>46082.1223157025</v>
+        <v>49674.5833888313</v>
       </c>
       <c r="E11" t="n">
-        <v>60093.2702271684</v>
+        <v>57109.7372269905</v>
       </c>
       <c r="F11" t="n">
-        <v>62656.3480668785</v>
+        <v>58118.3479083351</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -733,7 +733,7 @@
         <v>44438</v>
       </c>
       <c r="I11" t="n">
-        <v>9125.84076854081</v>
+        <v>8982.86078376707</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -744,19 +744,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>53908.1742367864</v>
+        <v>54133.7946246999</v>
       </c>
       <c r="C12" t="n">
-        <v>48824.2608354331</v>
+        <v>50501.7906941109</v>
       </c>
       <c r="D12" t="n">
-        <v>46523.8519046809</v>
+        <v>49080.2082698592</v>
       </c>
       <c r="E12" t="n">
-        <v>59072.3867456214</v>
+        <v>59219.7372663114</v>
       </c>
       <c r="F12" t="n">
-        <v>61614.1018627104</v>
+        <v>59764.304110766</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -765,7 +765,7 @@
         <v>45305</v>
       </c>
       <c r="I12" t="n">
-        <v>8603.17423678641</v>
+        <v>8828.79462469986</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -776,19 +776,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>53156.6407484443</v>
+        <v>52715.0433056585</v>
       </c>
       <c r="C13" t="n">
-        <v>48229.4492736501</v>
+        <v>48798.3448936167</v>
       </c>
       <c r="D13" t="n">
-        <v>45727.4580018238</v>
+        <v>47376.1490973899</v>
       </c>
       <c r="E13" t="n">
-        <v>58328.4689775514</v>
+        <v>56195.7449290347</v>
       </c>
       <c r="F13" t="n">
-        <v>61173.723484887</v>
+        <v>57773.0842423362</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -797,7 +797,7 @@
         <v>44696</v>
       </c>
       <c r="I13" t="n">
-        <v>8460.64074844428</v>
+        <v>8019.0433056585</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -808,19 +808,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>50465.8000428524</v>
+        <v>51797.9134642961</v>
       </c>
       <c r="C14" t="n">
-        <v>44552.7520433622</v>
+        <v>48306.1196878057</v>
       </c>
       <c r="D14" t="n">
-        <v>42299.4651063399</v>
+        <v>47542.1195507276</v>
       </c>
       <c r="E14" t="n">
-        <v>57223.1510253981</v>
+        <v>55401.997146613</v>
       </c>
       <c r="F14" t="n">
-        <v>60323.4246857017</v>
+        <v>55940.4653122016</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -829,7 +829,7 @@
         <v>40079</v>
       </c>
       <c r="I14" t="n">
-        <v>10386.8000428524</v>
+        <v>11718.9134642961</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -840,19 +840,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>45109.2965104059</v>
+        <v>46851.9601903608</v>
       </c>
       <c r="C15" t="n">
-        <v>40086.4830886189</v>
+        <v>42123.9469714988</v>
       </c>
       <c r="D15" t="n">
-        <v>37493.7934811689</v>
+        <v>41100.0112228042</v>
       </c>
       <c r="E15" t="n">
-        <v>50874.637404929</v>
+        <v>49972.2025034354</v>
       </c>
       <c r="F15" t="n">
-        <v>53387.7708924639</v>
+        <v>51496.9464044113</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -861,7 +861,7 @@
         <v>33615</v>
       </c>
       <c r="I15" t="n">
-        <v>11494.2965104059</v>
+        <v>13236.9601903608</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -872,19 +872,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>58860.0160737982</v>
+        <v>59611.4282689995</v>
       </c>
       <c r="C16" t="n">
-        <v>49887.7791649911</v>
+        <v>55015.2159741927</v>
       </c>
       <c r="D16" t="n">
-        <v>46784.7819113103</v>
+        <v>52992.9789157083</v>
       </c>
       <c r="E16" t="n">
-        <v>66532.1843046805</v>
+        <v>64298.0884812071</v>
       </c>
       <c r="F16" t="n">
-        <v>69372.1860639582</v>
+        <v>65322.9107097788</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -893,7 +893,7 @@
         <v>50682</v>
       </c>
       <c r="I16" t="n">
-        <v>8178.01607379819</v>
+        <v>8929.42826899947</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -904,19 +904,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>57033.3039588021</v>
+        <v>57267.4963287654</v>
       </c>
       <c r="C17" t="n">
-        <v>48759.157742888</v>
+        <v>53550.9342741653</v>
       </c>
       <c r="D17" t="n">
-        <v>46138.5727773376</v>
+        <v>50419.3921056286</v>
       </c>
       <c r="E17" t="n">
-        <v>64384.2199971817</v>
+        <v>61315.1096943026</v>
       </c>
       <c r="F17" t="n">
-        <v>67289.2844608362</v>
+        <v>63579.2754169387</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -925,7 +925,7 @@
         <v>49113</v>
       </c>
       <c r="I17" t="n">
-        <v>7920.30395880213</v>
+        <v>8154.49632876537</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -936,19 +936,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>59284.9270899967</v>
+        <v>59769.7421605993</v>
       </c>
       <c r="C18" t="n">
-        <v>50182.6198700056</v>
+        <v>55607.0681404961</v>
       </c>
       <c r="D18" t="n">
-        <v>47720.544980106</v>
+        <v>54309.0847158298</v>
       </c>
       <c r="E18" t="n">
-        <v>67617.9095646332</v>
+        <v>63862.0957375224</v>
       </c>
       <c r="F18" t="n">
-        <v>70722.2759068064</v>
+        <v>66002.8062515604</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -957,7 +957,7 @@
         <v>47999</v>
       </c>
       <c r="I18" t="n">
-        <v>11285.9270899967</v>
+        <v>11770.7421605993</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -968,19 +968,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>57971.5643787989</v>
+        <v>58385.8028459656</v>
       </c>
       <c r="C19" t="n">
-        <v>49470.219544965</v>
+        <v>54227.5460071817</v>
       </c>
       <c r="D19" t="n">
-        <v>47269.0524939381</v>
+        <v>51619.2068075069</v>
       </c>
       <c r="E19" t="n">
-        <v>66198.4710972764</v>
+        <v>62022.8622712931</v>
       </c>
       <c r="F19" t="n">
-        <v>69395.6327274118</v>
+        <v>64248.3861395082</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -989,7 +989,7 @@
         <v>47423</v>
       </c>
       <c r="I19" t="n">
-        <v>10548.5643787989</v>
+        <v>10962.8028459656</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1000,19 +1000,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>61312.7233508724</v>
+        <v>62175.6321851047</v>
       </c>
       <c r="C20" t="n">
-        <v>52180.6505389934</v>
+        <v>57123.1440162245</v>
       </c>
       <c r="D20" t="n">
-        <v>49675.9275699048</v>
+        <v>54584.7710927263</v>
       </c>
       <c r="E20" t="n">
-        <v>70733.0145551571</v>
+        <v>66775.7167055468</v>
       </c>
       <c r="F20" t="n">
-        <v>74181.8673376721</v>
+        <v>68329.6550864821</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1021,7 +1021,7 @@
         <v>51531</v>
       </c>
       <c r="I20" t="n">
-        <v>9781.72335087244</v>
+        <v>10644.6321851047</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1032,19 +1032,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>61023.4626535763</v>
+        <v>61454.8034260207</v>
       </c>
       <c r="C21" t="n">
-        <v>52535.2394231769</v>
+        <v>55515.1115959592</v>
       </c>
       <c r="D21" t="n">
-        <v>49974.7143224059</v>
+        <v>54285.5299184819</v>
       </c>
       <c r="E21" t="n">
-        <v>70924.6690226764</v>
+        <v>66542.9323502576</v>
       </c>
       <c r="F21" t="n">
-        <v>74521.9442618236</v>
+        <v>68378.8454056945</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1053,7 +1053,7 @@
         <v>46091</v>
       </c>
       <c r="I21" t="n">
-        <v>14932.4626535763</v>
+        <v>15363.8034260207</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1064,19 +1064,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>59513.5138841581</v>
+        <v>59702.1358288897</v>
       </c>
       <c r="C22" t="n">
-        <v>51957.696180435</v>
+        <v>54104.820236191</v>
       </c>
       <c r="D22" t="n">
-        <v>49678.9100225075</v>
+        <v>53377.3700403821</v>
       </c>
       <c r="E22" t="n">
-        <v>69199.4319986054</v>
+        <v>64062.3745485529</v>
       </c>
       <c r="F22" t="n">
-        <v>72897.1796295932</v>
+        <v>67607.5279837603</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1085,7 +1085,7 @@
         <v>45792</v>
       </c>
       <c r="I22" t="n">
-        <v>13721.5138841581</v>
+        <v>13910.1358288897</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1096,19 +1096,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>57157.4005655262</v>
+        <v>56997.7036869602</v>
       </c>
       <c r="C23" t="n">
-        <v>49699.7484244802</v>
+        <v>51864.5654604194</v>
       </c>
       <c r="D23" t="n">
-        <v>46461.9987785019</v>
+        <v>50957.5669411211</v>
       </c>
       <c r="E23" t="n">
-        <v>66411.0508076562</v>
+        <v>62340.0486232707</v>
       </c>
       <c r="F23" t="n">
-        <v>70178.2457379866</v>
+        <v>62955.9592330893</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1117,7 +1117,7 @@
         <v>40900</v>
       </c>
       <c r="I23" t="n">
-        <v>16257.4005655262</v>
+        <v>16097.7036869602</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1128,19 +1128,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>57548.0697364212</v>
+        <v>58864.9215770615</v>
       </c>
       <c r="C24" t="n">
-        <v>49950.2989302681</v>
+        <v>53684.7545250005</v>
       </c>
       <c r="D24" t="n">
-        <v>46597.5632871553</v>
+        <v>50193.8392215699</v>
       </c>
       <c r="E24" t="n">
-        <v>67682.3363491791</v>
+        <v>63796.0634108346</v>
       </c>
       <c r="F24" t="n">
-        <v>71642.6732811993</v>
+        <v>65756.6221108061</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1149,7 +1149,7 @@
         <v>42174</v>
       </c>
       <c r="I24" t="n">
-        <v>15374.0697364212</v>
+        <v>16690.9215770615</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1160,19 +1160,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>56847.3139091566</v>
+        <v>57985.7513175164</v>
       </c>
       <c r="C25" t="n">
-        <v>49637.2578398367</v>
+        <v>52382.4451731911</v>
       </c>
       <c r="D25" t="n">
-        <v>46269.5844964626</v>
+        <v>50687.3818729446</v>
       </c>
       <c r="E25" t="n">
-        <v>66636.8301614546</v>
+        <v>63179.6710893949</v>
       </c>
       <c r="F25" t="n">
-        <v>70723.4999274084</v>
+        <v>63703.2953479398</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1181,7 +1181,7 @@
         <v>42321</v>
       </c>
       <c r="I25" t="n">
-        <v>14526.3139091566</v>
+        <v>15664.7513175164</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1192,19 +1192,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>54211.8743772871</v>
+        <v>56376.9618664797</v>
       </c>
       <c r="C26" t="n">
-        <v>45361.0920067404</v>
+        <v>50429.4811856934</v>
       </c>
       <c r="D26" t="n">
-        <v>41973.6881379315</v>
+        <v>47418.1815464423</v>
       </c>
       <c r="E26" t="n">
-        <v>64397.9655722207</v>
+        <v>62152.4262901885</v>
       </c>
       <c r="F26" t="n">
-        <v>68572.0905084228</v>
+        <v>64970.8470795273</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1213,7 +1213,7 @@
         <v>39586</v>
       </c>
       <c r="I26" t="n">
-        <v>14625.8743772871</v>
+        <v>16790.9618664797</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1224,19 +1224,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>49269.517726622</v>
+        <v>51215.5235574798</v>
       </c>
       <c r="C27" t="n">
-        <v>41553.0617260608</v>
+        <v>44611.1123436266</v>
       </c>
       <c r="D27" t="n">
-        <v>38223.7809652314</v>
+        <v>42411.0820223357</v>
       </c>
       <c r="E27" t="n">
-        <v>58028.390920861</v>
+        <v>57170.2772543099</v>
       </c>
       <c r="F27" t="n">
-        <v>62135.887159155</v>
+        <v>59123.5967248238</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1245,7 +1245,7 @@
         <v>34683</v>
       </c>
       <c r="I27" t="n">
-        <v>14586.517726622</v>
+        <v>16532.5235574798</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1256,19 +1256,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>62483.4057875622</v>
+        <v>64636.1495543475</v>
       </c>
       <c r="C28" t="n">
-        <v>51996.089213864</v>
+        <v>58698.8290197847</v>
       </c>
       <c r="D28" t="n">
-        <v>48053.9115355766</v>
+        <v>57296.2152714539</v>
       </c>
       <c r="E28" t="n">
-        <v>76192.8652084955</v>
+        <v>69803.6648648481</v>
       </c>
       <c r="F28" t="n">
-        <v>81118.0064550965</v>
+        <v>73281.3999735306</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1277,7 +1277,7 @@
         <v>46978</v>
       </c>
       <c r="I28" t="n">
-        <v>15505.4057875622</v>
+        <v>17658.1495543475</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1288,19 +1288,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>60571.2109620281</v>
+        <v>61425.0620229443</v>
       </c>
       <c r="C29" t="n">
-        <v>50169.9119788652</v>
+        <v>53778.708072016</v>
       </c>
       <c r="D29" t="n">
-        <v>47473.7012500342</v>
+        <v>52392.6471580745</v>
       </c>
       <c r="E29" t="n">
-        <v>73995.010460374</v>
+        <v>68631.8437233744</v>
       </c>
       <c r="F29" t="n">
-        <v>79030.8154569252</v>
+        <v>69696.1552550223</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1309,7 +1309,7 @@
         <v>39513</v>
       </c>
       <c r="I29" t="n">
-        <v>21058.2109620281</v>
+        <v>21912.0620229443</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1320,19 +1320,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>62880.9157796444</v>
+        <v>63979.6101247079</v>
       </c>
       <c r="C30" t="n">
-        <v>52055.0751142071</v>
+        <v>57401.713098225</v>
       </c>
       <c r="D30" t="n">
-        <v>49206.3335521717</v>
+        <v>56073.1233565093</v>
       </c>
       <c r="E30" t="n">
-        <v>77586.8841735568</v>
+        <v>69881.3506696002</v>
       </c>
       <c r="F30" t="n">
-        <v>82944.9403287666</v>
+        <v>74178.8216027129</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1341,7 +1341,7 @@
         <v>43751</v>
       </c>
       <c r="I30" t="n">
-        <v>19129.9157796444</v>
+        <v>20228.6101247079</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1352,19 +1352,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>61587.7460867421</v>
+        <v>62757.1896395692</v>
       </c>
       <c r="C31" t="n">
-        <v>51622.9064852889</v>
+        <v>54041.7456276336</v>
       </c>
       <c r="D31" t="n">
-        <v>48603.7991409992</v>
+        <v>51647.9768005728</v>
       </c>
       <c r="E31" t="n">
-        <v>76164.944312686</v>
+        <v>68646.173961859</v>
       </c>
       <c r="F31" t="n">
-        <v>81668.5047354044</v>
+        <v>69841.2067817445</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1373,7 +1373,7 @@
         <v>48507</v>
       </c>
       <c r="I31" t="n">
-        <v>13080.7460867421</v>
+        <v>14250.1896395692</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1384,19 +1384,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>64732.2886840289</v>
+        <v>65626.1595149315</v>
       </c>
       <c r="C32" t="n">
-        <v>53261.4220517634</v>
+        <v>58380.9297878864</v>
       </c>
       <c r="D32" t="n">
-        <v>50463.8347102922</v>
+        <v>56276.338683045</v>
       </c>
       <c r="E32" t="n">
-        <v>81153.0563826827</v>
+        <v>71282.0935474805</v>
       </c>
       <c r="F32" t="n">
-        <v>87051.589111872</v>
+        <v>73504.6543463185</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1405,7 +1405,7 @@
         <v>51391</v>
       </c>
       <c r="I32" t="n">
-        <v>13341.2886840289</v>
+        <v>14235.1595149315</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1416,19 +1416,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>64393.0203422955</v>
+        <v>65438.9117667273</v>
       </c>
       <c r="C33" t="n">
-        <v>53404.6292136298</v>
+        <v>58192.724674949</v>
       </c>
       <c r="D33" t="n">
-        <v>50117.1070681487</v>
+        <v>55142.629360615</v>
       </c>
       <c r="E33" t="n">
-        <v>81461.9155220833</v>
+        <v>72137.2900303525</v>
       </c>
       <c r="F33" t="n">
-        <v>87585.087659377</v>
+        <v>75019.5469385579</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1437,7 +1437,7 @@
         <v>50482</v>
       </c>
       <c r="I33" t="n">
-        <v>13911.0203422955</v>
+        <v>14956.9117667273</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1448,19 +1448,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>62873.9521806226</v>
+        <v>64247.2626792091</v>
       </c>
       <c r="C34" t="n">
-        <v>52905.550318871</v>
+        <v>54437.0854802076</v>
       </c>
       <c r="D34" t="n">
-        <v>48283.2720274896</v>
+        <v>53484.5423604488</v>
       </c>
       <c r="E34" t="n">
-        <v>79701.3478142424</v>
+        <v>70944.7519512732</v>
       </c>
       <c r="F34" t="n">
-        <v>85969.1289843024</v>
+        <v>75293.4392821167</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1469,7 +1469,7 @@
         <v>44470</v>
       </c>
       <c r="I34" t="n">
-        <v>18403.9521806226</v>
+        <v>19777.2626792091</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1480,19 +1480,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>60453.1305579744</v>
+        <v>61835.4267598364</v>
       </c>
       <c r="C35" t="n">
-        <v>49598.1732429746</v>
+        <v>53598.1692446605</v>
       </c>
       <c r="D35" t="n">
-        <v>45019.7786971212</v>
+        <v>51168.7284898028</v>
       </c>
       <c r="E35" t="n">
-        <v>76785.0847146106</v>
+        <v>68952.716242744</v>
       </c>
       <c r="F35" t="n">
-        <v>83145.708184578</v>
+        <v>72525.3315447804</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1501,7 +1501,7 @@
         <v>39054</v>
       </c>
       <c r="I35" t="n">
-        <v>21399.1305579744</v>
+        <v>22781.4267598364</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1512,19 +1512,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>60900.7170163572</v>
+        <v>62995.7763419451</v>
       </c>
       <c r="C36" t="n">
-        <v>49765.8472690127</v>
+        <v>53605.8613544875</v>
       </c>
       <c r="D36" t="n">
-        <v>45062.2016133501</v>
+        <v>49345.5682327435</v>
       </c>
       <c r="E36" t="n">
-        <v>78249.4308820337</v>
+        <v>69679.0068439823</v>
       </c>
       <c r="F36" t="n">
-        <v>84893.667292842</v>
+        <v>73155.2540631891</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1533,7 +1533,7 @@
         <v>35152</v>
       </c>
       <c r="I36" t="n">
-        <v>25748.7170163572</v>
+        <v>27843.7763419451</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1544,19 +1544,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>60243.7285478673</v>
+        <v>61404.0182958342</v>
       </c>
       <c r="C37" t="n">
-        <v>49458.8663957655</v>
+        <v>53920.6438320501</v>
       </c>
       <c r="D37" t="n">
-        <v>44654.4130213247</v>
+        <v>52845.6837052908</v>
       </c>
       <c r="E37" t="n">
-        <v>77206.9059800026</v>
+        <v>67854.6241981911</v>
       </c>
       <c r="F37" t="n">
-        <v>84027.0856256906</v>
+        <v>70408.3215893727</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1565,7 +1565,7 @@
         <v>24367</v>
       </c>
       <c r="I37" t="n">
-        <v>35876.7285478673</v>
+        <v>37037.0182958342</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1576,19 +1576,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>57564.4543609717</v>
+        <v>59512.7200783429</v>
       </c>
       <c r="C38" t="n">
-        <v>45039.7566473363</v>
+        <v>51348.2738711259</v>
       </c>
       <c r="D38" t="n">
-        <v>40364.3034138314</v>
+        <v>47941.7687529754</v>
       </c>
       <c r="E38" t="n">
-        <v>74866.9265783355</v>
+        <v>67255.728815642</v>
       </c>
       <c r="F38" t="n">
-        <v>81800.6797485562</v>
+        <v>69954.801399673</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1597,7 +1597,7 @@
         <v>28708</v>
       </c>
       <c r="I38" t="n">
-        <v>28856.4543609717</v>
+        <v>30804.7200783429</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1608,19 +1608,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>52966.1967117177</v>
+        <v>55729.4874851847</v>
       </c>
       <c r="C39" t="n">
-        <v>41181.4758393076</v>
+        <v>46685.1838170409</v>
       </c>
       <c r="D39" t="n">
-        <v>36624.4596982016</v>
+        <v>42193.1715190994</v>
       </c>
       <c r="E39" t="n">
-        <v>68027.5834158847</v>
+        <v>63074.9575649042</v>
       </c>
       <c r="F39" t="n">
-        <v>74837.7633073652</v>
+        <v>65477.3093841934</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1629,7 +1629,7 @@
         <v>43574</v>
       </c>
       <c r="I39" t="n">
-        <v>9392.19671171766</v>
+        <v>12155.4874851847</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1640,19 +1640,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>65831.5774268439</v>
+        <v>68520.497222616</v>
       </c>
       <c r="C40" t="n">
-        <v>53058.5569678464</v>
+        <v>60601.1212050396</v>
       </c>
       <c r="D40" t="n">
-        <v>48906.0606449462</v>
+        <v>56553.048127752</v>
       </c>
       <c r="E40" t="n">
-        <v>87786.4499537087</v>
+        <v>75949.5393124946</v>
       </c>
       <c r="F40" t="n">
-        <v>95818.0701467872</v>
+        <v>78226.3675015743</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1661,7 +1661,7 @@
         <v>49855</v>
       </c>
       <c r="I40" t="n">
-        <v>15976.5774268439</v>
+        <v>18665.497222616</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1672,19 +1672,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>63889.4288247075</v>
+        <v>65931.9415049372</v>
       </c>
       <c r="C41" t="n">
-        <v>51929.7796698681</v>
+        <v>57911.6427116087</v>
       </c>
       <c r="D41" t="n">
-        <v>46513.8093175268</v>
+        <v>50794.3879749068</v>
       </c>
       <c r="E41" t="n">
-        <v>85497.342252305</v>
+        <v>74180.153369107</v>
       </c>
       <c r="F41" t="n">
-        <v>93668.2903664858</v>
+        <v>75999.7729641261</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1693,7 +1693,7 @@
         <v>48926</v>
       </c>
       <c r="I41" t="n">
-        <v>14963.4288247075</v>
+        <v>17005.9415049372</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1704,19 +1704,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>66172.8034590741</v>
+        <v>68173.3422869903</v>
       </c>
       <c r="C42" t="n">
-        <v>53481.6023752737</v>
+        <v>58768.697431448</v>
       </c>
       <c r="D42" t="n">
-        <v>48119.7414270635</v>
+        <v>54002.9792736952</v>
       </c>
       <c r="E42" t="n">
-        <v>89457.1218025269</v>
+        <v>75379.972564745</v>
       </c>
       <c r="F42" t="n">
-        <v>98083.2084149966</v>
+        <v>80028.9919946418</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1725,7 +1725,7 @@
         <v>53258</v>
       </c>
       <c r="I42" t="n">
-        <v>12914.8034590741</v>
+        <v>14915.3422869903</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1736,19 +1736,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>64949.5050701624</v>
+        <v>67070.252840194</v>
       </c>
       <c r="C43" t="n">
-        <v>52453.1266963323</v>
+        <v>56797.9200444352</v>
       </c>
       <c r="D43" t="n">
-        <v>46764.7123524945</v>
+        <v>53138.3127833217</v>
       </c>
       <c r="E43" t="n">
-        <v>88002.3292030155</v>
+        <v>75081.5966524569</v>
       </c>
       <c r="F43" t="n">
-        <v>96815.5116079089</v>
+        <v>77018.1135796557</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1757,7 +1757,7 @@
         <v>52007</v>
       </c>
       <c r="I43" t="n">
-        <v>12942.5050701624</v>
+        <v>15063.252840194</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1768,19 +1768,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>68030.544605018</v>
+        <v>70708.9502404286</v>
       </c>
       <c r="C44" t="n">
-        <v>53922.1034220889</v>
+        <v>60906.8206581696</v>
       </c>
       <c r="D44" t="n">
-        <v>49358.7644875962</v>
+        <v>54009.3873455281</v>
       </c>
       <c r="E44" t="n">
-        <v>93465.7090168147</v>
+        <v>79810.985954341</v>
       </c>
       <c r="F44" t="n">
-        <v>102833.440743596</v>
+        <v>82843.4730722532</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1789,7 +1789,7 @@
         <v>58247</v>
       </c>
       <c r="I44" t="n">
-        <v>9783.54460501796</v>
+        <v>12461.9502404286</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1800,19 +1800,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>67657.908422898</v>
+        <v>70076.5915395017</v>
       </c>
       <c r="C45" t="n">
-        <v>54062.4859667061</v>
+        <v>60685.5702808773</v>
       </c>
       <c r="D45" t="n">
-        <v>48200.8365547368</v>
+        <v>55365.1642002719</v>
       </c>
       <c r="E45" t="n">
-        <v>93877.9901201155</v>
+        <v>78338.4397514774</v>
       </c>
       <c r="F45" t="n">
-        <v>103544.217940602</v>
+        <v>83188.0527296841</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1821,7 +1821,7 @@
         <v>61068</v>
       </c>
       <c r="I45" t="n">
-        <v>6589.90842289804</v>
+        <v>9008.59153950168</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1832,19 +1832,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>66086.1944633341</v>
+        <v>68200.9247248634</v>
       </c>
       <c r="C46" t="n">
-        <v>52048.556326278</v>
+        <v>58017.4570766338</v>
       </c>
       <c r="D46" t="n">
-        <v>46022.4164396268</v>
+        <v>51660.6623544302</v>
       </c>
       <c r="E46" t="n">
-        <v>92054.7827216535</v>
+        <v>76298.1339184851</v>
       </c>
       <c r="F46" t="n">
-        <v>101900.281321278</v>
+        <v>80828.4951146311</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1853,7 +1853,7 @@
         <v>55767</v>
       </c>
       <c r="I46" t="n">
-        <v>10319.1944633341</v>
+        <v>12433.9247248634</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1864,19 +1864,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>63594.206915328</v>
+        <v>65951.7513096784</v>
       </c>
       <c r="C47" t="n">
-        <v>48720.3124778242</v>
+        <v>54942.0992112028</v>
       </c>
       <c r="D47" t="n">
-        <v>42793.3445869959</v>
+        <v>49939.0780881429</v>
       </c>
       <c r="E47" t="n">
-        <v>88976.853942866</v>
+        <v>75586.4610760949</v>
       </c>
       <c r="F47" t="n">
-        <v>98925.7086720422</v>
+        <v>77776.7133993511</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1885,7 +1885,7 @@
         <v>56981</v>
       </c>
       <c r="I47" t="n">
-        <v>6613.20691532803</v>
+        <v>8970.75130967835</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1896,19 +1896,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>64076.8035180231</v>
+        <v>67340.919689204</v>
       </c>
       <c r="C48" t="n">
-        <v>48838.3729652722</v>
+        <v>56654.6747757462</v>
       </c>
       <c r="D48" t="n">
-        <v>42787.605301755</v>
+        <v>49635.6177823898</v>
       </c>
       <c r="E48" t="n">
-        <v>90633.8221753967</v>
+        <v>77377.3936187332</v>
       </c>
       <c r="F48" t="n">
-        <v>100961.470288141</v>
+        <v>81921.6502727938</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1917,7 +1917,7 @@
         <v>57719</v>
       </c>
       <c r="I48" t="n">
-        <v>6357.80351802315</v>
+        <v>9621.91968920403</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1928,19 +1928,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>63429.5279724667</v>
+        <v>66270.9563831672</v>
       </c>
       <c r="C49" t="n">
-        <v>48488.6113361646</v>
+        <v>55403.1378346722</v>
       </c>
       <c r="D49" t="n">
-        <v>42346.5455957823</v>
+        <v>49822.7381625933</v>
       </c>
       <c r="E49" t="n">
-        <v>89577.1965605468</v>
+        <v>74792.6405542788</v>
       </c>
       <c r="F49" t="n">
-        <v>100126.341869301</v>
+        <v>78001.6137341881</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1949,7 +1949,7 @@
         <v>50823</v>
       </c>
       <c r="I49" t="n">
-        <v>12606.5279724667</v>
+        <v>15447.9563831672</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/Syphilis.xlsx
+++ b/outcome/appendix/forecast/Syphilis.xlsx
@@ -424,19 +424,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>47143.2748783615</v>
+        <v>47143.2748783612</v>
       </c>
       <c r="C2" t="n">
-        <v>44818.9340865679</v>
+        <v>44818.9340865651</v>
       </c>
       <c r="D2" t="n">
-        <v>43667.452518793</v>
+        <v>43667.4525187955</v>
       </c>
       <c r="E2" t="n">
-        <v>50190.7615374523</v>
+        <v>50190.7615374506</v>
       </c>
       <c r="F2" t="n">
-        <v>51096.4048619116</v>
+        <v>51096.4048619153</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -445,7 +445,7 @@
         <v>39671</v>
       </c>
       <c r="I2" t="n">
-        <v>7472.27487836148</v>
+        <v>7472.27487836117</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,16 +459,16 @@
         <v>42940.2621192623</v>
       </c>
       <c r="C3" t="n">
-        <v>39967.1952699325</v>
+        <v>39967.1952699306</v>
       </c>
       <c r="D3" t="n">
-        <v>38026.7628134699</v>
+        <v>38026.7628134791</v>
       </c>
       <c r="E3" t="n">
-        <v>45289.4419549169</v>
+        <v>45289.441954916</v>
       </c>
       <c r="F3" t="n">
-        <v>46217.2305951615</v>
+        <v>46217.2305951596</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -488,19 +488,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>54861.1237072725</v>
+        <v>54861.1237072721</v>
       </c>
       <c r="C4" t="n">
-        <v>51943.4146445864</v>
+        <v>51943.4146445844</v>
       </c>
       <c r="D4" t="n">
-        <v>50630.5184971274</v>
+        <v>50630.5184971209</v>
       </c>
       <c r="E4" t="n">
-        <v>57333.8672168224</v>
+        <v>57333.8672168171</v>
       </c>
       <c r="F4" t="n">
-        <v>58992.5860593265</v>
+        <v>58992.5860593244</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -509,7 +509,7 @@
         <v>41154</v>
       </c>
       <c r="I4" t="n">
-        <v>13707.1237072725</v>
+        <v>13707.1237072721</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -520,19 +520,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>53181.7715913501</v>
+        <v>53181.7715913498</v>
       </c>
       <c r="C5" t="n">
-        <v>50610.9293624822</v>
+        <v>50610.9293624842</v>
       </c>
       <c r="D5" t="n">
-        <v>49648.1779235662</v>
+        <v>49648.1779235596</v>
       </c>
       <c r="E5" t="n">
-        <v>56618.4062952229</v>
+        <v>56618.4062952207</v>
       </c>
       <c r="F5" t="n">
-        <v>58158.7528831849</v>
+        <v>58158.7528831881</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -541,7 +541,7 @@
         <v>46728</v>
       </c>
       <c r="I5" t="n">
-        <v>6453.77159135009</v>
+        <v>6453.77159134982</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -552,19 +552,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>55417.7426364819</v>
+        <v>55417.7426364816</v>
       </c>
       <c r="C6" t="n">
-        <v>52505.8252373762</v>
+        <v>52505.8252373717</v>
       </c>
       <c r="D6" t="n">
-        <v>51454.4626175543</v>
+        <v>51454.4626175508</v>
       </c>
       <c r="E6" t="n">
-        <v>57519.9947384308</v>
+        <v>57519.9947384322</v>
       </c>
       <c r="F6" t="n">
-        <v>58566.0296595081</v>
+        <v>58566.0296595061</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -573,7 +573,7 @@
         <v>46753</v>
       </c>
       <c r="I6" t="n">
-        <v>8664.74263648193</v>
+        <v>8664.74263648163</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -584,19 +584,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>53741.9375247549</v>
+        <v>53741.9375247547</v>
       </c>
       <c r="C7" t="n">
-        <v>50870.4126701781</v>
+        <v>50870.4126701883</v>
       </c>
       <c r="D7" t="n">
-        <v>47419.534264146</v>
+        <v>47419.5342641412</v>
       </c>
       <c r="E7" t="n">
-        <v>57606.3422406618</v>
+        <v>57606.3422406599</v>
       </c>
       <c r="F7" t="n">
-        <v>58503.5620813961</v>
+        <v>58503.5620813945</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -605,7 +605,7 @@
         <v>46538</v>
       </c>
       <c r="I7" t="n">
-        <v>7203.9375247549</v>
+        <v>7203.93752475474</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -616,19 +616,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>58391.6418628785</v>
+        <v>58391.6418628782</v>
       </c>
       <c r="C8" t="n">
-        <v>54652.1239046486</v>
+        <v>54652.1239046587</v>
       </c>
       <c r="D8" t="n">
-        <v>52226.8549108466</v>
+        <v>52226.8549108444</v>
       </c>
       <c r="E8" t="n">
-        <v>62395.8526194804</v>
+        <v>62395.8526194835</v>
       </c>
       <c r="F8" t="n">
-        <v>64566.1965662715</v>
+        <v>64566.1965662661</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -637,7 +637,7 @@
         <v>46838</v>
       </c>
       <c r="I8" t="n">
-        <v>11553.6418628785</v>
+        <v>11553.6418628782</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -648,19 +648,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>57337.7679314467</v>
+        <v>57337.7679314464</v>
       </c>
       <c r="C9" t="n">
-        <v>53840.9910972349</v>
+        <v>53840.9910972361</v>
       </c>
       <c r="D9" t="n">
-        <v>52929.981048569</v>
+        <v>52929.9810485667</v>
       </c>
       <c r="E9" t="n">
-        <v>60794.99366916</v>
+        <v>60794.9936691613</v>
       </c>
       <c r="F9" t="n">
-        <v>62806.9445729411</v>
+        <v>62806.9445729388</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -669,7 +669,7 @@
         <v>46838</v>
       </c>
       <c r="I9" t="n">
-        <v>10499.7679314467</v>
+        <v>10499.7679314464</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -680,19 +680,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>55430.1696665099</v>
+        <v>55430.1696665096</v>
       </c>
       <c r="C10" t="n">
-        <v>51048.8923706936</v>
+        <v>51048.8923706923</v>
       </c>
       <c r="D10" t="n">
-        <v>50019.5370171268</v>
+        <v>50019.5370171225</v>
       </c>
       <c r="E10" t="n">
-        <v>59171.1692761111</v>
+        <v>59171.169276109</v>
       </c>
       <c r="F10" t="n">
-        <v>60763.6445811895</v>
+        <v>60763.644581193</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -701,7 +701,7 @@
         <v>48965</v>
       </c>
       <c r="I10" t="n">
-        <v>6465.16966650993</v>
+        <v>6465.16966650963</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -712,19 +712,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>53420.8607837671</v>
+        <v>53420.8607837668</v>
       </c>
       <c r="C11" t="n">
-        <v>50471.3673527707</v>
+        <v>50471.36735277</v>
       </c>
       <c r="D11" t="n">
-        <v>49674.5833888313</v>
+        <v>49674.5833888247</v>
       </c>
       <c r="E11" t="n">
-        <v>57109.7372269905</v>
+        <v>57109.7372269865</v>
       </c>
       <c r="F11" t="n">
-        <v>58118.3479083351</v>
+        <v>58118.3479083339</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -733,7 +733,7 @@
         <v>44438</v>
       </c>
       <c r="I11" t="n">
-        <v>8982.86078376707</v>
+        <v>8982.86078376677</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -744,19 +744,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>54133.7946246999</v>
+        <v>54133.7946246996</v>
       </c>
       <c r="C12" t="n">
-        <v>50501.7906941109</v>
+        <v>50501.7906941143</v>
       </c>
       <c r="D12" t="n">
-        <v>49080.2082698592</v>
+        <v>49080.2082698555</v>
       </c>
       <c r="E12" t="n">
-        <v>59219.7372663114</v>
+        <v>59219.7372663096</v>
       </c>
       <c r="F12" t="n">
-        <v>59764.304110766</v>
+        <v>59764.3041107643</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -765,7 +765,7 @@
         <v>45305</v>
       </c>
       <c r="I12" t="n">
-        <v>8828.79462469986</v>
+        <v>8828.79462469959</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -776,19 +776,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>52715.0433056585</v>
+        <v>52715.0433056583</v>
       </c>
       <c r="C13" t="n">
-        <v>48798.3448936167</v>
+        <v>48798.3448936161</v>
       </c>
       <c r="D13" t="n">
-        <v>47376.1490973899</v>
+        <v>47376.149097387</v>
       </c>
       <c r="E13" t="n">
-        <v>56195.7449290347</v>
+        <v>56195.7449290369</v>
       </c>
       <c r="F13" t="n">
-        <v>57773.0842423362</v>
+        <v>57773.0842423352</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -797,7 +797,7 @@
         <v>44696</v>
       </c>
       <c r="I13" t="n">
-        <v>8019.0433056585</v>
+        <v>8019.04330565829</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -808,19 +808,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>51797.9134642961</v>
+        <v>51797.9134642957</v>
       </c>
       <c r="C14" t="n">
-        <v>48306.1196878057</v>
+        <v>48306.119687813</v>
       </c>
       <c r="D14" t="n">
-        <v>47542.1195507276</v>
+        <v>47542.1195507293</v>
       </c>
       <c r="E14" t="n">
-        <v>55401.997146613</v>
+        <v>55401.9971466098</v>
       </c>
       <c r="F14" t="n">
-        <v>55940.4653122016</v>
+        <v>55940.4653122019</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -829,7 +829,7 @@
         <v>40079</v>
       </c>
       <c r="I14" t="n">
-        <v>11718.9134642961</v>
+        <v>11718.9134642957</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -840,19 +840,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>46851.9601903608</v>
+        <v>46851.9601903607</v>
       </c>
       <c r="C15" t="n">
-        <v>42123.9469714988</v>
+        <v>42123.9469715038</v>
       </c>
       <c r="D15" t="n">
-        <v>41100.0112228042</v>
+        <v>41100.0112228011</v>
       </c>
       <c r="E15" t="n">
-        <v>49972.2025034354</v>
+        <v>49972.202503434</v>
       </c>
       <c r="F15" t="n">
-        <v>51496.9464044113</v>
+        <v>51496.9464044158</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -861,7 +861,7 @@
         <v>33615</v>
       </c>
       <c r="I15" t="n">
-        <v>13236.9601903608</v>
+        <v>13236.9601903607</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -872,19 +872,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>59611.4282689995</v>
+        <v>59611.4282689991</v>
       </c>
       <c r="C16" t="n">
-        <v>55015.2159741927</v>
+        <v>55015.2159741996</v>
       </c>
       <c r="D16" t="n">
-        <v>52992.9789157083</v>
+        <v>52992.9789157015</v>
       </c>
       <c r="E16" t="n">
-        <v>64298.0884812071</v>
+        <v>64298.0884812064</v>
       </c>
       <c r="F16" t="n">
-        <v>65322.9107097788</v>
+        <v>65322.910709777</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -893,7 +893,7 @@
         <v>50682</v>
       </c>
       <c r="I16" t="n">
-        <v>8929.42826899947</v>
+        <v>8929.42826899911</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -904,19 +904,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>57267.4963287654</v>
+        <v>57267.4963287651</v>
       </c>
       <c r="C17" t="n">
-        <v>53550.9342741653</v>
+        <v>53550.9342741683</v>
       </c>
       <c r="D17" t="n">
-        <v>50419.3921056286</v>
+        <v>50419.3921056307</v>
       </c>
       <c r="E17" t="n">
-        <v>61315.1096943026</v>
+        <v>61315.1096942935</v>
       </c>
       <c r="F17" t="n">
-        <v>63579.2754169387</v>
+        <v>63579.2754169423</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -925,7 +925,7 @@
         <v>49113</v>
       </c>
       <c r="I17" t="n">
-        <v>8154.49632876537</v>
+        <v>8154.49632876505</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -936,19 +936,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>59769.7421605993</v>
+        <v>59769.742160599</v>
       </c>
       <c r="C18" t="n">
-        <v>55607.0681404961</v>
+        <v>55607.0681404936</v>
       </c>
       <c r="D18" t="n">
-        <v>54309.0847158298</v>
+        <v>54309.084715825</v>
       </c>
       <c r="E18" t="n">
-        <v>63862.0957375224</v>
+        <v>63862.095737522</v>
       </c>
       <c r="F18" t="n">
-        <v>66002.8062515604</v>
+        <v>66002.8062515582</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -957,7 +957,7 @@
         <v>47999</v>
       </c>
       <c r="I18" t="n">
-        <v>11770.7421605993</v>
+        <v>11770.742160599</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -968,19 +968,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>58385.8028459656</v>
+        <v>58385.8028459653</v>
       </c>
       <c r="C19" t="n">
-        <v>54227.5460071817</v>
+        <v>54227.5460071832</v>
       </c>
       <c r="D19" t="n">
-        <v>51619.2068075069</v>
+        <v>51619.2068075157</v>
       </c>
       <c r="E19" t="n">
-        <v>62022.8622712931</v>
+        <v>62022.8622712953</v>
       </c>
       <c r="F19" t="n">
-        <v>64248.3861395082</v>
+        <v>64248.3861395083</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -989,7 +989,7 @@
         <v>47423</v>
       </c>
       <c r="I19" t="n">
-        <v>10962.8028459656</v>
+        <v>10962.8028459653</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1000,19 +1000,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>62175.6321851047</v>
+        <v>62175.6321851043</v>
       </c>
       <c r="C20" t="n">
-        <v>57123.1440162245</v>
+        <v>57123.1440162197</v>
       </c>
       <c r="D20" t="n">
-        <v>54584.7710927263</v>
+        <v>54584.771092734</v>
       </c>
       <c r="E20" t="n">
-        <v>66775.7167055468</v>
+        <v>66775.716705552</v>
       </c>
       <c r="F20" t="n">
-        <v>68329.6550864821</v>
+        <v>68329.6550864807</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1021,7 +1021,7 @@
         <v>51531</v>
       </c>
       <c r="I20" t="n">
-        <v>10644.6321851047</v>
+        <v>10644.6321851043</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1032,19 +1032,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>61454.8034260207</v>
+        <v>61454.8034260203</v>
       </c>
       <c r="C21" t="n">
-        <v>55515.1115959592</v>
+        <v>55515.1115959563</v>
       </c>
       <c r="D21" t="n">
-        <v>54285.5299184819</v>
+        <v>54285.5299184901</v>
       </c>
       <c r="E21" t="n">
-        <v>66542.9323502576</v>
+        <v>66542.9323502534</v>
       </c>
       <c r="F21" t="n">
-        <v>68378.8454056945</v>
+        <v>68378.8454056936</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1053,7 +1053,7 @@
         <v>46091</v>
       </c>
       <c r="I21" t="n">
-        <v>15363.8034260207</v>
+        <v>15363.8034260203</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1064,19 +1064,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>59702.1358288897</v>
+        <v>59702.1358288894</v>
       </c>
       <c r="C22" t="n">
-        <v>54104.820236191</v>
+        <v>54104.8202362029</v>
       </c>
       <c r="D22" t="n">
-        <v>53377.3700403821</v>
+        <v>53377.3700403769</v>
       </c>
       <c r="E22" t="n">
-        <v>64062.3745485529</v>
+        <v>64062.3745485526</v>
       </c>
       <c r="F22" t="n">
-        <v>67607.5279837603</v>
+        <v>67607.5279837652</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1085,7 +1085,7 @@
         <v>45792</v>
       </c>
       <c r="I22" t="n">
-        <v>13910.1358288897</v>
+        <v>13910.1358288894</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1096,19 +1096,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>56997.7036869602</v>
+        <v>56997.7036869599</v>
       </c>
       <c r="C23" t="n">
-        <v>51864.5654604194</v>
+        <v>51864.5654604172</v>
       </c>
       <c r="D23" t="n">
-        <v>50957.5669411211</v>
+        <v>50957.5669411237</v>
       </c>
       <c r="E23" t="n">
-        <v>62340.0486232707</v>
+        <v>62340.0486232699</v>
       </c>
       <c r="F23" t="n">
-        <v>62955.9592330893</v>
+        <v>62955.9592330943</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1117,7 +1117,7 @@
         <v>40900</v>
       </c>
       <c r="I23" t="n">
-        <v>16097.7036869602</v>
+        <v>16097.7036869599</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1128,19 +1128,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>58864.9215770615</v>
+        <v>58864.9215770611</v>
       </c>
       <c r="C24" t="n">
-        <v>53684.7545250005</v>
+        <v>53684.7545250058</v>
       </c>
       <c r="D24" t="n">
-        <v>50193.8392215699</v>
+        <v>50193.8392215806</v>
       </c>
       <c r="E24" t="n">
-        <v>63796.0634108346</v>
+        <v>63796.0634108342</v>
       </c>
       <c r="F24" t="n">
-        <v>65756.6221108061</v>
+        <v>65756.6221108002</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1149,7 +1149,7 @@
         <v>42174</v>
       </c>
       <c r="I24" t="n">
-        <v>16690.9215770615</v>
+        <v>16690.9215770611</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1160,19 +1160,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>57985.7513175164</v>
+        <v>57985.7513175162</v>
       </c>
       <c r="C25" t="n">
-        <v>52382.4451731911</v>
+        <v>52382.4451732033</v>
       </c>
       <c r="D25" t="n">
-        <v>50687.3818729446</v>
+        <v>50687.3818729484</v>
       </c>
       <c r="E25" t="n">
-        <v>63179.6710893949</v>
+        <v>63179.6710893935</v>
       </c>
       <c r="F25" t="n">
-        <v>63703.2953479398</v>
+        <v>63703.2953479385</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1181,7 +1181,7 @@
         <v>42321</v>
       </c>
       <c r="I25" t="n">
-        <v>15664.7513175164</v>
+        <v>15664.7513175162</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1192,19 +1192,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>56376.9618664797</v>
+        <v>56376.9618664792</v>
       </c>
       <c r="C26" t="n">
-        <v>50429.4811856934</v>
+        <v>50429.4811856908</v>
       </c>
       <c r="D26" t="n">
-        <v>47418.1815464423</v>
+        <v>47418.1815464619</v>
       </c>
       <c r="E26" t="n">
-        <v>62152.4262901885</v>
+        <v>62152.4262901845</v>
       </c>
       <c r="F26" t="n">
-        <v>64970.8470795273</v>
+        <v>64970.8470795323</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1213,7 +1213,7 @@
         <v>39586</v>
       </c>
       <c r="I26" t="n">
-        <v>16790.9618664797</v>
+        <v>16790.9618664792</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1224,19 +1224,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>51215.5235574798</v>
+        <v>51215.5235574796</v>
       </c>
       <c r="C27" t="n">
-        <v>44611.1123436266</v>
+        <v>44611.1123436233</v>
       </c>
       <c r="D27" t="n">
-        <v>42411.0820223357</v>
+        <v>42411.0820223297</v>
       </c>
       <c r="E27" t="n">
-        <v>57170.2772543099</v>
+        <v>57170.2772543076</v>
       </c>
       <c r="F27" t="n">
-        <v>59123.5967248238</v>
+        <v>59123.5967248289</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1245,7 +1245,7 @@
         <v>34683</v>
       </c>
       <c r="I27" t="n">
-        <v>16532.5235574798</v>
+        <v>16532.5235574796</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1256,19 +1256,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>64636.1495543475</v>
+        <v>64636.1495543471</v>
       </c>
       <c r="C28" t="n">
-        <v>58698.8290197847</v>
+        <v>58698.829019797</v>
       </c>
       <c r="D28" t="n">
-        <v>57296.2152714539</v>
+        <v>57296.215271446</v>
       </c>
       <c r="E28" t="n">
-        <v>69803.6648648481</v>
+        <v>69803.6648648466</v>
       </c>
       <c r="F28" t="n">
-        <v>73281.3999735306</v>
+        <v>73281.3999735365</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1277,7 +1277,7 @@
         <v>46978</v>
       </c>
       <c r="I28" t="n">
-        <v>17658.1495543475</v>
+        <v>17658.1495543471</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1288,19 +1288,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>61425.0620229443</v>
+        <v>61425.0620229439</v>
       </c>
       <c r="C29" t="n">
-        <v>53778.708072016</v>
+        <v>53778.7080720194</v>
       </c>
       <c r="D29" t="n">
-        <v>52392.6471580745</v>
+        <v>52392.6471580688</v>
       </c>
       <c r="E29" t="n">
-        <v>68631.8437233744</v>
+        <v>68631.8437233712</v>
       </c>
       <c r="F29" t="n">
-        <v>69696.1552550223</v>
+        <v>69696.1552550229</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1309,7 +1309,7 @@
         <v>39513</v>
       </c>
       <c r="I29" t="n">
-        <v>21912.0620229443</v>
+        <v>21912.0620229439</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1320,19 +1320,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>63979.6101247079</v>
+        <v>63979.6101247075</v>
       </c>
       <c r="C30" t="n">
-        <v>57401.713098225</v>
+        <v>57401.7130982289</v>
       </c>
       <c r="D30" t="n">
-        <v>56073.1233565093</v>
+        <v>56073.123356503</v>
       </c>
       <c r="E30" t="n">
-        <v>69881.3506696002</v>
+        <v>69881.3506695952</v>
       </c>
       <c r="F30" t="n">
-        <v>74178.8216027129</v>
+        <v>74178.821602718</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1341,7 +1341,7 @@
         <v>43751</v>
       </c>
       <c r="I30" t="n">
-        <v>20228.6101247079</v>
+        <v>20228.6101247075</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1352,19 +1352,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>62757.1896395692</v>
+        <v>62757.189639569</v>
       </c>
       <c r="C31" t="n">
-        <v>54041.7456276336</v>
+        <v>54041.7456276295</v>
       </c>
       <c r="D31" t="n">
-        <v>51647.9768005728</v>
+        <v>51647.9768005688</v>
       </c>
       <c r="E31" t="n">
-        <v>68646.173961859</v>
+        <v>68646.1739618581</v>
       </c>
       <c r="F31" t="n">
-        <v>69841.2067817445</v>
+        <v>69841.2067817428</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1373,7 +1373,7 @@
         <v>48507</v>
       </c>
       <c r="I31" t="n">
-        <v>14250.1896395692</v>
+        <v>14250.189639569</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1384,19 +1384,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>65626.1595149315</v>
+        <v>65626.159514931</v>
       </c>
       <c r="C32" t="n">
-        <v>58380.9297878864</v>
+        <v>58380.9297878922</v>
       </c>
       <c r="D32" t="n">
-        <v>56276.338683045</v>
+        <v>56276.3386830371</v>
       </c>
       <c r="E32" t="n">
-        <v>71282.0935474805</v>
+        <v>71282.0935474804</v>
       </c>
       <c r="F32" t="n">
-        <v>73504.6543463185</v>
+        <v>73504.6543463237</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1405,7 +1405,7 @@
         <v>51391</v>
       </c>
       <c r="I32" t="n">
-        <v>14235.1595149315</v>
+        <v>14235.159514931</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1416,19 +1416,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>65438.9117667273</v>
+        <v>65438.9117667269</v>
       </c>
       <c r="C33" t="n">
-        <v>58192.724674949</v>
+        <v>58192.7246749528</v>
       </c>
       <c r="D33" t="n">
-        <v>55142.629360615</v>
+        <v>55142.6293606093</v>
       </c>
       <c r="E33" t="n">
-        <v>72137.2900303525</v>
+        <v>72137.2900303512</v>
       </c>
       <c r="F33" t="n">
-        <v>75019.5469385579</v>
+        <v>75019.5469385571</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1437,7 +1437,7 @@
         <v>50482</v>
       </c>
       <c r="I33" t="n">
-        <v>14956.9117667273</v>
+        <v>14956.9117667269</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1448,19 +1448,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>64247.2626792091</v>
+        <v>64247.2626792088</v>
       </c>
       <c r="C34" t="n">
-        <v>54437.0854802076</v>
+        <v>54437.0854802025</v>
       </c>
       <c r="D34" t="n">
-        <v>53484.5423604488</v>
+        <v>53484.5423604693</v>
       </c>
       <c r="E34" t="n">
-        <v>70944.7519512732</v>
+        <v>70944.7519512726</v>
       </c>
       <c r="F34" t="n">
-        <v>75293.4392821167</v>
+        <v>75293.4392821222</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1469,7 +1469,7 @@
         <v>44470</v>
       </c>
       <c r="I34" t="n">
-        <v>19777.2626792091</v>
+        <v>19777.2626792088</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1480,19 +1480,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>61835.4267598364</v>
+        <v>61835.426759836</v>
       </c>
       <c r="C35" t="n">
-        <v>53598.1692446605</v>
+        <v>53598.1692446637</v>
       </c>
       <c r="D35" t="n">
-        <v>51168.7284898028</v>
+        <v>51168.7284897986</v>
       </c>
       <c r="E35" t="n">
         <v>68952.716242744</v>
       </c>
       <c r="F35" t="n">
-        <v>72525.3315447804</v>
+        <v>72525.3315447792</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1501,7 +1501,7 @@
         <v>39054</v>
       </c>
       <c r="I35" t="n">
-        <v>22781.4267598364</v>
+        <v>22781.426759836</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1512,19 +1512,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>62995.7763419451</v>
+        <v>62995.7763419446</v>
       </c>
       <c r="C36" t="n">
-        <v>53605.8613544875</v>
+        <v>53605.861354487</v>
       </c>
       <c r="D36" t="n">
-        <v>49345.5682327435</v>
+        <v>49345.5682327559</v>
       </c>
       <c r="E36" t="n">
-        <v>69679.0068439823</v>
+        <v>69679.006843981</v>
       </c>
       <c r="F36" t="n">
-        <v>73155.2540631891</v>
+        <v>73155.2540631937</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1533,7 +1533,7 @@
         <v>35152</v>
       </c>
       <c r="I36" t="n">
-        <v>27843.7763419451</v>
+        <v>27843.7763419446</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1544,19 +1544,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>61404.0182958342</v>
+        <v>61404.018295834</v>
       </c>
       <c r="C37" t="n">
-        <v>53920.6438320501</v>
+        <v>53920.6438320464</v>
       </c>
       <c r="D37" t="n">
-        <v>52845.6837052908</v>
+        <v>52845.683705291</v>
       </c>
       <c r="E37" t="n">
-        <v>67854.6241981911</v>
+        <v>67854.62419819</v>
       </c>
       <c r="F37" t="n">
-        <v>70408.3215893727</v>
+        <v>70408.3215893779</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1565,7 +1565,7 @@
         <v>24367</v>
       </c>
       <c r="I37" t="n">
-        <v>37037.0182958342</v>
+        <v>37037.018295834</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1576,19 +1576,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>59512.7200783429</v>
+        <v>59512.7200783423</v>
       </c>
       <c r="C38" t="n">
-        <v>51348.2738711259</v>
+        <v>51348.27387112</v>
       </c>
       <c r="D38" t="n">
-        <v>47941.7687529754</v>
+        <v>47941.7687529794</v>
       </c>
       <c r="E38" t="n">
-        <v>67255.728815642</v>
+        <v>67255.7288156402</v>
       </c>
       <c r="F38" t="n">
-        <v>69954.801399673</v>
+        <v>69954.8013996711</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1597,7 +1597,7 @@
         <v>28708</v>
       </c>
       <c r="I38" t="n">
-        <v>30804.7200783429</v>
+        <v>30804.7200783423</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1608,19 +1608,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>55729.4874851847</v>
+        <v>55729.4874851845</v>
       </c>
       <c r="C39" t="n">
-        <v>46685.1838170409</v>
+        <v>46685.1838170398</v>
       </c>
       <c r="D39" t="n">
-        <v>42193.1715190994</v>
+        <v>42193.1715190941</v>
       </c>
       <c r="E39" t="n">
-        <v>63074.9575649042</v>
+        <v>63074.9575649032</v>
       </c>
       <c r="F39" t="n">
-        <v>65477.3093841934</v>
+        <v>65477.3093841928</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1629,7 +1629,7 @@
         <v>43574</v>
       </c>
       <c r="I39" t="n">
-        <v>12155.4874851847</v>
+        <v>12155.4874851845</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1640,19 +1640,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>68520.497222616</v>
+        <v>68520.4972226154</v>
       </c>
       <c r="C40" t="n">
-        <v>60601.1212050396</v>
+        <v>60601.1212050373</v>
       </c>
       <c r="D40" t="n">
-        <v>56553.048127752</v>
+        <v>56553.0481277471</v>
       </c>
       <c r="E40" t="n">
-        <v>75949.5393124946</v>
+        <v>75949.5393124897</v>
       </c>
       <c r="F40" t="n">
-        <v>78226.3675015743</v>
+        <v>78226.367501579</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1661,7 +1661,7 @@
         <v>49855</v>
       </c>
       <c r="I40" t="n">
-        <v>18665.497222616</v>
+        <v>18665.4972226154</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1672,19 +1672,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>65931.9415049372</v>
+        <v>65931.9415049368</v>
       </c>
       <c r="C41" t="n">
-        <v>57911.6427116087</v>
+        <v>57911.6427116106</v>
       </c>
       <c r="D41" t="n">
-        <v>50794.3879749068</v>
+        <v>50794.3879749196</v>
       </c>
       <c r="E41" t="n">
-        <v>74180.153369107</v>
+        <v>74180.1533691021</v>
       </c>
       <c r="F41" t="n">
-        <v>75999.7729641261</v>
+        <v>75999.7729641257</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1693,7 +1693,7 @@
         <v>48926</v>
       </c>
       <c r="I41" t="n">
-        <v>17005.9415049372</v>
+        <v>17005.9415049368</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1704,19 +1704,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>68173.3422869903</v>
+        <v>68173.3422869899</v>
       </c>
       <c r="C42" t="n">
-        <v>58768.697431448</v>
+        <v>58768.6974314446</v>
       </c>
       <c r="D42" t="n">
-        <v>54002.9792736952</v>
+        <v>54002.9792737186</v>
       </c>
       <c r="E42" t="n">
-        <v>75379.972564745</v>
+        <v>75379.972564743</v>
       </c>
       <c r="F42" t="n">
-        <v>80028.9919946418</v>
+        <v>80028.9919946408</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1725,7 +1725,7 @@
         <v>53258</v>
       </c>
       <c r="I42" t="n">
-        <v>14915.3422869903</v>
+        <v>14915.3422869899</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1736,19 +1736,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>67070.252840194</v>
+        <v>67070.2528401935</v>
       </c>
       <c r="C43" t="n">
-        <v>56797.9200444352</v>
+        <v>56797.9200444346</v>
       </c>
       <c r="D43" t="n">
-        <v>53138.3127833217</v>
+        <v>53138.3127833431</v>
       </c>
       <c r="E43" t="n">
-        <v>75081.5966524569</v>
+        <v>75081.5966524564</v>
       </c>
       <c r="F43" t="n">
-        <v>77018.1135796557</v>
+        <v>77018.1135796551</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1757,7 +1757,7 @@
         <v>52007</v>
       </c>
       <c r="I43" t="n">
-        <v>15063.252840194</v>
+        <v>15063.2528401935</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1768,19 +1768,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>70708.9502404286</v>
+        <v>70708.950240428</v>
       </c>
       <c r="C44" t="n">
-        <v>60906.8206581696</v>
+        <v>60906.8206581711</v>
       </c>
       <c r="D44" t="n">
-        <v>54009.3873455281</v>
+        <v>54009.3873455233</v>
       </c>
       <c r="E44" t="n">
-        <v>79810.985954341</v>
+        <v>79810.9859543354</v>
       </c>
       <c r="F44" t="n">
-        <v>82843.4730722532</v>
+        <v>82843.4730722526</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1789,7 +1789,7 @@
         <v>58247</v>
       </c>
       <c r="I44" t="n">
-        <v>12461.9502404286</v>
+        <v>12461.950240428</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1800,19 +1800,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>70076.5915395017</v>
+        <v>70076.5915395012</v>
       </c>
       <c r="C45" t="n">
-        <v>60685.5702808773</v>
+        <v>60685.5702808759</v>
       </c>
       <c r="D45" t="n">
-        <v>55365.1642002719</v>
+        <v>55365.1642002819</v>
       </c>
       <c r="E45" t="n">
-        <v>78338.4397514774</v>
+        <v>78338.439751479</v>
       </c>
       <c r="F45" t="n">
-        <v>83188.0527296841</v>
+        <v>83188.0527296887</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1821,7 +1821,7 @@
         <v>61068</v>
       </c>
       <c r="I45" t="n">
-        <v>9008.59153950168</v>
+        <v>9008.59153950121</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1832,19 +1832,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>68200.9247248634</v>
+        <v>68200.9247248629</v>
       </c>
       <c r="C46" t="n">
-        <v>58017.4570766338</v>
+        <v>58017.4570766356</v>
       </c>
       <c r="D46" t="n">
-        <v>51660.6623544302</v>
+        <v>51660.6623544394</v>
       </c>
       <c r="E46" t="n">
-        <v>76298.1339184851</v>
+        <v>76298.1339184811</v>
       </c>
       <c r="F46" t="n">
-        <v>80828.4951146311</v>
+        <v>80828.4951146366</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1853,7 +1853,7 @@
         <v>55767</v>
       </c>
       <c r="I46" t="n">
-        <v>12433.9247248634</v>
+        <v>12433.9247248629</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1864,19 +1864,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>65951.7513096784</v>
+        <v>65951.7513096778</v>
       </c>
       <c r="C47" t="n">
-        <v>54942.0992112028</v>
+        <v>54942.0992112013</v>
       </c>
       <c r="D47" t="n">
-        <v>49939.0780881429</v>
+        <v>49939.0780881454</v>
       </c>
       <c r="E47" t="n">
-        <v>75586.4610760949</v>
+        <v>75586.4610760929</v>
       </c>
       <c r="F47" t="n">
-        <v>77776.7133993511</v>
+        <v>77776.7133993495</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1885,7 +1885,7 @@
         <v>56981</v>
       </c>
       <c r="I47" t="n">
-        <v>8970.75130967835</v>
+        <v>8970.75130967784</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1896,19 +1896,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>67340.919689204</v>
+        <v>67340.9196892035</v>
       </c>
       <c r="C48" t="n">
-        <v>56654.6747757462</v>
+        <v>56654.6747757439</v>
       </c>
       <c r="D48" t="n">
-        <v>49635.6177823898</v>
+        <v>49635.6177823847</v>
       </c>
       <c r="E48" t="n">
-        <v>77377.3936187332</v>
+        <v>77377.3936187318</v>
       </c>
       <c r="F48" t="n">
-        <v>81921.6502727938</v>
+        <v>81921.6502727918</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1917,7 +1917,7 @@
         <v>57719</v>
       </c>
       <c r="I48" t="n">
-        <v>9621.91968920403</v>
+        <v>9621.91968920354</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1928,19 +1928,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>66270.9563831672</v>
+        <v>66270.9563831667</v>
       </c>
       <c r="C49" t="n">
-        <v>55403.1378346722</v>
+        <v>55403.1378346643</v>
       </c>
       <c r="D49" t="n">
-        <v>49822.7381625933</v>
+        <v>49822.7381626044</v>
       </c>
       <c r="E49" t="n">
-        <v>74792.6405542788</v>
+        <v>74792.6405542786</v>
       </c>
       <c r="F49" t="n">
-        <v>78001.6137341881</v>
+        <v>78001.6137341934</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1949,7 +1949,7 @@
         <v>50823</v>
       </c>
       <c r="I49" t="n">
-        <v>15447.9563831672</v>
+        <v>15447.9563831667</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/Syphilis.xlsx
+++ b/outcome/appendix/forecast/Syphilis.xlsx
@@ -424,19 +424,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>47143.2748783612</v>
+        <v>46548.1874247757</v>
       </c>
       <c r="C2" t="n">
-        <v>44818.9340865651</v>
+        <v>41627.7271844246</v>
       </c>
       <c r="D2" t="n">
-        <v>43667.4525187955</v>
+        <v>40010.423559187</v>
       </c>
       <c r="E2" t="n">
-        <v>50190.7615374506</v>
+        <v>51251.0955842692</v>
       </c>
       <c r="F2" t="n">
-        <v>51096.4048619153</v>
+        <v>53767.9183235919</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -445,7 +445,7 @@
         <v>39671</v>
       </c>
       <c r="I2" t="n">
-        <v>7472.27487836117</v>
+        <v>6877.18742477572</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -456,19 +456,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>42940.2621192623</v>
+        <v>40832.1812665575</v>
       </c>
       <c r="C3" t="n">
-        <v>39967.1952699306</v>
+        <v>35330.1661567498</v>
       </c>
       <c r="D3" t="n">
-        <v>38026.7628134791</v>
+        <v>33705.7234160027</v>
       </c>
       <c r="E3" t="n">
-        <v>45289.441954916</v>
+        <v>45461.8541012749</v>
       </c>
       <c r="F3" t="n">
-        <v>46217.2305951596</v>
+        <v>47067.8086132521</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -477,7 +477,7 @@
         <v>21448</v>
       </c>
       <c r="I3" t="n">
-        <v>21492.2621192623</v>
+        <v>19384.1812665575</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -488,19 +488,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>54861.1237072721</v>
+        <v>54904.8279638594</v>
       </c>
       <c r="C4" t="n">
-        <v>51943.4146445844</v>
+        <v>48015.0495791441</v>
       </c>
       <c r="D4" t="n">
-        <v>50630.5184971209</v>
+        <v>46114.4907812218</v>
       </c>
       <c r="E4" t="n">
-        <v>57333.8672168171</v>
+        <v>60193.6148123528</v>
       </c>
       <c r="F4" t="n">
-        <v>58992.5860593244</v>
+        <v>62183.7665078656</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -509,7 +509,7 @@
         <v>41154</v>
       </c>
       <c r="I4" t="n">
-        <v>13707.1237072721</v>
+        <v>13750.8279638594</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -520,19 +520,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>53181.7715913498</v>
+        <v>53207.9267047333</v>
       </c>
       <c r="C5" t="n">
-        <v>50610.9293624842</v>
+        <v>47670.6231361871</v>
       </c>
       <c r="D5" t="n">
-        <v>49648.1779235596</v>
+        <v>45618.5533464188</v>
       </c>
       <c r="E5" t="n">
-        <v>56618.4062952207</v>
+        <v>57955.9314397206</v>
       </c>
       <c r="F5" t="n">
-        <v>58158.7528831881</v>
+        <v>60023.1328004844</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -541,7 +541,7 @@
         <v>46728</v>
       </c>
       <c r="I5" t="n">
-        <v>6453.77159134982</v>
+        <v>6479.92670473333</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -552,19 +552,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>55417.7426364816</v>
+        <v>55367.0269765961</v>
       </c>
       <c r="C6" t="n">
-        <v>52505.8252373717</v>
+        <v>49159.344700059</v>
       </c>
       <c r="D6" t="n">
-        <v>51454.4626175508</v>
+        <v>46714.7603119744</v>
       </c>
       <c r="E6" t="n">
-        <v>57519.9947384322</v>
+        <v>60802.588426699</v>
       </c>
       <c r="F6" t="n">
-        <v>58566.0296595061</v>
+        <v>63036.4042140843</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -573,7 +573,7 @@
         <v>46753</v>
       </c>
       <c r="I6" t="n">
-        <v>8664.74263648163</v>
+        <v>8614.02697659615</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -584,19 +584,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>53741.9375247547</v>
+        <v>54132.7866939208</v>
       </c>
       <c r="C7" t="n">
-        <v>50870.4126701883</v>
+        <v>47357.3255293252</v>
       </c>
       <c r="D7" t="n">
-        <v>47419.5342641412</v>
+        <v>45141.1992594562</v>
       </c>
       <c r="E7" t="n">
-        <v>57606.3422406599</v>
+        <v>60074.3977589419</v>
       </c>
       <c r="F7" t="n">
-        <v>58503.5620813945</v>
+        <v>62401.3657386832</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -605,7 +605,7 @@
         <v>46538</v>
       </c>
       <c r="I7" t="n">
-        <v>7203.93752475474</v>
+        <v>7594.78669392075</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -616,19 +616,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>58391.6418628782</v>
+        <v>57842.2712865972</v>
       </c>
       <c r="C8" t="n">
-        <v>54652.1239046587</v>
+        <v>51674.8443140835</v>
       </c>
       <c r="D8" t="n">
-        <v>52226.8549108444</v>
+        <v>49795.7239947237</v>
       </c>
       <c r="E8" t="n">
-        <v>62395.8526194835</v>
+        <v>63179.2385590723</v>
       </c>
       <c r="F8" t="n">
-        <v>64566.1965662661</v>
+        <v>65674.6929900017</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -637,7 +637,7 @@
         <v>46838</v>
       </c>
       <c r="I8" t="n">
-        <v>11553.6418628782</v>
+        <v>11004.2712865972</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -648,19 +648,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>57337.7679314464</v>
+        <v>57506.6130079996</v>
       </c>
       <c r="C9" t="n">
-        <v>53840.9910972361</v>
+        <v>51341.226327247</v>
       </c>
       <c r="D9" t="n">
-        <v>52929.9810485667</v>
+        <v>49013.1149836218</v>
       </c>
       <c r="E9" t="n">
-        <v>60794.9936691613</v>
+        <v>62975.8578784225</v>
       </c>
       <c r="F9" t="n">
-        <v>62806.9445729388</v>
+        <v>65568.2461166286</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -669,7 +669,7 @@
         <v>46838</v>
       </c>
       <c r="I9" t="n">
-        <v>10499.7679314464</v>
+        <v>10668.6130079996</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -680,19 +680,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>55430.1696665096</v>
+        <v>55855.758353404</v>
       </c>
       <c r="C10" t="n">
-        <v>51048.8923706923</v>
+        <v>51026.8783005282</v>
       </c>
       <c r="D10" t="n">
-        <v>50019.5370171225</v>
+        <v>48608.0330551546</v>
       </c>
       <c r="E10" t="n">
-        <v>59171.169276109</v>
+        <v>61174.5887779274</v>
       </c>
       <c r="F10" t="n">
-        <v>60763.644581193</v>
+        <v>63823.4832852707</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -701,7 +701,7 @@
         <v>48965</v>
       </c>
       <c r="I10" t="n">
-        <v>6465.16966650963</v>
+        <v>6890.75835340404</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -712,19 +712,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>53420.8607837668</v>
+        <v>53576.8901383832</v>
       </c>
       <c r="C11" t="n">
-        <v>50471.36735277</v>
+        <v>48442.4316825291</v>
       </c>
       <c r="D11" t="n">
-        <v>49674.5833888247</v>
+        <v>46082.1230121099</v>
       </c>
       <c r="E11" t="n">
-        <v>57109.7372269865</v>
+        <v>59955.7234094319</v>
       </c>
       <c r="F11" t="n">
-        <v>58118.3479083339</v>
+        <v>62653.1794027134</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -733,7 +733,7 @@
         <v>44438</v>
       </c>
       <c r="I11" t="n">
-        <v>8982.86078376677</v>
+        <v>9138.89013838324</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -744,19 +744,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>54133.7946246996</v>
+        <v>53971.5282330813</v>
       </c>
       <c r="C12" t="n">
-        <v>50501.7906941143</v>
+        <v>48973.9475436837</v>
       </c>
       <c r="D12" t="n">
-        <v>49080.2082698555</v>
+        <v>46523.8524244654</v>
       </c>
       <c r="E12" t="n">
-        <v>59219.7372663096</v>
+        <v>59072.3991127985</v>
       </c>
       <c r="F12" t="n">
-        <v>59764.3041107643</v>
+        <v>61614.1033150753</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -765,7 +765,7 @@
         <v>45305</v>
       </c>
       <c r="I12" t="n">
-        <v>8828.79462469959</v>
+        <v>8666.5282330813</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -776,19 +776,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>52715.0433056583</v>
+        <v>53159.1236826519</v>
       </c>
       <c r="C13" t="n">
-        <v>48798.3448936161</v>
+        <v>48229.4500516909</v>
       </c>
       <c r="D13" t="n">
-        <v>47376.149097387</v>
+        <v>45727.458843203</v>
       </c>
       <c r="E13" t="n">
-        <v>56195.7449290369</v>
+        <v>58328.4702571078</v>
       </c>
       <c r="F13" t="n">
-        <v>57773.0842423352</v>
+        <v>61173.7251478791</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -797,7 +797,7 @@
         <v>44696</v>
       </c>
       <c r="I13" t="n">
-        <v>8019.04330565829</v>
+        <v>8463.12368265195</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -808,19 +808,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>51797.9134642957</v>
+        <v>50401.7709597161</v>
       </c>
       <c r="C14" t="n">
-        <v>48306.119687813</v>
+        <v>44506.195254705</v>
       </c>
       <c r="D14" t="n">
-        <v>47542.1195507293</v>
+        <v>42279.994644785</v>
       </c>
       <c r="E14" t="n">
-        <v>55401.9971466098</v>
+        <v>57029.1454397481</v>
       </c>
       <c r="F14" t="n">
-        <v>55940.4653122019</v>
+        <v>60148.4402667408</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -829,7 +829,7 @@
         <v>40079</v>
       </c>
       <c r="I14" t="n">
-        <v>11718.9134642957</v>
+        <v>10322.7709597161</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -840,19 +840,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>46851.9601903607</v>
+        <v>44865.8300267125</v>
       </c>
       <c r="C15" t="n">
-        <v>42123.9469715038</v>
+        <v>39298.6448227485</v>
       </c>
       <c r="D15" t="n">
-        <v>41100.0112228011</v>
+        <v>36560.2541510884</v>
       </c>
       <c r="E15" t="n">
-        <v>49972.202503434</v>
+        <v>50363.0449896184</v>
       </c>
       <c r="F15" t="n">
-        <v>51496.9464044158</v>
+        <v>52936.3587533328</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -861,7 +861,7 @@
         <v>33615</v>
       </c>
       <c r="I15" t="n">
-        <v>13236.9601903607</v>
+        <v>11250.8300267125</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -872,19 +872,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>59611.4282689991</v>
+        <v>58902.3191234587</v>
       </c>
       <c r="C16" t="n">
-        <v>55015.2159741996</v>
+        <v>49830.5598135045</v>
       </c>
       <c r="D16" t="n">
-        <v>52992.9789157015</v>
+        <v>46575.5886410607</v>
       </c>
       <c r="E16" t="n">
-        <v>64298.0884812064</v>
+        <v>66532.2016151798</v>
       </c>
       <c r="F16" t="n">
-        <v>65322.910709777</v>
+        <v>69372.208764452</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -893,7 +893,7 @@
         <v>50682</v>
       </c>
       <c r="I16" t="n">
-        <v>8929.42826899911</v>
+        <v>8220.31912345871</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -904,19 +904,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>57267.4963287651</v>
+        <v>56986.2087208306</v>
       </c>
       <c r="C17" t="n">
-        <v>53550.9342741683</v>
+        <v>48565.5616863747</v>
       </c>
       <c r="D17" t="n">
-        <v>50419.3921056307</v>
+        <v>46097.3400032939</v>
       </c>
       <c r="E17" t="n">
-        <v>61315.1096942935</v>
+        <v>64384.2369582452</v>
       </c>
       <c r="F17" t="n">
-        <v>63579.2754169423</v>
+        <v>67289.3069954731</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -925,7 +925,7 @@
         <v>49113</v>
       </c>
       <c r="I17" t="n">
-        <v>8154.49632876505</v>
+        <v>7873.2087208306</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -936,19 +936,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>59769.742160599</v>
+        <v>59168.6692795098</v>
       </c>
       <c r="C18" t="n">
-        <v>55607.0681404936</v>
+        <v>50226.7594714462</v>
       </c>
       <c r="D18" t="n">
-        <v>54309.084715825</v>
+        <v>47955.7157251843</v>
       </c>
       <c r="E18" t="n">
-        <v>63862.095737522</v>
+        <v>67617.92841472</v>
       </c>
       <c r="F18" t="n">
-        <v>66002.8062515582</v>
+        <v>70722.3009890299</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -957,7 +957,7 @@
         <v>47999</v>
       </c>
       <c r="I18" t="n">
-        <v>11770.742160599</v>
+        <v>11169.6692795098</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -968,19 +968,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>58385.8028459653</v>
+        <v>57974.2101509399</v>
       </c>
       <c r="C19" t="n">
-        <v>54227.5460071832</v>
+        <v>49351.6056789541</v>
       </c>
       <c r="D19" t="n">
-        <v>51619.2068075157</v>
+        <v>47109.1991996915</v>
       </c>
       <c r="E19" t="n">
-        <v>62022.8622712953</v>
+        <v>66198.4898917514</v>
       </c>
       <c r="F19" t="n">
-        <v>64248.3861395083</v>
+        <v>69395.6579895482</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -989,7 +989,7 @@
         <v>47423</v>
       </c>
       <c r="I19" t="n">
-        <v>10962.8028459653</v>
+        <v>10551.2101509399</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1000,19 +1000,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>62175.6321851043</v>
+        <v>61383.9462014254</v>
       </c>
       <c r="C20" t="n">
-        <v>57123.1440162197</v>
+        <v>52357.9234944449</v>
       </c>
       <c r="D20" t="n">
-        <v>54584.771092734</v>
+        <v>49769.4584313904</v>
       </c>
       <c r="E20" t="n">
-        <v>66775.716705552</v>
+        <v>70733.0358665335</v>
       </c>
       <c r="F20" t="n">
-        <v>68329.6550864807</v>
+        <v>74181.8959451437</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1021,7 +1021,7 @@
         <v>51531</v>
       </c>
       <c r="I20" t="n">
-        <v>10644.6321851043</v>
+        <v>9852.94620142539</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1032,19 +1032,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>61454.8034260203</v>
+        <v>61050.8621870174</v>
       </c>
       <c r="C21" t="n">
-        <v>55515.1115959563</v>
+        <v>52195.4306251855</v>
       </c>
       <c r="D21" t="n">
-        <v>54285.5299184901</v>
+        <v>49699.1392500838</v>
       </c>
       <c r="E21" t="n">
-        <v>66542.9323502534</v>
+        <v>70924.6909362919</v>
       </c>
       <c r="F21" t="n">
-        <v>68378.8454056936</v>
+        <v>74521.9738759145</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1053,7 +1053,7 @@
         <v>46091</v>
       </c>
       <c r="I21" t="n">
-        <v>15363.8034260203</v>
+        <v>14959.8621870174</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1064,19 +1064,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>59702.1358288894</v>
+        <v>59482.7690533154</v>
       </c>
       <c r="C22" t="n">
-        <v>54104.8202362029</v>
+        <v>51944.2195912236</v>
       </c>
       <c r="D22" t="n">
-        <v>53377.3700403769</v>
+        <v>49767.9386068479</v>
       </c>
       <c r="E22" t="n">
-        <v>64062.3745485526</v>
+        <v>69199.4536175793</v>
       </c>
       <c r="F22" t="n">
-        <v>67607.5279837652</v>
+        <v>72897.2091379522</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1085,7 +1085,7 @@
         <v>45792</v>
       </c>
       <c r="I22" t="n">
-        <v>13910.1358288894</v>
+        <v>13690.7690533154</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1096,19 +1096,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>56997.7036869599</v>
+        <v>57195.5904626324</v>
       </c>
       <c r="C23" t="n">
-        <v>51864.5654604172</v>
+        <v>49943.1678256695</v>
       </c>
       <c r="D23" t="n">
-        <v>50957.5669411237</v>
+        <v>46722.2490610773</v>
       </c>
       <c r="E23" t="n">
-        <v>62340.0486232699</v>
+        <v>66411.0715454954</v>
       </c>
       <c r="F23" t="n">
-        <v>62955.9592330943</v>
+        <v>70178.2744101151</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1117,7 +1117,7 @@
         <v>40900</v>
       </c>
       <c r="I23" t="n">
-        <v>16097.7036869599</v>
+        <v>16295.5904626324</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1128,19 +1128,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>58864.9215770611</v>
+        <v>57649.6116281753</v>
       </c>
       <c r="C24" t="n">
-        <v>53684.7545250058</v>
+        <v>50450.0884307688</v>
       </c>
       <c r="D24" t="n">
-        <v>50193.8392215806</v>
+        <v>47103.1218583736</v>
       </c>
       <c r="E24" t="n">
-        <v>63796.0634108342</v>
+        <v>67682.358163967</v>
       </c>
       <c r="F24" t="n">
-        <v>65756.6221108002</v>
+        <v>71642.7035441728</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1149,7 +1149,7 @@
         <v>42174</v>
       </c>
       <c r="I24" t="n">
-        <v>16690.9215770611</v>
+        <v>15475.6116281753</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1160,19 +1160,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>57985.7513175162</v>
+        <v>56893.5096951378</v>
       </c>
       <c r="C25" t="n">
-        <v>52382.4451732033</v>
+        <v>49637.2590238039</v>
       </c>
       <c r="D25" t="n">
-        <v>50687.3818729484</v>
+        <v>46305.0402332325</v>
       </c>
       <c r="E25" t="n">
-        <v>63179.6710893935</v>
+        <v>66636.8519822954</v>
       </c>
       <c r="F25" t="n">
-        <v>63703.2953479385</v>
+        <v>70723.5304290159</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1181,7 +1181,7 @@
         <v>42321</v>
       </c>
       <c r="I25" t="n">
-        <v>15664.7513175162</v>
+        <v>14572.5096951378</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1192,19 +1192,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>56376.9618664792</v>
+        <v>54215.5824831306</v>
       </c>
       <c r="C26" t="n">
-        <v>50429.4811856908</v>
+        <v>45477.6402320446</v>
       </c>
       <c r="D26" t="n">
-        <v>47418.1815464619</v>
+        <v>42103.5312123655</v>
       </c>
       <c r="E26" t="n">
-        <v>62152.4262901845</v>
+        <v>64397.9865628955</v>
       </c>
       <c r="F26" t="n">
-        <v>64970.8470795323</v>
+        <v>68572.1202363448</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1213,7 +1213,7 @@
         <v>39586</v>
       </c>
       <c r="I26" t="n">
-        <v>16790.9618664792</v>
+        <v>14629.5824831306</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1224,19 +1224,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>51215.5235574796</v>
+        <v>49106.2634915013</v>
       </c>
       <c r="C27" t="n">
-        <v>44611.1123436233</v>
+        <v>41568.6073747014</v>
       </c>
       <c r="D27" t="n">
-        <v>42411.0820223297</v>
+        <v>38384.6039398015</v>
       </c>
       <c r="E27" t="n">
-        <v>57170.2772543076</v>
+        <v>58028.4095443794</v>
       </c>
       <c r="F27" t="n">
-        <v>59123.5967248289</v>
+        <v>62135.9140132298</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1245,7 +1245,7 @@
         <v>34683</v>
       </c>
       <c r="I27" t="n">
-        <v>16532.5235574796</v>
+        <v>14423.2634915013</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1256,19 +1256,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>64636.1495543471</v>
+        <v>62610.9000494958</v>
       </c>
       <c r="C28" t="n">
-        <v>58698.829019797</v>
+        <v>51935.6159115985</v>
       </c>
       <c r="D28" t="n">
-        <v>57296.215271446</v>
+        <v>48220.3690203731</v>
       </c>
       <c r="E28" t="n">
-        <v>69803.6648648466</v>
+        <v>76192.8934893204</v>
       </c>
       <c r="F28" t="n">
-        <v>73281.3999735365</v>
+        <v>81118.0458745418</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1277,7 +1277,7 @@
         <v>46978</v>
       </c>
       <c r="I28" t="n">
-        <v>17658.1495543471</v>
+        <v>15632.9000494958</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1288,19 +1288,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>61425.0620229439</v>
+        <v>60580.5104261669</v>
       </c>
       <c r="C29" t="n">
-        <v>53778.7080720194</v>
+        <v>50066.8148879813</v>
       </c>
       <c r="D29" t="n">
-        <v>52392.6471580688</v>
+        <v>47321.6258673531</v>
       </c>
       <c r="E29" t="n">
-        <v>68631.8437233712</v>
+        <v>73995.037881588</v>
       </c>
       <c r="F29" t="n">
-        <v>69696.1552550229</v>
+        <v>79030.8540907922</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1309,7 +1309,7 @@
         <v>39513</v>
       </c>
       <c r="I29" t="n">
-        <v>21912.0620229439</v>
+        <v>21067.5104261669</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1320,19 +1320,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>63979.6101247075</v>
+        <v>62792.4744360368</v>
       </c>
       <c r="C30" t="n">
-        <v>57401.7130982289</v>
+        <v>52035.1808408278</v>
       </c>
       <c r="D30" t="n">
-        <v>56073.123356503</v>
+        <v>49161.5780981794</v>
       </c>
       <c r="E30" t="n">
-        <v>69881.3506695952</v>
+        <v>77586.9142052485</v>
       </c>
       <c r="F30" t="n">
-        <v>74178.821602718</v>
+        <v>82944.9825399258</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1341,7 +1341,7 @@
         <v>43751</v>
       </c>
       <c r="I30" t="n">
-        <v>20228.6101247075</v>
+        <v>19041.4744360368</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1352,19 +1352,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>62757.189639569</v>
+        <v>61612.2623358464</v>
       </c>
       <c r="C31" t="n">
-        <v>54041.7456276295</v>
+        <v>51418.29114402</v>
       </c>
       <c r="D31" t="n">
-        <v>51647.9768005688</v>
+        <v>48548.7833853704</v>
       </c>
       <c r="E31" t="n">
-        <v>68646.1739618581</v>
+        <v>76164.9739491243</v>
       </c>
       <c r="F31" t="n">
-        <v>69841.2067817428</v>
+        <v>81668.546739398</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1373,7 +1373,7 @@
         <v>48507</v>
       </c>
       <c r="I31" t="n">
-        <v>14250.189639569</v>
+        <v>13105.2623358464</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1384,19 +1384,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>65626.159514931</v>
+        <v>64823.9644796026</v>
       </c>
       <c r="C32" t="n">
-        <v>58380.9297878922</v>
+        <v>53119.1621372075</v>
       </c>
       <c r="D32" t="n">
-        <v>56276.3386830371</v>
+        <v>50398.6752409037</v>
       </c>
       <c r="E32" t="n">
-        <v>71282.0935474804</v>
+        <v>81153.0895927414</v>
       </c>
       <c r="F32" t="n">
-        <v>73504.6543463237</v>
+        <v>87051.6359524703</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1405,7 +1405,7 @@
         <v>51391</v>
       </c>
       <c r="I32" t="n">
-        <v>14235.159514931</v>
+        <v>13432.9644796026</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1416,19 +1416,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>65438.9117667269</v>
+        <v>64471.3065418529</v>
       </c>
       <c r="C33" t="n">
-        <v>58192.7246749528</v>
+        <v>52997.3070064671</v>
       </c>
       <c r="D33" t="n">
-        <v>55142.6293606093</v>
+        <v>49908.0775713692</v>
       </c>
       <c r="E33" t="n">
-        <v>72137.2900303512</v>
+        <v>81461.9493810362</v>
       </c>
       <c r="F33" t="n">
-        <v>75019.5469385571</v>
+        <v>87585.1356484495</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1437,7 +1437,7 @@
         <v>50482</v>
       </c>
       <c r="I33" t="n">
-        <v>14956.9117667269</v>
+        <v>13989.3065418529</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1448,19 +1448,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>64247.2626792088</v>
+        <v>62894.0854507007</v>
       </c>
       <c r="C34" t="n">
-        <v>54437.0854802025</v>
+        <v>52973.1848917047</v>
       </c>
       <c r="D34" t="n">
-        <v>53484.5423604693</v>
+        <v>48591.1226385829</v>
       </c>
       <c r="E34" t="n">
-        <v>70944.7519512726</v>
+        <v>79701.3809705026</v>
       </c>
       <c r="F34" t="n">
-        <v>75293.4392821222</v>
+        <v>85969.1763993365</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1469,7 +1469,7 @@
         <v>44470</v>
       </c>
       <c r="I34" t="n">
-        <v>19777.2626792088</v>
+        <v>18424.0854507007</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1480,19 +1480,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>61835.426759836</v>
+        <v>60516.308901921</v>
       </c>
       <c r="C35" t="n">
-        <v>53598.1692446637</v>
+        <v>49989.3058931161</v>
       </c>
       <c r="D35" t="n">
-        <v>51168.7284897986</v>
+        <v>45381.4862333046</v>
       </c>
       <c r="E35" t="n">
-        <v>68952.716242744</v>
+        <v>76785.1163259057</v>
       </c>
       <c r="F35" t="n">
-        <v>72525.3315447792</v>
+        <v>83145.7539452945</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1501,7 +1501,7 @@
         <v>39054</v>
       </c>
       <c r="I35" t="n">
-        <v>22781.426759836</v>
+        <v>21462.308901921</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1512,19 +1512,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>62995.7763419446</v>
+        <v>61039.6776414003</v>
       </c>
       <c r="C36" t="n">
-        <v>53605.861354487</v>
+        <v>50410.196342482</v>
       </c>
       <c r="D36" t="n">
-        <v>49345.5682327559</v>
+        <v>45659.3808986414</v>
       </c>
       <c r="E36" t="n">
-        <v>69679.006843981</v>
+        <v>78249.4638867411</v>
       </c>
       <c r="F36" t="n">
-        <v>73155.2540631937</v>
+        <v>84893.7151599449</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1533,7 +1533,7 @@
         <v>35152</v>
       </c>
       <c r="I36" t="n">
-        <v>27843.7763419446</v>
+        <v>25887.6776414003</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1544,19 +1544,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>61404.018295834</v>
+        <v>60323.236336649</v>
       </c>
       <c r="C37" t="n">
-        <v>53920.6438320464</v>
+        <v>49796.2192282801</v>
       </c>
       <c r="D37" t="n">
-        <v>52845.683705291</v>
+        <v>44955.6543687813</v>
       </c>
       <c r="E37" t="n">
-        <v>67854.62419819</v>
+        <v>77206.9387586208</v>
       </c>
       <c r="F37" t="n">
-        <v>70408.3215893779</v>
+        <v>84027.1335003444</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1565,7 +1565,7 @@
         <v>24367</v>
       </c>
       <c r="I37" t="n">
-        <v>37037.018295834</v>
+        <v>35956.236336649</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1576,19 +1576,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>59512.7200783423</v>
+        <v>57617.3126811573</v>
       </c>
       <c r="C38" t="n">
-        <v>51348.27387112</v>
+        <v>45287.4667720843</v>
       </c>
       <c r="D38" t="n">
-        <v>47941.7687529794</v>
+        <v>40575.7062056472</v>
       </c>
       <c r="E38" t="n">
-        <v>67255.7288156402</v>
+        <v>74866.9579903342</v>
       </c>
       <c r="F38" t="n">
-        <v>69954.8013996711</v>
+        <v>81800.726200932</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1597,7 +1597,7 @@
         <v>28708</v>
       </c>
       <c r="I38" t="n">
-        <v>30804.7200783423</v>
+        <v>28909.3126811573</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1608,19 +1608,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>55729.4874851845</v>
+        <v>52946.5973703373</v>
       </c>
       <c r="C39" t="n">
-        <v>46685.1838170398</v>
+        <v>41455.7224253724</v>
       </c>
       <c r="D39" t="n">
-        <v>42193.1715190941</v>
+        <v>36856.728985912</v>
       </c>
       <c r="E39" t="n">
-        <v>63074.9575649032</v>
+        <v>68027.6109980776</v>
       </c>
       <c r="F39" t="n">
-        <v>65477.3093841928</v>
+        <v>74837.8049250266</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1629,7 +1629,7 @@
         <v>43574</v>
       </c>
       <c r="I39" t="n">
-        <v>12155.4874851845</v>
+        <v>9372.59737033729</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1640,19 +1640,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>68520.4972226154</v>
+        <v>65995.6050731975</v>
       </c>
       <c r="C40" t="n">
-        <v>60601.1212050373</v>
+        <v>52660.6023007342</v>
       </c>
       <c r="D40" t="n">
-        <v>56553.0481277471</v>
+        <v>49132.6496124636</v>
       </c>
       <c r="E40" t="n">
-        <v>75949.5393124897</v>
+        <v>87786.4916808687</v>
       </c>
       <c r="F40" t="n">
-        <v>78226.367501579</v>
+        <v>95818.1306370009</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1661,7 +1661,7 @@
         <v>49855</v>
       </c>
       <c r="I40" t="n">
-        <v>18665.4972226154</v>
+        <v>16140.6050731975</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1672,19 +1672,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>65931.9415049368</v>
+        <v>63962.8740791091</v>
       </c>
       <c r="C41" t="n">
-        <v>57911.6427116106</v>
+        <v>52022.2495047326</v>
       </c>
       <c r="D41" t="n">
-        <v>50794.3879749196</v>
+        <v>46979.1705610503</v>
       </c>
       <c r="E41" t="n">
-        <v>74180.1533691021</v>
+        <v>85497.3825897376</v>
       </c>
       <c r="F41" t="n">
-        <v>75999.7729641257</v>
+        <v>93668.3494551379</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1693,7 +1693,7 @@
         <v>48926</v>
       </c>
       <c r="I41" t="n">
-        <v>17005.9415049368</v>
+        <v>15036.8740791091</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1704,19 +1704,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>68173.3422869899</v>
+        <v>66184.4773293444</v>
       </c>
       <c r="C42" t="n">
-        <v>58768.6974314446</v>
+        <v>53287.9646943559</v>
       </c>
       <c r="D42" t="n">
-        <v>54002.9792737186</v>
+        <v>48433.446050678</v>
       </c>
       <c r="E42" t="n">
-        <v>75379.972564743</v>
+        <v>89457.1657411364</v>
       </c>
       <c r="F42" t="n">
-        <v>80028.9919946408</v>
+        <v>98083.2725517946</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1725,7 +1725,7 @@
         <v>53258</v>
       </c>
       <c r="I42" t="n">
-        <v>14915.3422869899</v>
+        <v>12926.4773293444</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1736,19 +1736,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>67070.2528401935</v>
+        <v>65006.9574179475</v>
       </c>
       <c r="C43" t="n">
-        <v>56797.9200444346</v>
+        <v>52788.0774429764</v>
       </c>
       <c r="D43" t="n">
-        <v>53138.3127833431</v>
+        <v>47059.5231930749</v>
       </c>
       <c r="E43" t="n">
-        <v>75081.5966524564</v>
+        <v>88002.3724239174</v>
       </c>
       <c r="F43" t="n">
-        <v>77018.1135796551</v>
+        <v>96815.5752110068</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1757,7 +1757,7 @@
         <v>52007</v>
       </c>
       <c r="I43" t="n">
-        <v>15063.2528401935</v>
+        <v>12999.9574179475</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1768,19 +1768,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>70708.950240428</v>
+        <v>68160.3455723173</v>
       </c>
       <c r="C44" t="n">
-        <v>60906.8206581711</v>
+        <v>53463.6705735374</v>
       </c>
       <c r="D44" t="n">
-        <v>54009.3873455233</v>
+        <v>49842.5762964953</v>
       </c>
       <c r="E44" t="n">
-        <v>79810.9859543354</v>
+        <v>93465.757207014</v>
       </c>
       <c r="F44" t="n">
-        <v>82843.4730722526</v>
+        <v>102833.511224184</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1789,7 +1789,7 @@
         <v>58247</v>
       </c>
       <c r="I44" t="n">
-        <v>12461.950240428</v>
+        <v>9913.34557231725</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1800,19 +1800,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>70076.5915395012</v>
+        <v>67790.7484116293</v>
       </c>
       <c r="C45" t="n">
-        <v>60685.5702808759</v>
+        <v>53652.7241553876</v>
       </c>
       <c r="D45" t="n">
-        <v>55365.1642002819</v>
+        <v>48813.6680943954</v>
       </c>
       <c r="E45" t="n">
-        <v>78338.439751479</v>
+        <v>93878.039107274</v>
       </c>
       <c r="F45" t="n">
-        <v>83188.0527296887</v>
+        <v>103544.289901373</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1821,7 +1821,7 @@
         <v>61068</v>
       </c>
       <c r="I45" t="n">
-        <v>9008.59153950121</v>
+        <v>6722.74841162933</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1832,19 +1832,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>68200.9247248629</v>
+        <v>66159.4817305414</v>
       </c>
       <c r="C46" t="n">
-        <v>58017.4570766356</v>
+        <v>52489.7770755181</v>
       </c>
       <c r="D46" t="n">
-        <v>51660.6623544394</v>
+        <v>46368.8683646176</v>
       </c>
       <c r="E46" t="n">
-        <v>76298.1339184811</v>
+        <v>92054.8305907048</v>
       </c>
       <c r="F46" t="n">
-        <v>80828.4951146366</v>
+        <v>101900.352264192</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1853,7 +1853,7 @@
         <v>55767</v>
       </c>
       <c r="I46" t="n">
-        <v>12433.9247248629</v>
+        <v>10392.4817305414</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1864,19 +1864,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>65951.7513096778</v>
+        <v>63690.5870393782</v>
       </c>
       <c r="C47" t="n">
-        <v>54942.0992112013</v>
+        <v>49214.9570783704</v>
       </c>
       <c r="D47" t="n">
-        <v>49939.0780881454</v>
+        <v>43184.8509021895</v>
       </c>
       <c r="E47" t="n">
-        <v>75586.4610760929</v>
+        <v>88976.8995283496</v>
       </c>
       <c r="F47" t="n">
-        <v>77776.7133993495</v>
+        <v>98925.7770640959</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1885,7 +1885,7 @@
         <v>56981</v>
       </c>
       <c r="I47" t="n">
-        <v>8970.75130967784</v>
+        <v>6709.58703937817</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1896,19 +1896,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>67340.9196892035</v>
+        <v>64254.5337322131</v>
       </c>
       <c r="C48" t="n">
-        <v>56654.6747757439</v>
+        <v>49580.4070065273</v>
       </c>
       <c r="D48" t="n">
-        <v>49635.6177823847</v>
+        <v>43402.9085351661</v>
       </c>
       <c r="E48" t="n">
-        <v>77377.3936187318</v>
+        <v>90633.8696228728</v>
       </c>
       <c r="F48" t="n">
-        <v>81921.6502727918</v>
+        <v>100961.541570653</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1917,7 +1917,7 @@
         <v>57719</v>
       </c>
       <c r="I48" t="n">
-        <v>9621.91968920354</v>
+        <v>6535.53373221307</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1928,19 +1928,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>66270.9563831667</v>
+        <v>63539.283365021</v>
       </c>
       <c r="C49" t="n">
-        <v>55403.1378346643</v>
+        <v>48922.2591318722</v>
       </c>
       <c r="D49" t="n">
-        <v>49822.7381626044</v>
+        <v>42668.3380480231</v>
       </c>
       <c r="E49" t="n">
-        <v>74792.6405542786</v>
+        <v>89577.2435657551</v>
       </c>
       <c r="F49" t="n">
-        <v>78001.6137341934</v>
+        <v>100126.412989013</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1949,7 +1949,7 @@
         <v>50823</v>
       </c>
       <c r="I49" t="n">
-        <v>15447.9563831667</v>
+        <v>12716.283365021</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>
